--- a/objectsPositionSG5.xlsx
+++ b/objectsPositionSG5.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Edoardo\Documents\HapticMemorySequence\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{979C5292-4B68-4771-8E1D-67E1A8ABEAA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1801CA48-F22B-4383-921C-C3AE27CE3D9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="43080" yWindow="2700" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="11895" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SG5" sheetId="3" r:id="rId1"/>
@@ -46,6 +46,22 @@
     <sheet name="U15SG5_check_total" sheetId="31" state="hidden" r:id="rId31"/>
     <sheet name="objectsPositionU16SG5" sheetId="32" state="hidden" r:id="rId32"/>
     <sheet name="U16SG5_check_total" sheetId="33" state="hidden" r:id="rId33"/>
+    <sheet name="U17SG5_check_total" sheetId="34" state="hidden" r:id="rId34"/>
+    <sheet name="objectsPositionU17SG5" sheetId="35" state="hidden" r:id="rId35"/>
+    <sheet name="U18SG5_check_total" sheetId="36" state="hidden" r:id="rId36"/>
+    <sheet name="objectsPositionU18SG5" sheetId="37" state="hidden" r:id="rId37"/>
+    <sheet name="U19SG5_check_total" sheetId="38" state="hidden" r:id="rId38"/>
+    <sheet name="objectsPositionU19SG5" sheetId="39" state="hidden" r:id="rId39"/>
+    <sheet name="U20SG5_check_total" sheetId="40" state="hidden" r:id="rId40"/>
+    <sheet name="objectsPositionU20SG5" sheetId="41" state="hidden" r:id="rId41"/>
+    <sheet name="U21SG5_check_total" sheetId="42" state="hidden" r:id="rId42"/>
+    <sheet name="objectsPositionU21SG5" sheetId="43" state="hidden" r:id="rId43"/>
+    <sheet name="U2122SG5_check_total" sheetId="44" state="hidden" r:id="rId44"/>
+    <sheet name="objectsPositionU2122SG5" sheetId="45" state="hidden" r:id="rId45"/>
+    <sheet name="U22SG5_check_total" sheetId="46" state="hidden" r:id="rId46"/>
+    <sheet name="objectsPositionU22SG5" sheetId="47" state="hidden" r:id="rId47"/>
+    <sheet name="U23SG5_check_total" sheetId="48" state="hidden" r:id="rId48"/>
+    <sheet name="objectsPositionU23SG5" sheetId="49" state="hidden" r:id="rId49"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -63,7 +79,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3692" uniqueCount="742">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5669" uniqueCount="1032">
   <si>
     <t>timestamp</t>
   </si>
@@ -2288,7 +2304,877 @@
     <t>16:19:19</t>
   </si>
   <si>
-    <t>13 su 16</t>
+    <t>501</t>
+  </si>
+  <si>
+    <t>471</t>
+  </si>
+  <si>
+    <t>2021_11_09_09_48_34_196</t>
+  </si>
+  <si>
+    <t>2021_11_09_09_48_26_555</t>
+  </si>
+  <si>
+    <t>2021_11_09_09_47_48_732</t>
+  </si>
+  <si>
+    <t>U17SG</t>
+  </si>
+  <si>
+    <t>241</t>
+  </si>
+  <si>
+    <t>141</t>
+  </si>
+  <si>
+    <t>2021_11_09_10_34_24_970</t>
+  </si>
+  <si>
+    <t>2021_11_09_10_34_03_235</t>
+  </si>
+  <si>
+    <t>2021_11_09_10_34_31_903</t>
+  </si>
+  <si>
+    <t>U18SG</t>
+  </si>
+  <si>
+    <t>491</t>
+  </si>
+  <si>
+    <t>2021_11_09_12_00_34_697</t>
+  </si>
+  <si>
+    <t>2021_11_09_12_00_23_847</t>
+  </si>
+  <si>
+    <t>2021_11_09_12_00_21_631</t>
+  </si>
+  <si>
+    <t>2021_11_09_12_00_11_297</t>
+  </si>
+  <si>
+    <t>U19SG</t>
+  </si>
+  <si>
+    <t>2021_11_09_14_07_38_839</t>
+  </si>
+  <si>
+    <t>2021_11_09_14_08_13_456</t>
+  </si>
+  <si>
+    <t>2021_11_09_14_07_52_822</t>
+  </si>
+  <si>
+    <t>2021_11_09_14_07_34_882</t>
+  </si>
+  <si>
+    <t>2021_11_09_14_08_20_679</t>
+  </si>
+  <si>
+    <t>U20SG</t>
+  </si>
+  <si>
+    <t>2021_11_09_15_20_55_398</t>
+  </si>
+  <si>
+    <t>2021_11_09_15_21_03_871</t>
+  </si>
+  <si>
+    <t>2021_11_09_15_20_59_301</t>
+  </si>
+  <si>
+    <t>2021_11_09_15_21_06_175</t>
+  </si>
+  <si>
+    <t>U21SG</t>
+  </si>
+  <si>
+    <t>551</t>
+  </si>
+  <si>
+    <t>2021_11_09_16_15_59_668</t>
+  </si>
+  <si>
+    <t>2021_11_09_16_16_12_933</t>
+  </si>
+  <si>
+    <t>2021_11_09_16_16_09_846</t>
+  </si>
+  <si>
+    <t>U2122SG</t>
+  </si>
+  <si>
+    <t>U22SG</t>
+  </si>
+  <si>
+    <t>2021_11_10_09_55_15_678</t>
+  </si>
+  <si>
+    <t>2021_11_10_09_55_11_435</t>
+  </si>
+  <si>
+    <t>2021_11_10_09_55_19_607</t>
+  </si>
+  <si>
+    <t>2021_11_10_09_55_04_319</t>
+  </si>
+  <si>
+    <t>U23SG</t>
+  </si>
+  <si>
+    <t>2021_11_09_</t>
+  </si>
+  <si>
+    <t>09:47:40:097</t>
+  </si>
+  <si>
+    <t>09:47:40:135</t>
+  </si>
+  <si>
+    <t>09:47:40:154</t>
+  </si>
+  <si>
+    <t>09:47:40:160</t>
+  </si>
+  <si>
+    <t>09:47:40:166</t>
+  </si>
+  <si>
+    <t>09:47:46:963</t>
+  </si>
+  <si>
+    <t>09:47:46:988</t>
+  </si>
+  <si>
+    <t>09:47:47:127</t>
+  </si>
+  <si>
+    <t>09:47:47:134</t>
+  </si>
+  <si>
+    <t>09:47:47:153</t>
+  </si>
+  <si>
+    <t>09:47:47:212</t>
+  </si>
+  <si>
+    <t>09:47:48:430</t>
+  </si>
+  <si>
+    <t>09:47:48:732</t>
+  </si>
+  <si>
+    <t>09:47:50:553</t>
+  </si>
+  <si>
+    <t>09:47:50:577</t>
+  </si>
+  <si>
+    <t>09:47:50:655</t>
+  </si>
+  <si>
+    <t>09:47:50:684</t>
+  </si>
+  <si>
+    <t>09:47:50:755</t>
+  </si>
+  <si>
+    <t>09:47:50:813</t>
+  </si>
+  <si>
+    <t>09:47:50:898</t>
+  </si>
+  <si>
+    <t>09:47:53:497</t>
+  </si>
+  <si>
+    <t>09:47:53:808</t>
+  </si>
+  <si>
+    <t>09:47:56:266</t>
+  </si>
+  <si>
+    <t>09:47:56:509</t>
+  </si>
+  <si>
+    <t>09:48:00:242</t>
+  </si>
+  <si>
+    <t>09:48:00:601</t>
+  </si>
+  <si>
+    <t>09:48:10:794</t>
+  </si>
+  <si>
+    <t>09:48:11:864</t>
+  </si>
+  <si>
+    <t>09:48:12:099</t>
+  </si>
+  <si>
+    <t>09:48:13:153</t>
+  </si>
+  <si>
+    <t>09:48:14:530</t>
+  </si>
+  <si>
+    <t>09:48:14:633</t>
+  </si>
+  <si>
+    <t>09:48:19:501</t>
+  </si>
+  <si>
+    <t>09:48:19:609</t>
+  </si>
+  <si>
+    <t>09:48:19:669</t>
+  </si>
+  <si>
+    <t>09:48:21:118</t>
+  </si>
+  <si>
+    <t>09:48:21:344</t>
+  </si>
+  <si>
+    <t>09:48:26:427</t>
+  </si>
+  <si>
+    <t>09:48:26:555</t>
+  </si>
+  <si>
+    <t>09:48:33:271</t>
+  </si>
+  <si>
+    <t>09:48:34:196</t>
+  </si>
+  <si>
+    <t>09:47:40</t>
+  </si>
+  <si>
+    <t>09:48:34</t>
+  </si>
+  <si>
+    <t>10:32:55:526</t>
+  </si>
+  <si>
+    <t>10:32:55:563</t>
+  </si>
+  <si>
+    <t>10:32:55:569</t>
+  </si>
+  <si>
+    <t>10:32:55:588</t>
+  </si>
+  <si>
+    <t>10:32:55:594</t>
+  </si>
+  <si>
+    <t>10:33:57:911</t>
+  </si>
+  <si>
+    <t>10:33:58:176</t>
+  </si>
+  <si>
+    <t>10:34:00:346</t>
+  </si>
+  <si>
+    <t>10:34:00:455</t>
+  </si>
+  <si>
+    <t>10:34:03:047</t>
+  </si>
+  <si>
+    <t>10:34:03:235</t>
+  </si>
+  <si>
+    <t>10:34:06:288</t>
+  </si>
+  <si>
+    <t>10:34:06:489</t>
+  </si>
+  <si>
+    <t>10:34:10:154</t>
+  </si>
+  <si>
+    <t>10:34:10:486</t>
+  </si>
+  <si>
+    <t>10:34:17:724</t>
+  </si>
+  <si>
+    <t>10:34:24:629</t>
+  </si>
+  <si>
+    <t>10:34:24:970</t>
+  </si>
+  <si>
+    <t>10:34:31:903</t>
+  </si>
+  <si>
+    <t>10:32:55</t>
+  </si>
+  <si>
+    <t>10:34:31</t>
+  </si>
+  <si>
+    <t>11:59:25:615</t>
+  </si>
+  <si>
+    <t>11:59:25:666</t>
+  </si>
+  <si>
+    <t>11:59:25:672</t>
+  </si>
+  <si>
+    <t>11:59:25:678</t>
+  </si>
+  <si>
+    <t>11:59:25:697</t>
+  </si>
+  <si>
+    <t>11:59:48:307</t>
+  </si>
+  <si>
+    <t>11:59:48:604</t>
+  </si>
+  <si>
+    <t>11:59:51:359</t>
+  </si>
+  <si>
+    <t>11:59:51:653</t>
+  </si>
+  <si>
+    <t>11:59:57:493</t>
+  </si>
+  <si>
+    <t>11:59:57:881</t>
+  </si>
+  <si>
+    <t>12:00:01:020</t>
+  </si>
+  <si>
+    <t>12:00:01:130</t>
+  </si>
+  <si>
+    <t>12:00:05:060</t>
+  </si>
+  <si>
+    <t>12:00:05:218</t>
+  </si>
+  <si>
+    <t>12:00:11:297</t>
+  </si>
+  <si>
+    <t>12:00:15:026</t>
+  </si>
+  <si>
+    <t>12:00:15:053</t>
+  </si>
+  <si>
+    <t>12:00:15:058</t>
+  </si>
+  <si>
+    <t>12:00:15:082</t>
+  </si>
+  <si>
+    <t>12:00:21:504</t>
+  </si>
+  <si>
+    <t>12:00:21:607</t>
+  </si>
+  <si>
+    <t>12:00:21:613</t>
+  </si>
+  <si>
+    <t>12:00:21:631</t>
+  </si>
+  <si>
+    <t>12:00:22:783</t>
+  </si>
+  <si>
+    <t>12:00:22:960</t>
+  </si>
+  <si>
+    <t>12:00:22:986</t>
+  </si>
+  <si>
+    <t>12:00:23:009</t>
+  </si>
+  <si>
+    <t>12:00:23:553</t>
+  </si>
+  <si>
+    <t>12:00:23:847</t>
+  </si>
+  <si>
+    <t>12:00:28:218</t>
+  </si>
+  <si>
+    <t>12:00:31:931</t>
+  </si>
+  <si>
+    <t>12:00:32:094</t>
+  </si>
+  <si>
+    <t>12:00:32:330</t>
+  </si>
+  <si>
+    <t>12:00:32:387</t>
+  </si>
+  <si>
+    <t>12:00:33:652</t>
+  </si>
+  <si>
+    <t>12:00:34:697</t>
+  </si>
+  <si>
+    <t>11:59:25</t>
+  </si>
+  <si>
+    <t>12:00:34</t>
+  </si>
+  <si>
+    <t>14:07:08:203</t>
+  </si>
+  <si>
+    <t>14:07:08:240</t>
+  </si>
+  <si>
+    <t>14:07:08:260</t>
+  </si>
+  <si>
+    <t>14:07:08:266</t>
+  </si>
+  <si>
+    <t>14:07:08:272</t>
+  </si>
+  <si>
+    <t>14:07:26:824</t>
+  </si>
+  <si>
+    <t>14:07:27:171</t>
+  </si>
+  <si>
+    <t>14:07:30:681</t>
+  </si>
+  <si>
+    <t>14:07:31:012</t>
+  </si>
+  <si>
+    <t>14:07:34:727</t>
+  </si>
+  <si>
+    <t>14:07:34:733</t>
+  </si>
+  <si>
+    <t>14:07:34:833</t>
+  </si>
+  <si>
+    <t>14:07:34:882</t>
+  </si>
+  <si>
+    <t>14:07:38:481</t>
+  </si>
+  <si>
+    <t>14:07:38:839</t>
+  </si>
+  <si>
+    <t>14:07:42:482</t>
+  </si>
+  <si>
+    <t>14:07:42:868</t>
+  </si>
+  <si>
+    <t>14:07:52:680</t>
+  </si>
+  <si>
+    <t>14:07:52:822</t>
+  </si>
+  <si>
+    <t>14:08:12:228</t>
+  </si>
+  <si>
+    <t>14:08:13:379</t>
+  </si>
+  <si>
+    <t>14:08:13:456</t>
+  </si>
+  <si>
+    <t>14:08:20:496</t>
+  </si>
+  <si>
+    <t>14:08:20:679</t>
+  </si>
+  <si>
+    <t>14:07:08</t>
+  </si>
+  <si>
+    <t>14:08:20</t>
+  </si>
+  <si>
+    <t>15:19:57:119</t>
+  </si>
+  <si>
+    <t>15:19:57:157</t>
+  </si>
+  <si>
+    <t>15:19:57:176</t>
+  </si>
+  <si>
+    <t>15:19:57:182</t>
+  </si>
+  <si>
+    <t>15:19:57:200</t>
+  </si>
+  <si>
+    <t>15:20:23:790</t>
+  </si>
+  <si>
+    <t>15:20:24:054</t>
+  </si>
+  <si>
+    <t>15:20:24:604</t>
+  </si>
+  <si>
+    <t>15:20:30:819</t>
+  </si>
+  <si>
+    <t>15:20:31:001</t>
+  </si>
+  <si>
+    <t>15:20:31:031</t>
+  </si>
+  <si>
+    <t>15:20:31:054</t>
+  </si>
+  <si>
+    <t>15:20:33:987</t>
+  </si>
+  <si>
+    <t>15:20:34:089</t>
+  </si>
+  <si>
+    <t>15:20:36:208</t>
+  </si>
+  <si>
+    <t>15:20:36:556</t>
+  </si>
+  <si>
+    <t>15:20:48:532</t>
+  </si>
+  <si>
+    <t>15:20:54:219</t>
+  </si>
+  <si>
+    <t>15:20:55:397</t>
+  </si>
+  <si>
+    <t>15:20:55:398</t>
+  </si>
+  <si>
+    <t>15:20:58:966</t>
+  </si>
+  <si>
+    <t>15:20:59:300</t>
+  </si>
+  <si>
+    <t>15:20:59:301</t>
+  </si>
+  <si>
+    <t>15:21:02:492</t>
+  </si>
+  <si>
+    <t>15:21:03:145</t>
+  </si>
+  <si>
+    <t>15:21:03:151</t>
+  </si>
+  <si>
+    <t>15:21:03:181</t>
+  </si>
+  <si>
+    <t>15:21:03:438</t>
+  </si>
+  <si>
+    <t>15:21:03:467</t>
+  </si>
+  <si>
+    <t>15:21:03:636</t>
+  </si>
+  <si>
+    <t>15:21:03:653</t>
+  </si>
+  <si>
+    <t>15:21:03:754</t>
+  </si>
+  <si>
+    <t>15:21:03:778</t>
+  </si>
+  <si>
+    <t>15:21:03:803</t>
+  </si>
+  <si>
+    <t>15:21:03:810</t>
+  </si>
+  <si>
+    <t>15:21:03:834</t>
+  </si>
+  <si>
+    <t>15:21:03:871</t>
+  </si>
+  <si>
+    <t>15:21:05:909</t>
+  </si>
+  <si>
+    <t>15:21:06:175</t>
+  </si>
+  <si>
+    <t>15:19:57</t>
+  </si>
+  <si>
+    <t>15:21:06</t>
+  </si>
+  <si>
+    <t>16:14:11:467</t>
+  </si>
+  <si>
+    <t>16:14:11:518</t>
+  </si>
+  <si>
+    <t>16:14:11:525</t>
+  </si>
+  <si>
+    <t>16:14:11:544</t>
+  </si>
+  <si>
+    <t>16:14:11:550</t>
+  </si>
+  <si>
+    <t>16:15:35:287</t>
+  </si>
+  <si>
+    <t>16:15:35:619</t>
+  </si>
+  <si>
+    <t>16:15:38:389</t>
+  </si>
+  <si>
+    <t>16:15:38:643</t>
+  </si>
+  <si>
+    <t>16:15:42:158</t>
+  </si>
+  <si>
+    <t>16:15:42:377</t>
+  </si>
+  <si>
+    <t>16:15:45:790</t>
+  </si>
+  <si>
+    <t>16:15:45:922</t>
+  </si>
+  <si>
+    <t>16:15:48:601</t>
+  </si>
+  <si>
+    <t>16:15:48:792</t>
+  </si>
+  <si>
+    <t>16:15:56:652</t>
+  </si>
+  <si>
+    <t>16:15:59:474</t>
+  </si>
+  <si>
+    <t>16:15:59:668</t>
+  </si>
+  <si>
+    <t>16:16:03:695</t>
+  </si>
+  <si>
+    <t>16:16:04:304</t>
+  </si>
+  <si>
+    <t>16:16:04:328</t>
+  </si>
+  <si>
+    <t>16:16:04:759</t>
+  </si>
+  <si>
+    <t>16:16:04:777</t>
+  </si>
+  <si>
+    <t>16:16:04:807</t>
+  </si>
+  <si>
+    <t>16:16:04:910</t>
+  </si>
+  <si>
+    <t>16:16:05:376</t>
+  </si>
+  <si>
+    <t>16:16:05:401</t>
+  </si>
+  <si>
+    <t>16:16:05:432</t>
+  </si>
+  <si>
+    <t>16:16:05:652</t>
+  </si>
+  <si>
+    <t>16:16:05:820</t>
+  </si>
+  <si>
+    <t>16:16:05:845</t>
+  </si>
+  <si>
+    <t>16:16:05:874</t>
+  </si>
+  <si>
+    <t>16:16:06:032</t>
+  </si>
+  <si>
+    <t>16:16:06:056</t>
+  </si>
+  <si>
+    <t>16:16:06:468</t>
+  </si>
+  <si>
+    <t>16:16:06:522</t>
+  </si>
+  <si>
+    <t>16:16:06:529</t>
+  </si>
+  <si>
+    <t>16:16:09:846</t>
+  </si>
+  <si>
+    <t>16:16:12:301</t>
+  </si>
+  <si>
+    <t>16:16:12:612</t>
+  </si>
+  <si>
+    <t>16:16:12:642</t>
+  </si>
+  <si>
+    <t>16:16:12:666</t>
+  </si>
+  <si>
+    <t>16:16:12:830</t>
+  </si>
+  <si>
+    <t>16:16:12:853</t>
+  </si>
+  <si>
+    <t>16:16:12:877</t>
+  </si>
+  <si>
+    <t>16:16:12:907</t>
+  </si>
+  <si>
+    <t>16:16:12:933</t>
+  </si>
+  <si>
+    <t>16:14:11</t>
+  </si>
+  <si>
+    <t>16:16:12</t>
+  </si>
+  <si>
+    <t>2021_11_10_</t>
+  </si>
+  <si>
+    <t>09:53:56:001</t>
+  </si>
+  <si>
+    <t>09:53:56:038</t>
+  </si>
+  <si>
+    <t>09:53:56:057</t>
+  </si>
+  <si>
+    <t>09:53:56:063</t>
+  </si>
+  <si>
+    <t>09:53:56:081</t>
+  </si>
+  <si>
+    <t>09:54:40:778</t>
+  </si>
+  <si>
+    <t>09:54:41:260</t>
+  </si>
+  <si>
+    <t>09:54:45:021</t>
+  </si>
+  <si>
+    <t>09:54:45:369</t>
+  </si>
+  <si>
+    <t>09:54:45:392</t>
+  </si>
+  <si>
+    <t>09:54:45:422</t>
+  </si>
+  <si>
+    <t>09:54:49:135</t>
+  </si>
+  <si>
+    <t>09:54:49:380</t>
+  </si>
+  <si>
+    <t>09:54:53:258</t>
+  </si>
+  <si>
+    <t>09:54:53:677</t>
+  </si>
+  <si>
+    <t>09:54:58:057</t>
+  </si>
+  <si>
+    <t>09:54:58:463</t>
+  </si>
+  <si>
+    <t>09:55:04:319</t>
+  </si>
+  <si>
+    <t>09:55:08:182</t>
+  </si>
+  <si>
+    <t>09:55:08:212</t>
+  </si>
+  <si>
+    <t>09:55:08:235</t>
+  </si>
+  <si>
+    <t>09:55:08:294</t>
+  </si>
+  <si>
+    <t>09:55:11:411</t>
+  </si>
+  <si>
+    <t>09:55:11:435</t>
+  </si>
+  <si>
+    <t>09:55:15:181</t>
+  </si>
+  <si>
+    <t>09:55:15:678</t>
+  </si>
+  <si>
+    <t>09:55:19:549</t>
+  </si>
+  <si>
+    <t>09:55:19:607</t>
+  </si>
+  <si>
+    <t>09:53:56</t>
+  </si>
+  <si>
+    <t>09:55:19</t>
   </si>
 </sst>
 </file>
@@ -2333,10 +3219,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="46" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -2651,10 +3538,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94767DD9-9FD2-4BD8-8359-DDEF06B57E56}">
-  <dimension ref="A1:K26"/>
+  <dimension ref="A1:J26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K19" sqref="K19"/>
+      <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -2746,7 +3633,7 @@
         <v>236</v>
       </c>
       <c r="D3" s="1">
-        <f t="shared" ref="D3:D23" si="0">C3-B3</f>
+        <f t="shared" ref="D3:D25" si="0">C3-B3</f>
         <v>7.8703703703697503E-4</v>
       </c>
       <c r="E3">
@@ -2765,7 +3652,7 @@
         <v>1</v>
       </c>
       <c r="J3">
-        <f t="shared" ref="J3:J17" si="1">SUM(E3:I3)</f>
+        <f t="shared" ref="J3:J25" si="1">SUM(E3:I3)</f>
         <v>5</v>
       </c>
     </row>
@@ -3211,7 +4098,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>462</v>
       </c>
@@ -3245,68 +4132,257 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A18" t="s">
+        <v>746</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>823</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>824</v>
+      </c>
       <c r="D18" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K18" t="s">
-        <v>741</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
+        <v>6.2500000000004219E-4</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>1</v>
+      </c>
+      <c r="H18">
+        <v>1</v>
+      </c>
+      <c r="I18">
+        <v>1</v>
+      </c>
+      <c r="J18">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A19" t="s">
+        <v>752</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>844</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>845</v>
+      </c>
       <c r="D19" s="1">
         <f t="shared" si="0"/>
+        <v>1.1111111111111183E-3</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
+      <c r="G19">
+        <v>1</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>1</v>
+      </c>
+      <c r="J19">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A20" t="s">
+        <v>758</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>883</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>884</v>
+      </c>
       <c r="D20" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
+        <v>7.9861111111118044E-4</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>1</v>
+      </c>
+      <c r="H20">
+        <v>1</v>
+      </c>
+      <c r="I20">
+        <v>1</v>
+      </c>
+      <c r="J20">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A21" t="s">
+        <v>764</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>909</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>910</v>
+      </c>
       <c r="D21" s="1">
         <f t="shared" si="0"/>
+        <v>8.3333333333324155E-4</v>
+      </c>
+      <c r="E21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>1</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>1</v>
+      </c>
+      <c r="J21">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A22" t="s">
+        <v>769</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>950</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>951</v>
+      </c>
       <c r="D22" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
+        <v>7.9861111111112493E-4</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>1</v>
+      </c>
+      <c r="H22">
+        <v>1</v>
+      </c>
+      <c r="I22">
+        <v>1</v>
+      </c>
+      <c r="J22">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A23" t="s">
+        <v>775</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>999</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>1000</v>
+      </c>
       <c r="D23" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.45">
+        <v>1.4004629629629228E-3</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>1</v>
+      </c>
+      <c r="H23">
+        <v>1</v>
+      </c>
+      <c r="I23">
+        <v>1</v>
+      </c>
+      <c r="J23">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A24" t="s">
+        <v>780</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>1030</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>1031</v>
+      </c>
+      <c r="D24" s="1">
+        <f t="shared" si="0"/>
+        <v>9.6064814814811328E-4</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>1</v>
+      </c>
+      <c r="H24">
+        <v>1</v>
+      </c>
+      <c r="I24">
+        <v>1</v>
+      </c>
+      <c r="J24">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.45">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="D25" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.45">
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -6065,8 +7141,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="23.53125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.53125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.53125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="19.53125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.45">
@@ -7106,7 +8182,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="3" max="3" width="19.53125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.53125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.45">
@@ -7708,8 +8784,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="23.53125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.53125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.53125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="19.53125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.45">
@@ -8647,7 +9723,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="3" max="3" width="19.53125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.53125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.45">
@@ -8746,9 +9822,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="23.53125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.53125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.53125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="11.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="19.53125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.45">
@@ -9344,7 +10420,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="3" max="3" width="19.53125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.53125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.45">
@@ -9443,8 +10519,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="23.53125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.53125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.53125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="19.53125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.45">
@@ -10042,7 +11118,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="3" max="3" width="19.53125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.53125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.45">
@@ -10141,8 +11217,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="23.53125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.53125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.53125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="19.53125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.45">
@@ -10842,7 +11918,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="3" max="3" width="19.53125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.53125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.45">
@@ -10941,8 +12017,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="23.53125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.53125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.53125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="19.53125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.45">
@@ -11606,7 +12682,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="3" max="3" width="19.53125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.53125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.45">
@@ -11804,7 +12880,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="23.53125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.53125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.45">
@@ -12247,7 +13323,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="3" max="3" width="19.53125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.53125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.45">
@@ -12346,8 +13422,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="23.53125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.53125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.53125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="19.53125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.45">
@@ -13419,7 +14495,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="3" max="3" width="19" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.45">
@@ -13501,6 +14577,2550 @@
       </c>
       <c r="D6" t="s">
         <v>462</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2100-000000000000}">
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="3" max="3" width="17.59765625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B2" t="s">
+        <v>743</v>
+      </c>
+      <c r="C2" t="s">
+        <v>355</v>
+      </c>
+      <c r="D2" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B3" t="s">
+        <v>744</v>
+      </c>
+      <c r="C3" t="s">
+        <v>456</v>
+      </c>
+      <c r="D3" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>741</v>
+      </c>
+      <c r="B4" t="s">
+        <v>743</v>
+      </c>
+      <c r="C4" t="s">
+        <v>355</v>
+      </c>
+      <c r="D4" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>742</v>
+      </c>
+      <c r="B5" t="s">
+        <v>744</v>
+      </c>
+      <c r="C5" t="s">
+        <v>456</v>
+      </c>
+      <c r="D5" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" t="s">
+        <v>745</v>
+      </c>
+      <c r="C6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D6" t="s">
+        <v>746</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2200-000000000000}">
+  <dimension ref="A1:G51"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G2" sqref="E2:G2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>781</v>
+      </c>
+      <c r="C2" t="s">
+        <v>782</v>
+      </c>
+      <c r="D2" t="s">
+        <v>355</v>
+      </c>
+      <c r="E2" t="s">
+        <v>746</v>
+      </c>
+      <c r="F2" t="str">
+        <f>LEFT(C2,LEN(C2)-4)</f>
+        <v>09:47:40</v>
+      </c>
+      <c r="G2" t="str">
+        <f>LEFT(C51,LEN(C2)-4)</f>
+        <v>09:48:34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>781</v>
+      </c>
+      <c r="C3" t="s">
+        <v>783</v>
+      </c>
+      <c r="D3" t="s">
+        <v>454</v>
+      </c>
+      <c r="E3" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>781</v>
+      </c>
+      <c r="C4" t="s">
+        <v>784</v>
+      </c>
+      <c r="D4" t="s">
+        <v>354</v>
+      </c>
+      <c r="E4" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
+        <v>781</v>
+      </c>
+      <c r="C5" t="s">
+        <v>785</v>
+      </c>
+      <c r="D5" t="s">
+        <v>455</v>
+      </c>
+      <c r="E5" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" t="s">
+        <v>781</v>
+      </c>
+      <c r="C6" t="s">
+        <v>786</v>
+      </c>
+      <c r="D6" t="s">
+        <v>456</v>
+      </c>
+      <c r="E6" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" t="s">
+        <v>781</v>
+      </c>
+      <c r="C7" t="s">
+        <v>787</v>
+      </c>
+      <c r="D7" t="s">
+        <v>40</v>
+      </c>
+      <c r="E7" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" t="s">
+        <v>781</v>
+      </c>
+      <c r="C8" t="s">
+        <v>788</v>
+      </c>
+      <c r="D8" t="s">
+        <v>454</v>
+      </c>
+      <c r="E8" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" t="s">
+        <v>781</v>
+      </c>
+      <c r="C9" t="s">
+        <v>789</v>
+      </c>
+      <c r="D9" t="s">
+        <v>40</v>
+      </c>
+      <c r="E9" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" t="s">
+        <v>781</v>
+      </c>
+      <c r="C10" t="s">
+        <v>790</v>
+      </c>
+      <c r="D10" t="s">
+        <v>454</v>
+      </c>
+      <c r="E10" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" t="s">
+        <v>781</v>
+      </c>
+      <c r="C11" t="s">
+        <v>791</v>
+      </c>
+      <c r="D11" t="s">
+        <v>40</v>
+      </c>
+      <c r="E11" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" t="s">
+        <v>781</v>
+      </c>
+      <c r="C12" t="s">
+        <v>792</v>
+      </c>
+      <c r="D12" t="s">
+        <v>454</v>
+      </c>
+      <c r="E12" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" t="s">
+        <v>781</v>
+      </c>
+      <c r="C13" t="s">
+        <v>793</v>
+      </c>
+      <c r="D13" t="s">
+        <v>39</v>
+      </c>
+      <c r="E13" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" t="s">
+        <v>781</v>
+      </c>
+      <c r="C14" t="s">
+        <v>793</v>
+      </c>
+      <c r="D14" t="s">
+        <v>455</v>
+      </c>
+      <c r="E14" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A15" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" t="s">
+        <v>781</v>
+      </c>
+      <c r="C15" t="s">
+        <v>794</v>
+      </c>
+      <c r="D15" t="s">
+        <v>39</v>
+      </c>
+      <c r="E15" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" t="s">
+        <v>781</v>
+      </c>
+      <c r="C16" t="s">
+        <v>795</v>
+      </c>
+      <c r="D16" t="s">
+        <v>40</v>
+      </c>
+      <c r="E16" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A17" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" t="s">
+        <v>781</v>
+      </c>
+      <c r="C17" t="s">
+        <v>796</v>
+      </c>
+      <c r="D17" t="s">
+        <v>454</v>
+      </c>
+      <c r="E17" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A18" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" t="s">
+        <v>781</v>
+      </c>
+      <c r="C18" t="s">
+        <v>797</v>
+      </c>
+      <c r="D18" t="s">
+        <v>40</v>
+      </c>
+      <c r="E18" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" t="s">
+        <v>781</v>
+      </c>
+      <c r="C19" t="s">
+        <v>798</v>
+      </c>
+      <c r="D19" t="s">
+        <v>454</v>
+      </c>
+      <c r="E19" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A20" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20" t="s">
+        <v>781</v>
+      </c>
+      <c r="C20" t="s">
+        <v>799</v>
+      </c>
+      <c r="D20" t="s">
+        <v>40</v>
+      </c>
+      <c r="E20" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A21" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21" t="s">
+        <v>781</v>
+      </c>
+      <c r="C21" t="s">
+        <v>800</v>
+      </c>
+      <c r="D21" t="s">
+        <v>454</v>
+      </c>
+      <c r="E21" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>781</v>
+      </c>
+      <c r="C22" t="s">
+        <v>801</v>
+      </c>
+      <c r="D22" t="s">
+        <v>40</v>
+      </c>
+      <c r="E22" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>781</v>
+      </c>
+      <c r="C23" t="s">
+        <v>802</v>
+      </c>
+      <c r="D23" t="s">
+        <v>42</v>
+      </c>
+      <c r="E23" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A24" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" t="s">
+        <v>781</v>
+      </c>
+      <c r="C24" t="s">
+        <v>802</v>
+      </c>
+      <c r="D24" t="s">
+        <v>456</v>
+      </c>
+      <c r="E24" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A25" t="s">
+        <v>26</v>
+      </c>
+      <c r="B25" t="s">
+        <v>781</v>
+      </c>
+      <c r="C25" t="s">
+        <v>803</v>
+      </c>
+      <c r="D25" t="s">
+        <v>42</v>
+      </c>
+      <c r="E25" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A26" t="s">
+        <v>27</v>
+      </c>
+      <c r="B26" t="s">
+        <v>781</v>
+      </c>
+      <c r="C26" t="s">
+        <v>804</v>
+      </c>
+      <c r="D26" t="s">
+        <v>41</v>
+      </c>
+      <c r="E26" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A27" t="s">
+        <v>28</v>
+      </c>
+      <c r="B27" t="s">
+        <v>781</v>
+      </c>
+      <c r="C27" t="s">
+        <v>804</v>
+      </c>
+      <c r="D27" t="s">
+        <v>355</v>
+      </c>
+      <c r="E27" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A28" t="s">
+        <v>29</v>
+      </c>
+      <c r="B28" t="s">
+        <v>781</v>
+      </c>
+      <c r="C28" t="s">
+        <v>805</v>
+      </c>
+      <c r="D28" t="s">
+        <v>41</v>
+      </c>
+      <c r="E28" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A29" t="s">
+        <v>79</v>
+      </c>
+      <c r="B29" t="s">
+        <v>781</v>
+      </c>
+      <c r="C29" t="s">
+        <v>806</v>
+      </c>
+      <c r="D29" t="s">
+        <v>43</v>
+      </c>
+      <c r="E29" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A30" t="s">
+        <v>80</v>
+      </c>
+      <c r="B30" t="s">
+        <v>781</v>
+      </c>
+      <c r="C30" t="s">
+        <v>806</v>
+      </c>
+      <c r="D30" t="s">
+        <v>354</v>
+      </c>
+      <c r="E30" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A31" t="s">
+        <v>81</v>
+      </c>
+      <c r="B31" t="s">
+        <v>781</v>
+      </c>
+      <c r="C31" t="s">
+        <v>807</v>
+      </c>
+      <c r="D31" t="s">
+        <v>43</v>
+      </c>
+      <c r="E31" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A32" t="s">
+        <v>82</v>
+      </c>
+      <c r="B32" t="s">
+        <v>781</v>
+      </c>
+      <c r="C32" t="s">
+        <v>808</v>
+      </c>
+      <c r="D32" t="s">
+        <v>354</v>
+      </c>
+      <c r="E32" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A33" t="s">
+        <v>83</v>
+      </c>
+      <c r="B33" t="s">
+        <v>781</v>
+      </c>
+      <c r="C33" t="s">
+        <v>809</v>
+      </c>
+      <c r="D33" t="s">
+        <v>43</v>
+      </c>
+      <c r="E33" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A34" t="s">
+        <v>84</v>
+      </c>
+      <c r="B34" t="s">
+        <v>781</v>
+      </c>
+      <c r="C34" t="s">
+        <v>810</v>
+      </c>
+      <c r="D34" t="s">
+        <v>354</v>
+      </c>
+      <c r="E34" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A35" t="s">
+        <v>85</v>
+      </c>
+      <c r="B35" t="s">
+        <v>781</v>
+      </c>
+      <c r="C35" t="s">
+        <v>811</v>
+      </c>
+      <c r="D35" t="s">
+        <v>43</v>
+      </c>
+      <c r="E35" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A36" t="s">
+        <v>86</v>
+      </c>
+      <c r="B36" t="s">
+        <v>781</v>
+      </c>
+      <c r="C36" t="s">
+        <v>812</v>
+      </c>
+      <c r="D36" t="s">
+        <v>354</v>
+      </c>
+      <c r="E36" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A37" t="s">
+        <v>87</v>
+      </c>
+      <c r="B37" t="s">
+        <v>781</v>
+      </c>
+      <c r="C37" t="s">
+        <v>813</v>
+      </c>
+      <c r="D37" t="s">
+        <v>43</v>
+      </c>
+      <c r="E37" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A38" t="s">
+        <v>88</v>
+      </c>
+      <c r="B38" t="s">
+        <v>781</v>
+      </c>
+      <c r="C38" t="s">
+        <v>813</v>
+      </c>
+      <c r="D38" t="s">
+        <v>354</v>
+      </c>
+      <c r="E38" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A39" t="s">
+        <v>89</v>
+      </c>
+      <c r="B39" t="s">
+        <v>781</v>
+      </c>
+      <c r="C39" t="s">
+        <v>814</v>
+      </c>
+      <c r="D39" t="s">
+        <v>43</v>
+      </c>
+      <c r="E39" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A40" t="s">
+        <v>90</v>
+      </c>
+      <c r="B40" t="s">
+        <v>781</v>
+      </c>
+      <c r="C40" t="s">
+        <v>814</v>
+      </c>
+      <c r="D40" t="s">
+        <v>354</v>
+      </c>
+      <c r="E40" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A41" t="s">
+        <v>91</v>
+      </c>
+      <c r="B41" t="s">
+        <v>781</v>
+      </c>
+      <c r="C41" t="s">
+        <v>815</v>
+      </c>
+      <c r="D41" t="s">
+        <v>43</v>
+      </c>
+      <c r="E41" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A42" t="s">
+        <v>92</v>
+      </c>
+      <c r="B42" t="s">
+        <v>781</v>
+      </c>
+      <c r="C42" t="s">
+        <v>816</v>
+      </c>
+      <c r="D42" t="s">
+        <v>354</v>
+      </c>
+      <c r="E42" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A43" t="s">
+        <v>93</v>
+      </c>
+      <c r="B43" t="s">
+        <v>781</v>
+      </c>
+      <c r="C43" t="s">
+        <v>817</v>
+      </c>
+      <c r="D43" t="s">
+        <v>43</v>
+      </c>
+      <c r="E43" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A44" t="s">
+        <v>94</v>
+      </c>
+      <c r="B44" t="s">
+        <v>781</v>
+      </c>
+      <c r="C44" t="s">
+        <v>817</v>
+      </c>
+      <c r="D44" t="s">
+        <v>354</v>
+      </c>
+      <c r="E44" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A45" t="s">
+        <v>95</v>
+      </c>
+      <c r="B45" t="s">
+        <v>781</v>
+      </c>
+      <c r="C45" t="s">
+        <v>818</v>
+      </c>
+      <c r="D45" t="s">
+        <v>43</v>
+      </c>
+      <c r="E45" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A46" t="s">
+        <v>96</v>
+      </c>
+      <c r="B46" t="s">
+        <v>781</v>
+      </c>
+      <c r="C46" t="s">
+        <v>819</v>
+      </c>
+      <c r="D46" t="s">
+        <v>456</v>
+      </c>
+      <c r="E46" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A47" t="s">
+        <v>97</v>
+      </c>
+      <c r="B47" t="s">
+        <v>781</v>
+      </c>
+      <c r="C47" t="s">
+        <v>820</v>
+      </c>
+      <c r="D47" t="s">
+        <v>42</v>
+      </c>
+      <c r="E47" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A48" t="s">
+        <v>98</v>
+      </c>
+      <c r="B48" t="s">
+        <v>781</v>
+      </c>
+      <c r="C48" t="s">
+        <v>820</v>
+      </c>
+      <c r="D48" t="s">
+        <v>456</v>
+      </c>
+      <c r="E48" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A49" t="s">
+        <v>99</v>
+      </c>
+      <c r="B49" t="s">
+        <v>781</v>
+      </c>
+      <c r="C49" t="s">
+        <v>821</v>
+      </c>
+      <c r="D49" t="s">
+        <v>355</v>
+      </c>
+      <c r="E49" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A50" t="s">
+        <v>100</v>
+      </c>
+      <c r="B50" t="s">
+        <v>781</v>
+      </c>
+      <c r="C50" t="s">
+        <v>822</v>
+      </c>
+      <c r="D50" t="s">
+        <v>41</v>
+      </c>
+      <c r="E50" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A51" t="s">
+        <v>101</v>
+      </c>
+      <c r="B51" t="s">
+        <v>781</v>
+      </c>
+      <c r="C51" t="s">
+        <v>822</v>
+      </c>
+      <c r="D51" t="s">
+        <v>355</v>
+      </c>
+      <c r="E51" t="s">
+        <v>746</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2300-000000000000}">
+  <dimension ref="A1:E6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:D6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="3" max="3" width="18" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.796875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" t="s">
+        <v>749</v>
+      </c>
+      <c r="C2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" t="s">
+        <v>750</v>
+      </c>
+      <c r="C3" t="s">
+        <v>242</v>
+      </c>
+      <c r="D3" t="s">
+        <v>77</v>
+      </c>
+      <c r="E3" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>747</v>
+      </c>
+      <c r="B4" t="s">
+        <v>749</v>
+      </c>
+      <c r="C4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D4" t="s">
+        <v>78</v>
+      </c>
+      <c r="E4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>748</v>
+      </c>
+      <c r="B5" t="s">
+        <v>750</v>
+      </c>
+      <c r="C5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D5" t="s">
+        <v>77</v>
+      </c>
+      <c r="E5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" t="s">
+        <v>751</v>
+      </c>
+      <c r="C6" t="s">
+        <v>52</v>
+      </c>
+      <c r="D6" t="s">
+        <v>78</v>
+      </c>
+      <c r="E6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2400-000000000000}">
+  <dimension ref="A1:G26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:G2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="3" max="3" width="18" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="3">
+        <v>84.216076388888879</v>
+      </c>
+      <c r="C2" t="s">
+        <v>825</v>
+      </c>
+      <c r="D2" t="s">
+        <v>355</v>
+      </c>
+      <c r="E2" t="s">
+        <v>752</v>
+      </c>
+      <c r="F2" t="str">
+        <f>LEFT(C2,LEN(C2)-4)</f>
+        <v>10:32:55</v>
+      </c>
+      <c r="G2" t="str">
+        <f>LEFT(C26,LEN(C2)-4)</f>
+        <v>10:34:31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3">
+        <v>84.216076388888879</v>
+      </c>
+      <c r="C3" t="s">
+        <v>826</v>
+      </c>
+      <c r="D3" t="s">
+        <v>454</v>
+      </c>
+      <c r="E3" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="3">
+        <v>84.216076388888879</v>
+      </c>
+      <c r="C4" t="s">
+        <v>827</v>
+      </c>
+      <c r="D4" t="s">
+        <v>354</v>
+      </c>
+      <c r="E4" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="3">
+        <v>84.216076388888879</v>
+      </c>
+      <c r="C5" t="s">
+        <v>828</v>
+      </c>
+      <c r="D5" t="s">
+        <v>455</v>
+      </c>
+      <c r="E5" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="3">
+        <v>84.216076388888879</v>
+      </c>
+      <c r="C6" t="s">
+        <v>829</v>
+      </c>
+      <c r="D6" t="s">
+        <v>456</v>
+      </c>
+      <c r="E6" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="3">
+        <v>84.216076388888879</v>
+      </c>
+      <c r="C7" t="s">
+        <v>830</v>
+      </c>
+      <c r="D7" t="s">
+        <v>39</v>
+      </c>
+      <c r="E7" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="3">
+        <v>84.216076388888879</v>
+      </c>
+      <c r="C8" t="s">
+        <v>830</v>
+      </c>
+      <c r="D8" t="s">
+        <v>455</v>
+      </c>
+      <c r="E8" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="3">
+        <v>84.216076388888879</v>
+      </c>
+      <c r="C9" t="s">
+        <v>831</v>
+      </c>
+      <c r="D9" t="s">
+        <v>39</v>
+      </c>
+      <c r="E9" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="3">
+        <v>84.216076388888879</v>
+      </c>
+      <c r="C10" t="s">
+        <v>832</v>
+      </c>
+      <c r="D10" t="s">
+        <v>40</v>
+      </c>
+      <c r="E10" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="3">
+        <v>84.216076388888879</v>
+      </c>
+      <c r="C11" t="s">
+        <v>832</v>
+      </c>
+      <c r="D11" t="s">
+        <v>454</v>
+      </c>
+      <c r="E11" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="3">
+        <v>84.216076388888879</v>
+      </c>
+      <c r="C12" t="s">
+        <v>833</v>
+      </c>
+      <c r="D12" t="s">
+        <v>40</v>
+      </c>
+      <c r="E12" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" s="3">
+        <v>84.216076388888879</v>
+      </c>
+      <c r="C13" t="s">
+        <v>834</v>
+      </c>
+      <c r="D13" t="s">
+        <v>42</v>
+      </c>
+      <c r="E13" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" s="3">
+        <v>84.216076388888879</v>
+      </c>
+      <c r="C14" t="s">
+        <v>834</v>
+      </c>
+      <c r="D14" t="s">
+        <v>456</v>
+      </c>
+      <c r="E14" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A15" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" s="3">
+        <v>84.216076388888879</v>
+      </c>
+      <c r="C15" t="s">
+        <v>835</v>
+      </c>
+      <c r="D15" t="s">
+        <v>42</v>
+      </c>
+      <c r="E15" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" s="3">
+        <v>84.216076388888879</v>
+      </c>
+      <c r="C16" t="s">
+        <v>836</v>
+      </c>
+      <c r="D16" t="s">
+        <v>41</v>
+      </c>
+      <c r="E16" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A17" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" s="3">
+        <v>84.216076388888879</v>
+      </c>
+      <c r="C17" t="s">
+        <v>836</v>
+      </c>
+      <c r="D17" t="s">
+        <v>355</v>
+      </c>
+      <c r="E17" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A18" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" s="3">
+        <v>84.216076388888879</v>
+      </c>
+      <c r="C18" t="s">
+        <v>837</v>
+      </c>
+      <c r="D18" t="s">
+        <v>41</v>
+      </c>
+      <c r="E18" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" s="3">
+        <v>84.216076388888879</v>
+      </c>
+      <c r="C19" t="s">
+        <v>838</v>
+      </c>
+      <c r="D19" t="s">
+        <v>43</v>
+      </c>
+      <c r="E19" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A20" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20" s="3">
+        <v>84.216076388888879</v>
+      </c>
+      <c r="C20" t="s">
+        <v>838</v>
+      </c>
+      <c r="D20" t="s">
+        <v>354</v>
+      </c>
+      <c r="E20" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A21" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21" s="3">
+        <v>84.216076388888879</v>
+      </c>
+      <c r="C21" t="s">
+        <v>839</v>
+      </c>
+      <c r="D21" t="s">
+        <v>43</v>
+      </c>
+      <c r="E21" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" s="3">
+        <v>84.216076388888879</v>
+      </c>
+      <c r="C22" t="s">
+        <v>840</v>
+      </c>
+      <c r="D22" t="s">
+        <v>354</v>
+      </c>
+      <c r="E22" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" s="3">
+        <v>84.216076388888879</v>
+      </c>
+      <c r="C23" t="s">
+        <v>841</v>
+      </c>
+      <c r="D23" t="s">
+        <v>355</v>
+      </c>
+      <c r="E23" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A24" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" s="3">
+        <v>84.216076388888879</v>
+      </c>
+      <c r="C24" t="s">
+        <v>842</v>
+      </c>
+      <c r="D24" t="s">
+        <v>41</v>
+      </c>
+      <c r="E24" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A25" t="s">
+        <v>26</v>
+      </c>
+      <c r="B25" s="3">
+        <v>84.216076388888879</v>
+      </c>
+      <c r="C25" t="s">
+        <v>842</v>
+      </c>
+      <c r="D25" t="s">
+        <v>355</v>
+      </c>
+      <c r="E25" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A26" t="s">
+        <v>27</v>
+      </c>
+      <c r="B26" s="3">
+        <v>84.216076388888879</v>
+      </c>
+      <c r="C26" t="s">
+        <v>843</v>
+      </c>
+      <c r="D26" t="s">
+        <v>455</v>
+      </c>
+      <c r="E26" t="s">
+        <v>752</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2500-000000000000}">
+  <dimension ref="A1:E6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="3" max="3" width="17.59765625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B2" t="s">
+        <v>754</v>
+      </c>
+      <c r="C2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B3" t="s">
+        <v>755</v>
+      </c>
+      <c r="C3" t="s">
+        <v>242</v>
+      </c>
+      <c r="D3" t="s">
+        <v>78</v>
+      </c>
+      <c r="E3" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>753</v>
+      </c>
+      <c r="B4" t="s">
+        <v>754</v>
+      </c>
+      <c r="C4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D4" t="s">
+        <v>78</v>
+      </c>
+      <c r="E4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>82</v>
+      </c>
+      <c r="B5" t="s">
+        <v>756</v>
+      </c>
+      <c r="C5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D5" t="s">
+        <v>78</v>
+      </c>
+      <c r="E5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" t="s">
+        <v>757</v>
+      </c>
+      <c r="C6" t="s">
+        <v>52</v>
+      </c>
+      <c r="D6" t="s">
+        <v>78</v>
+      </c>
+      <c r="E6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2600-000000000000}">
+  <dimension ref="A1:G51"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G3" sqref="E3:G3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="3" max="3" width="18" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>781</v>
+      </c>
+      <c r="C2" t="s">
+        <v>846</v>
+      </c>
+      <c r="D2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>781</v>
+      </c>
+      <c r="C3" t="s">
+        <v>847</v>
+      </c>
+      <c r="D3" t="s">
+        <v>355</v>
+      </c>
+      <c r="E3" t="s">
+        <v>758</v>
+      </c>
+      <c r="F3" t="str">
+        <f>LEFT(C2,LEN(C2)-4)</f>
+        <v>11:59:25</v>
+      </c>
+      <c r="G3" t="str">
+        <f>LEFT(C50,LEN(C2)-4)</f>
+        <v>12:00:34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>781</v>
+      </c>
+      <c r="C4" t="s">
+        <v>848</v>
+      </c>
+      <c r="D4" t="s">
+        <v>454</v>
+      </c>
+      <c r="E4" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
+        <v>781</v>
+      </c>
+      <c r="C5" t="s">
+        <v>849</v>
+      </c>
+      <c r="D5" t="s">
+        <v>354</v>
+      </c>
+      <c r="E5" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" t="s">
+        <v>781</v>
+      </c>
+      <c r="C6" t="s">
+        <v>850</v>
+      </c>
+      <c r="D6" t="s">
+        <v>455</v>
+      </c>
+      <c r="E6" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" t="s">
+        <v>781</v>
+      </c>
+      <c r="C7" t="s">
+        <v>851</v>
+      </c>
+      <c r="D7" t="s">
+        <v>456</v>
+      </c>
+      <c r="E7" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" t="s">
+        <v>781</v>
+      </c>
+      <c r="C8" t="s">
+        <v>851</v>
+      </c>
+      <c r="D8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E8" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" t="s">
+        <v>781</v>
+      </c>
+      <c r="C9" t="s">
+        <v>852</v>
+      </c>
+      <c r="D9" t="s">
+        <v>455</v>
+      </c>
+      <c r="E9" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" t="s">
+        <v>781</v>
+      </c>
+      <c r="C10" t="s">
+        <v>853</v>
+      </c>
+      <c r="D10" t="s">
+        <v>39</v>
+      </c>
+      <c r="E10" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" t="s">
+        <v>781</v>
+      </c>
+      <c r="C11" t="s">
+        <v>853</v>
+      </c>
+      <c r="D11" t="s">
+        <v>40</v>
+      </c>
+      <c r="E11" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" t="s">
+        <v>781</v>
+      </c>
+      <c r="C12" t="s">
+        <v>854</v>
+      </c>
+      <c r="D12" t="s">
+        <v>454</v>
+      </c>
+      <c r="E12" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" t="s">
+        <v>781</v>
+      </c>
+      <c r="C13" t="s">
+        <v>855</v>
+      </c>
+      <c r="D13" t="s">
+        <v>40</v>
+      </c>
+      <c r="E13" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" t="s">
+        <v>781</v>
+      </c>
+      <c r="C14" t="s">
+        <v>855</v>
+      </c>
+      <c r="D14" t="s">
+        <v>42</v>
+      </c>
+      <c r="E14" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A15" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" t="s">
+        <v>781</v>
+      </c>
+      <c r="C15" t="s">
+        <v>856</v>
+      </c>
+      <c r="D15" t="s">
+        <v>456</v>
+      </c>
+      <c r="E15" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" t="s">
+        <v>781</v>
+      </c>
+      <c r="C16" t="s">
+        <v>857</v>
+      </c>
+      <c r="D16" t="s">
+        <v>42</v>
+      </c>
+      <c r="E16" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A17" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" t="s">
+        <v>781</v>
+      </c>
+      <c r="C17" t="s">
+        <v>857</v>
+      </c>
+      <c r="D17" t="s">
+        <v>41</v>
+      </c>
+      <c r="E17" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A18" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" t="s">
+        <v>781</v>
+      </c>
+      <c r="C18" t="s">
+        <v>858</v>
+      </c>
+      <c r="D18" t="s">
+        <v>355</v>
+      </c>
+      <c r="E18" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" t="s">
+        <v>781</v>
+      </c>
+      <c r="C19" t="s">
+        <v>859</v>
+      </c>
+      <c r="D19" t="s">
+        <v>41</v>
+      </c>
+      <c r="E19" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A20" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20" t="s">
+        <v>781</v>
+      </c>
+      <c r="C20" t="s">
+        <v>859</v>
+      </c>
+      <c r="D20" t="s">
+        <v>43</v>
+      </c>
+      <c r="E20" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A21" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21" t="s">
+        <v>781</v>
+      </c>
+      <c r="C21" t="s">
+        <v>860</v>
+      </c>
+      <c r="D21" t="s">
+        <v>354</v>
+      </c>
+      <c r="E21" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>781</v>
+      </c>
+      <c r="C22" t="s">
+        <v>861</v>
+      </c>
+      <c r="D22" t="s">
+        <v>43</v>
+      </c>
+      <c r="E22" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>781</v>
+      </c>
+      <c r="C23" t="s">
+        <v>862</v>
+      </c>
+      <c r="D23" t="s">
+        <v>455</v>
+      </c>
+      <c r="E23" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A24" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" t="s">
+        <v>781</v>
+      </c>
+      <c r="C24" t="s">
+        <v>863</v>
+      </c>
+      <c r="D24" t="s">
+        <v>454</v>
+      </c>
+      <c r="E24" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A25" t="s">
+        <v>26</v>
+      </c>
+      <c r="B25" t="s">
+        <v>781</v>
+      </c>
+      <c r="C25" t="s">
+        <v>863</v>
+      </c>
+      <c r="D25" t="s">
+        <v>40</v>
+      </c>
+      <c r="E25" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A26" t="s">
+        <v>27</v>
+      </c>
+      <c r="B26" t="s">
+        <v>781</v>
+      </c>
+      <c r="C26" t="s">
+        <v>864</v>
+      </c>
+      <c r="D26" t="s">
+        <v>454</v>
+      </c>
+      <c r="E26" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A27" t="s">
+        <v>28</v>
+      </c>
+      <c r="B27" t="s">
+        <v>781</v>
+      </c>
+      <c r="C27" t="s">
+        <v>865</v>
+      </c>
+      <c r="D27" t="s">
+        <v>40</v>
+      </c>
+      <c r="E27" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A28" t="s">
+        <v>29</v>
+      </c>
+      <c r="B28" t="s">
+        <v>781</v>
+      </c>
+      <c r="C28" t="s">
+        <v>866</v>
+      </c>
+      <c r="D28" t="s">
+        <v>454</v>
+      </c>
+      <c r="E28" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A29" t="s">
+        <v>79</v>
+      </c>
+      <c r="B29" t="s">
+        <v>781</v>
+      </c>
+      <c r="C29" t="s">
+        <v>867</v>
+      </c>
+      <c r="D29" t="s">
+        <v>456</v>
+      </c>
+      <c r="E29" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A30" t="s">
+        <v>80</v>
+      </c>
+      <c r="B30" t="s">
+        <v>781</v>
+      </c>
+      <c r="C30" t="s">
+        <v>867</v>
+      </c>
+      <c r="D30" t="s">
+        <v>42</v>
+      </c>
+      <c r="E30" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A31" t="s">
+        <v>81</v>
+      </c>
+      <c r="B31" t="s">
+        <v>781</v>
+      </c>
+      <c r="C31" t="s">
+        <v>868</v>
+      </c>
+      <c r="D31" t="s">
+        <v>456</v>
+      </c>
+      <c r="E31" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A32" t="s">
+        <v>82</v>
+      </c>
+      <c r="B32" t="s">
+        <v>781</v>
+      </c>
+      <c r="C32" t="s">
+        <v>869</v>
+      </c>
+      <c r="D32" t="s">
+        <v>42</v>
+      </c>
+      <c r="E32" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A33" t="s">
+        <v>83</v>
+      </c>
+      <c r="B33" t="s">
+        <v>781</v>
+      </c>
+      <c r="C33" t="s">
+        <v>870</v>
+      </c>
+      <c r="D33" t="s">
+        <v>456</v>
+      </c>
+      <c r="E33" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A34" t="s">
+        <v>84</v>
+      </c>
+      <c r="B34" t="s">
+        <v>781</v>
+      </c>
+      <c r="C34" t="s">
+        <v>870</v>
+      </c>
+      <c r="D34" t="s">
+        <v>40</v>
+      </c>
+      <c r="E34" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A35" t="s">
+        <v>85</v>
+      </c>
+      <c r="B35" t="s">
+        <v>781</v>
+      </c>
+      <c r="C35" t="s">
+        <v>871</v>
+      </c>
+      <c r="D35" t="s">
+        <v>454</v>
+      </c>
+      <c r="E35" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A36" t="s">
+        <v>86</v>
+      </c>
+      <c r="B36" t="s">
+        <v>781</v>
+      </c>
+      <c r="C36" t="s">
+        <v>872</v>
+      </c>
+      <c r="D36" t="s">
+        <v>40</v>
+      </c>
+      <c r="E36" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A37" t="s">
+        <v>87</v>
+      </c>
+      <c r="B37" t="s">
+        <v>781</v>
+      </c>
+      <c r="C37" t="s">
+        <v>873</v>
+      </c>
+      <c r="D37" t="s">
+        <v>454</v>
+      </c>
+      <c r="E37" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A38" t="s">
+        <v>88</v>
+      </c>
+      <c r="B38" t="s">
+        <v>781</v>
+      </c>
+      <c r="C38" t="s">
+        <v>874</v>
+      </c>
+      <c r="D38" t="s">
+        <v>40</v>
+      </c>
+      <c r="E38" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A39" t="s">
+        <v>89</v>
+      </c>
+      <c r="B39" t="s">
+        <v>781</v>
+      </c>
+      <c r="C39" t="s">
+        <v>875</v>
+      </c>
+      <c r="D39" t="s">
+        <v>454</v>
+      </c>
+      <c r="E39" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A40" t="s">
+        <v>90</v>
+      </c>
+      <c r="B40" t="s">
+        <v>781</v>
+      </c>
+      <c r="C40" t="s">
+        <v>875</v>
+      </c>
+      <c r="D40" t="s">
+        <v>40</v>
+      </c>
+      <c r="E40" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A41" t="s">
+        <v>91</v>
+      </c>
+      <c r="B41" t="s">
+        <v>781</v>
+      </c>
+      <c r="C41" t="s">
+        <v>876</v>
+      </c>
+      <c r="D41" t="s">
+        <v>454</v>
+      </c>
+      <c r="E41" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A42" t="s">
+        <v>92</v>
+      </c>
+      <c r="B42" t="s">
+        <v>781</v>
+      </c>
+      <c r="C42" t="s">
+        <v>877</v>
+      </c>
+      <c r="D42" t="s">
+        <v>355</v>
+      </c>
+      <c r="E42" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A43" t="s">
+        <v>93</v>
+      </c>
+      <c r="B43" t="s">
+        <v>781</v>
+      </c>
+      <c r="C43" t="s">
+        <v>878</v>
+      </c>
+      <c r="D43" t="s">
+        <v>41</v>
+      </c>
+      <c r="E43" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A44" t="s">
+        <v>94</v>
+      </c>
+      <c r="B44" t="s">
+        <v>781</v>
+      </c>
+      <c r="C44" t="s">
+        <v>879</v>
+      </c>
+      <c r="D44" t="s">
+        <v>355</v>
+      </c>
+      <c r="E44" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A45" t="s">
+        <v>95</v>
+      </c>
+      <c r="B45" t="s">
+        <v>781</v>
+      </c>
+      <c r="C45" t="s">
+        <v>880</v>
+      </c>
+      <c r="D45" t="s">
+        <v>354</v>
+      </c>
+      <c r="E45" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A46" t="s">
+        <v>96</v>
+      </c>
+      <c r="B46" t="s">
+        <v>781</v>
+      </c>
+      <c r="C46" t="s">
+        <v>880</v>
+      </c>
+      <c r="D46" t="s">
+        <v>43</v>
+      </c>
+      <c r="E46" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A47" t="s">
+        <v>97</v>
+      </c>
+      <c r="B47" t="s">
+        <v>781</v>
+      </c>
+      <c r="C47" t="s">
+        <v>881</v>
+      </c>
+      <c r="D47" t="s">
+        <v>354</v>
+      </c>
+      <c r="E47" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A48" t="s">
+        <v>98</v>
+      </c>
+      <c r="B48" t="s">
+        <v>781</v>
+      </c>
+      <c r="C48" t="s">
+        <v>881</v>
+      </c>
+      <c r="D48" t="s">
+        <v>41</v>
+      </c>
+      <c r="E48" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A49" t="s">
+        <v>99</v>
+      </c>
+      <c r="B49" t="s">
+        <v>781</v>
+      </c>
+      <c r="C49" t="s">
+        <v>882</v>
+      </c>
+      <c r="D49" t="s">
+        <v>355</v>
+      </c>
+      <c r="E49" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A50" t="s">
+        <v>100</v>
+      </c>
+      <c r="B50" t="s">
+        <v>781</v>
+      </c>
+      <c r="C50" t="s">
+        <v>882</v>
+      </c>
+      <c r="D50" t="s">
+        <v>41</v>
+      </c>
+      <c r="E50" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="D51" t="s">
+        <v>355</v>
+      </c>
+      <c r="E51" t="s">
+        <v>758</v>
       </c>
     </row>
   </sheetData>
@@ -14882,6 +18502,4561 @@
       </c>
       <c r="E80" t="s">
         <v>134</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2700-000000000000}">
+  <dimension ref="A1:E6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:D6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="3" max="3" width="18" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.796875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" t="s">
+        <v>759</v>
+      </c>
+      <c r="C2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B3" t="s">
+        <v>760</v>
+      </c>
+      <c r="C3" t="s">
+        <v>242</v>
+      </c>
+      <c r="D3" t="s">
+        <v>77</v>
+      </c>
+      <c r="E3" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" t="s">
+        <v>761</v>
+      </c>
+      <c r="C4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D4" t="s">
+        <v>78</v>
+      </c>
+      <c r="E4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" t="s">
+        <v>762</v>
+      </c>
+      <c r="C5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D5" t="s">
+        <v>77</v>
+      </c>
+      <c r="E5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>83</v>
+      </c>
+      <c r="B6" t="s">
+        <v>763</v>
+      </c>
+      <c r="C6" t="s">
+        <v>52</v>
+      </c>
+      <c r="D6" t="s">
+        <v>78</v>
+      </c>
+      <c r="E6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2800-000000000000}">
+  <dimension ref="A1:G33"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G2" sqref="E2:G2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>781</v>
+      </c>
+      <c r="C2" t="s">
+        <v>885</v>
+      </c>
+      <c r="D2" t="s">
+        <v>355</v>
+      </c>
+      <c r="E2" t="s">
+        <v>764</v>
+      </c>
+      <c r="F2" t="str">
+        <f>LEFT(C2,LEN(C2)-4)</f>
+        <v>14:07:08</v>
+      </c>
+      <c r="G2" t="str">
+        <f>LEFT(C33,LEN(C2)-4)</f>
+        <v>14:08:20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>781</v>
+      </c>
+      <c r="C3" t="s">
+        <v>886</v>
+      </c>
+      <c r="D3" t="s">
+        <v>454</v>
+      </c>
+      <c r="E3" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>781</v>
+      </c>
+      <c r="C4" t="s">
+        <v>887</v>
+      </c>
+      <c r="D4" t="s">
+        <v>354</v>
+      </c>
+      <c r="E4" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
+        <v>781</v>
+      </c>
+      <c r="C5" t="s">
+        <v>888</v>
+      </c>
+      <c r="D5" t="s">
+        <v>455</v>
+      </c>
+      <c r="E5" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" t="s">
+        <v>781</v>
+      </c>
+      <c r="C6" t="s">
+        <v>889</v>
+      </c>
+      <c r="D6" t="s">
+        <v>456</v>
+      </c>
+      <c r="E6" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" t="s">
+        <v>781</v>
+      </c>
+      <c r="C7" t="s">
+        <v>890</v>
+      </c>
+      <c r="D7" t="s">
+        <v>39</v>
+      </c>
+      <c r="E7" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" t="s">
+        <v>781</v>
+      </c>
+      <c r="C8" t="s">
+        <v>890</v>
+      </c>
+      <c r="D8" t="s">
+        <v>455</v>
+      </c>
+      <c r="E8" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" t="s">
+        <v>781</v>
+      </c>
+      <c r="C9" t="s">
+        <v>891</v>
+      </c>
+      <c r="D9" t="s">
+        <v>39</v>
+      </c>
+      <c r="E9" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" t="s">
+        <v>781</v>
+      </c>
+      <c r="C10" t="s">
+        <v>892</v>
+      </c>
+      <c r="D10" t="s">
+        <v>40</v>
+      </c>
+      <c r="E10" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" t="s">
+        <v>781</v>
+      </c>
+      <c r="C11" t="s">
+        <v>892</v>
+      </c>
+      <c r="D11" t="s">
+        <v>454</v>
+      </c>
+      <c r="E11" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" t="s">
+        <v>781</v>
+      </c>
+      <c r="C12" t="s">
+        <v>893</v>
+      </c>
+      <c r="D12" t="s">
+        <v>40</v>
+      </c>
+      <c r="E12" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" t="s">
+        <v>781</v>
+      </c>
+      <c r="C13" t="s">
+        <v>894</v>
+      </c>
+      <c r="D13" t="s">
+        <v>42</v>
+      </c>
+      <c r="E13" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" t="s">
+        <v>781</v>
+      </c>
+      <c r="C14" t="s">
+        <v>895</v>
+      </c>
+      <c r="D14" t="s">
+        <v>456</v>
+      </c>
+      <c r="E14" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A15" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" t="s">
+        <v>781</v>
+      </c>
+      <c r="C15" t="s">
+        <v>896</v>
+      </c>
+      <c r="D15" t="s">
+        <v>42</v>
+      </c>
+      <c r="E15" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" t="s">
+        <v>781</v>
+      </c>
+      <c r="C16" t="s">
+        <v>896</v>
+      </c>
+      <c r="D16" t="s">
+        <v>456</v>
+      </c>
+      <c r="E16" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A17" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" t="s">
+        <v>781</v>
+      </c>
+      <c r="C17" t="s">
+        <v>897</v>
+      </c>
+      <c r="D17" t="s">
+        <v>42</v>
+      </c>
+      <c r="E17" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A18" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" t="s">
+        <v>781</v>
+      </c>
+      <c r="C18" t="s">
+        <v>898</v>
+      </c>
+      <c r="D18" t="s">
+        <v>41</v>
+      </c>
+      <c r="E18" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" t="s">
+        <v>781</v>
+      </c>
+      <c r="C19" t="s">
+        <v>898</v>
+      </c>
+      <c r="D19" t="s">
+        <v>355</v>
+      </c>
+      <c r="E19" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A20" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20" t="s">
+        <v>781</v>
+      </c>
+      <c r="C20" t="s">
+        <v>899</v>
+      </c>
+      <c r="D20" t="s">
+        <v>41</v>
+      </c>
+      <c r="E20" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A21" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21" t="s">
+        <v>781</v>
+      </c>
+      <c r="C21" t="s">
+        <v>900</v>
+      </c>
+      <c r="D21" t="s">
+        <v>43</v>
+      </c>
+      <c r="E21" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>781</v>
+      </c>
+      <c r="C22" t="s">
+        <v>900</v>
+      </c>
+      <c r="D22" t="s">
+        <v>354</v>
+      </c>
+      <c r="E22" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>781</v>
+      </c>
+      <c r="C23" t="s">
+        <v>901</v>
+      </c>
+      <c r="D23" t="s">
+        <v>43</v>
+      </c>
+      <c r="E23" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A24" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" t="s">
+        <v>781</v>
+      </c>
+      <c r="C24" t="s">
+        <v>902</v>
+      </c>
+      <c r="D24" t="s">
+        <v>354</v>
+      </c>
+      <c r="E24" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A25" t="s">
+        <v>26</v>
+      </c>
+      <c r="B25" t="s">
+        <v>781</v>
+      </c>
+      <c r="C25" t="s">
+        <v>903</v>
+      </c>
+      <c r="D25" t="s">
+        <v>43</v>
+      </c>
+      <c r="E25" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A26" t="s">
+        <v>27</v>
+      </c>
+      <c r="B26" t="s">
+        <v>781</v>
+      </c>
+      <c r="C26" t="s">
+        <v>903</v>
+      </c>
+      <c r="D26" t="s">
+        <v>354</v>
+      </c>
+      <c r="E26" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A27" t="s">
+        <v>28</v>
+      </c>
+      <c r="B27" t="s">
+        <v>781</v>
+      </c>
+      <c r="C27" t="s">
+        <v>904</v>
+      </c>
+      <c r="D27" t="s">
+        <v>454</v>
+      </c>
+      <c r="E27" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A28" t="s">
+        <v>29</v>
+      </c>
+      <c r="B28" t="s">
+        <v>781</v>
+      </c>
+      <c r="C28" t="s">
+        <v>905</v>
+      </c>
+      <c r="D28" t="s">
+        <v>40</v>
+      </c>
+      <c r="E28" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A29" t="s">
+        <v>79</v>
+      </c>
+      <c r="B29" t="s">
+        <v>781</v>
+      </c>
+      <c r="C29" t="s">
+        <v>905</v>
+      </c>
+      <c r="D29" t="s">
+        <v>454</v>
+      </c>
+      <c r="E29" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A30" t="s">
+        <v>80</v>
+      </c>
+      <c r="B30" t="s">
+        <v>781</v>
+      </c>
+      <c r="C30" t="s">
+        <v>906</v>
+      </c>
+      <c r="D30" t="s">
+        <v>40</v>
+      </c>
+      <c r="E30" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A31" t="s">
+        <v>81</v>
+      </c>
+      <c r="B31" t="s">
+        <v>781</v>
+      </c>
+      <c r="C31" t="s">
+        <v>907</v>
+      </c>
+      <c r="D31" t="s">
+        <v>455</v>
+      </c>
+      <c r="E31" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A32" t="s">
+        <v>82</v>
+      </c>
+      <c r="B32" t="s">
+        <v>781</v>
+      </c>
+      <c r="C32" t="s">
+        <v>908</v>
+      </c>
+      <c r="D32" t="s">
+        <v>39</v>
+      </c>
+      <c r="E32" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A33" t="s">
+        <v>83</v>
+      </c>
+      <c r="B33" t="s">
+        <v>781</v>
+      </c>
+      <c r="C33" t="s">
+        <v>908</v>
+      </c>
+      <c r="D33" t="s">
+        <v>455</v>
+      </c>
+      <c r="E33" t="s">
+        <v>764</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2900-000000000000}">
+  <dimension ref="A1:E6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="3" max="3" width="13.796875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" t="s">
+        <v>765</v>
+      </c>
+      <c r="C2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B3" t="s">
+        <v>766</v>
+      </c>
+      <c r="C3" t="s">
+        <v>242</v>
+      </c>
+      <c r="D3" t="s">
+        <v>78</v>
+      </c>
+      <c r="E3" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>747</v>
+      </c>
+      <c r="B4" t="s">
+        <v>765</v>
+      </c>
+      <c r="C4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D4" t="s">
+        <v>78</v>
+      </c>
+      <c r="E4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" t="s">
+        <v>767</v>
+      </c>
+      <c r="C5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D5" t="s">
+        <v>78</v>
+      </c>
+      <c r="E5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>96</v>
+      </c>
+      <c r="B6" t="s">
+        <v>768</v>
+      </c>
+      <c r="C6" t="s">
+        <v>52</v>
+      </c>
+      <c r="D6" t="s">
+        <v>78</v>
+      </c>
+      <c r="E6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2A00-000000000000}">
+  <dimension ref="A1:G46"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G2" sqref="E2:G2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="3" max="3" width="18" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>781</v>
+      </c>
+      <c r="C2" t="s">
+        <v>911</v>
+      </c>
+      <c r="D2" t="s">
+        <v>355</v>
+      </c>
+      <c r="E2" t="s">
+        <v>769</v>
+      </c>
+      <c r="F2" t="str">
+        <f>LEFT(C2,LEN(C2)-4)</f>
+        <v>15:19:57</v>
+      </c>
+      <c r="G2" t="str">
+        <f>LEFT(C46,LEN(C2)-4)</f>
+        <v>15:21:06</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>781</v>
+      </c>
+      <c r="C3" t="s">
+        <v>912</v>
+      </c>
+      <c r="D3" t="s">
+        <v>454</v>
+      </c>
+      <c r="E3" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>781</v>
+      </c>
+      <c r="C4" t="s">
+        <v>913</v>
+      </c>
+      <c r="D4" t="s">
+        <v>354</v>
+      </c>
+      <c r="E4" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
+        <v>781</v>
+      </c>
+      <c r="C5" t="s">
+        <v>914</v>
+      </c>
+      <c r="D5" t="s">
+        <v>455</v>
+      </c>
+      <c r="E5" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" t="s">
+        <v>781</v>
+      </c>
+      <c r="C6" t="s">
+        <v>915</v>
+      </c>
+      <c r="D6" t="s">
+        <v>456</v>
+      </c>
+      <c r="E6" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" t="s">
+        <v>781</v>
+      </c>
+      <c r="C7" t="s">
+        <v>916</v>
+      </c>
+      <c r="D7" t="s">
+        <v>43</v>
+      </c>
+      <c r="E7" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" t="s">
+        <v>781</v>
+      </c>
+      <c r="C8" t="s">
+        <v>916</v>
+      </c>
+      <c r="D8" t="s">
+        <v>354</v>
+      </c>
+      <c r="E8" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" t="s">
+        <v>781</v>
+      </c>
+      <c r="C9" t="s">
+        <v>917</v>
+      </c>
+      <c r="D9" t="s">
+        <v>43</v>
+      </c>
+      <c r="E9" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" t="s">
+        <v>781</v>
+      </c>
+      <c r="C10" t="s">
+        <v>918</v>
+      </c>
+      <c r="D10" t="s">
+        <v>41</v>
+      </c>
+      <c r="E10" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" t="s">
+        <v>781</v>
+      </c>
+      <c r="C11" t="s">
+        <v>919</v>
+      </c>
+      <c r="D11" t="s">
+        <v>42</v>
+      </c>
+      <c r="E11" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" t="s">
+        <v>781</v>
+      </c>
+      <c r="C12" t="s">
+        <v>919</v>
+      </c>
+      <c r="D12" t="s">
+        <v>456</v>
+      </c>
+      <c r="E12" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" t="s">
+        <v>781</v>
+      </c>
+      <c r="C13" t="s">
+        <v>920</v>
+      </c>
+      <c r="D13" t="s">
+        <v>42</v>
+      </c>
+      <c r="E13" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" t="s">
+        <v>781</v>
+      </c>
+      <c r="C14" t="s">
+        <v>921</v>
+      </c>
+      <c r="D14" t="s">
+        <v>456</v>
+      </c>
+      <c r="E14" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A15" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" t="s">
+        <v>781</v>
+      </c>
+      <c r="C15" t="s">
+        <v>922</v>
+      </c>
+      <c r="D15" t="s">
+        <v>42</v>
+      </c>
+      <c r="E15" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" t="s">
+        <v>781</v>
+      </c>
+      <c r="C16" t="s">
+        <v>923</v>
+      </c>
+      <c r="D16" t="s">
+        <v>40</v>
+      </c>
+      <c r="E16" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A17" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" t="s">
+        <v>781</v>
+      </c>
+      <c r="C17" t="s">
+        <v>923</v>
+      </c>
+      <c r="D17" t="s">
+        <v>454</v>
+      </c>
+      <c r="E17" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A18" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" t="s">
+        <v>781</v>
+      </c>
+      <c r="C18" t="s">
+        <v>924</v>
+      </c>
+      <c r="D18" t="s">
+        <v>40</v>
+      </c>
+      <c r="E18" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" t="s">
+        <v>781</v>
+      </c>
+      <c r="C19" t="s">
+        <v>925</v>
+      </c>
+      <c r="D19" t="s">
+        <v>39</v>
+      </c>
+      <c r="E19" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A20" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20" t="s">
+        <v>781</v>
+      </c>
+      <c r="C20" t="s">
+        <v>925</v>
+      </c>
+      <c r="D20" t="s">
+        <v>455</v>
+      </c>
+      <c r="E20" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A21" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21" t="s">
+        <v>781</v>
+      </c>
+      <c r="C21" t="s">
+        <v>926</v>
+      </c>
+      <c r="D21" t="s">
+        <v>39</v>
+      </c>
+      <c r="E21" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>781</v>
+      </c>
+      <c r="C22" t="s">
+        <v>927</v>
+      </c>
+      <c r="D22" t="s">
+        <v>354</v>
+      </c>
+      <c r="E22" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>781</v>
+      </c>
+      <c r="C23" t="s">
+        <v>928</v>
+      </c>
+      <c r="D23" t="s">
+        <v>355</v>
+      </c>
+      <c r="E23" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A24" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" t="s">
+        <v>781</v>
+      </c>
+      <c r="C24" t="s">
+        <v>929</v>
+      </c>
+      <c r="D24" t="s">
+        <v>41</v>
+      </c>
+      <c r="E24" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A25" t="s">
+        <v>26</v>
+      </c>
+      <c r="B25" t="s">
+        <v>781</v>
+      </c>
+      <c r="C25" t="s">
+        <v>930</v>
+      </c>
+      <c r="D25" t="s">
+        <v>355</v>
+      </c>
+      <c r="E25" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A26" t="s">
+        <v>27</v>
+      </c>
+      <c r="B26" t="s">
+        <v>781</v>
+      </c>
+      <c r="C26" t="s">
+        <v>931</v>
+      </c>
+      <c r="D26" t="s">
+        <v>456</v>
+      </c>
+      <c r="E26" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A27" t="s">
+        <v>28</v>
+      </c>
+      <c r="B27" t="s">
+        <v>781</v>
+      </c>
+      <c r="C27" t="s">
+        <v>932</v>
+      </c>
+      <c r="D27" t="s">
+        <v>42</v>
+      </c>
+      <c r="E27" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A28" t="s">
+        <v>29</v>
+      </c>
+      <c r="B28" t="s">
+        <v>781</v>
+      </c>
+      <c r="C28" t="s">
+        <v>933</v>
+      </c>
+      <c r="D28" t="s">
+        <v>456</v>
+      </c>
+      <c r="E28" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A29" t="s">
+        <v>79</v>
+      </c>
+      <c r="B29" t="s">
+        <v>781</v>
+      </c>
+      <c r="C29" t="s">
+        <v>934</v>
+      </c>
+      <c r="D29" t="s">
+        <v>454</v>
+      </c>
+      <c r="E29" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A30" t="s">
+        <v>80</v>
+      </c>
+      <c r="B30" t="s">
+        <v>781</v>
+      </c>
+      <c r="C30" t="s">
+        <v>935</v>
+      </c>
+      <c r="D30" t="s">
+        <v>40</v>
+      </c>
+      <c r="E30" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A31" t="s">
+        <v>81</v>
+      </c>
+      <c r="B31" t="s">
+        <v>781</v>
+      </c>
+      <c r="C31" t="s">
+        <v>935</v>
+      </c>
+      <c r="D31" t="s">
+        <v>454</v>
+      </c>
+      <c r="E31" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A32" t="s">
+        <v>82</v>
+      </c>
+      <c r="B32" t="s">
+        <v>781</v>
+      </c>
+      <c r="C32" t="s">
+        <v>936</v>
+      </c>
+      <c r="D32" t="s">
+        <v>40</v>
+      </c>
+      <c r="E32" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A33" t="s">
+        <v>83</v>
+      </c>
+      <c r="B33" t="s">
+        <v>781</v>
+      </c>
+      <c r="C33" t="s">
+        <v>937</v>
+      </c>
+      <c r="D33" t="s">
+        <v>454</v>
+      </c>
+      <c r="E33" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A34" t="s">
+        <v>84</v>
+      </c>
+      <c r="B34" t="s">
+        <v>781</v>
+      </c>
+      <c r="C34" t="s">
+        <v>938</v>
+      </c>
+      <c r="D34" t="s">
+        <v>40</v>
+      </c>
+      <c r="E34" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A35" t="s">
+        <v>85</v>
+      </c>
+      <c r="B35" t="s">
+        <v>781</v>
+      </c>
+      <c r="C35" t="s">
+        <v>939</v>
+      </c>
+      <c r="D35" t="s">
+        <v>454</v>
+      </c>
+      <c r="E35" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A36" t="s">
+        <v>86</v>
+      </c>
+      <c r="B36" t="s">
+        <v>781</v>
+      </c>
+      <c r="C36" t="s">
+        <v>940</v>
+      </c>
+      <c r="D36" t="s">
+        <v>40</v>
+      </c>
+      <c r="E36" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A37" t="s">
+        <v>87</v>
+      </c>
+      <c r="B37" t="s">
+        <v>781</v>
+      </c>
+      <c r="C37" t="s">
+        <v>941</v>
+      </c>
+      <c r="D37" t="s">
+        <v>454</v>
+      </c>
+      <c r="E37" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A38" t="s">
+        <v>88</v>
+      </c>
+      <c r="B38" t="s">
+        <v>781</v>
+      </c>
+      <c r="C38" t="s">
+        <v>942</v>
+      </c>
+      <c r="D38" t="s">
+        <v>40</v>
+      </c>
+      <c r="E38" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A39" t="s">
+        <v>89</v>
+      </c>
+      <c r="B39" t="s">
+        <v>781</v>
+      </c>
+      <c r="C39" t="s">
+        <v>943</v>
+      </c>
+      <c r="D39" t="s">
+        <v>454</v>
+      </c>
+      <c r="E39" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A40" t="s">
+        <v>90</v>
+      </c>
+      <c r="B40" t="s">
+        <v>781</v>
+      </c>
+      <c r="C40" t="s">
+        <v>944</v>
+      </c>
+      <c r="D40" t="s">
+        <v>40</v>
+      </c>
+      <c r="E40" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A41" t="s">
+        <v>91</v>
+      </c>
+      <c r="B41" t="s">
+        <v>781</v>
+      </c>
+      <c r="C41" t="s">
+        <v>945</v>
+      </c>
+      <c r="D41" t="s">
+        <v>454</v>
+      </c>
+      <c r="E41" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A42" t="s">
+        <v>92</v>
+      </c>
+      <c r="B42" t="s">
+        <v>781</v>
+      </c>
+      <c r="C42" t="s">
+        <v>946</v>
+      </c>
+      <c r="D42" t="s">
+        <v>40</v>
+      </c>
+      <c r="E42" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A43" t="s">
+        <v>93</v>
+      </c>
+      <c r="B43" t="s">
+        <v>781</v>
+      </c>
+      <c r="C43" t="s">
+        <v>947</v>
+      </c>
+      <c r="D43" t="s">
+        <v>454</v>
+      </c>
+      <c r="E43" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A44" t="s">
+        <v>94</v>
+      </c>
+      <c r="B44" t="s">
+        <v>781</v>
+      </c>
+      <c r="C44" t="s">
+        <v>948</v>
+      </c>
+      <c r="D44" t="s">
+        <v>455</v>
+      </c>
+      <c r="E44" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A45" t="s">
+        <v>95</v>
+      </c>
+      <c r="B45" t="s">
+        <v>781</v>
+      </c>
+      <c r="C45" t="s">
+        <v>949</v>
+      </c>
+      <c r="D45" t="s">
+        <v>39</v>
+      </c>
+      <c r="E45" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A46" t="s">
+        <v>96</v>
+      </c>
+      <c r="B46" t="s">
+        <v>781</v>
+      </c>
+      <c r="C46" t="s">
+        <v>949</v>
+      </c>
+      <c r="D46" t="s">
+        <v>455</v>
+      </c>
+      <c r="E46" t="s">
+        <v>769</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2B00-000000000000}">
+  <dimension ref="A1:E6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="3" max="3" width="17.59765625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" t="s">
+        <v>771</v>
+      </c>
+      <c r="C2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>106</v>
+      </c>
+      <c r="B3" t="s">
+        <v>772</v>
+      </c>
+      <c r="C3" t="s">
+        <v>242</v>
+      </c>
+      <c r="D3" t="s">
+        <v>78</v>
+      </c>
+      <c r="E3" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>747</v>
+      </c>
+      <c r="B4" t="s">
+        <v>771</v>
+      </c>
+      <c r="C4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D4" t="s">
+        <v>78</v>
+      </c>
+      <c r="E4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>770</v>
+      </c>
+      <c r="B5" t="s">
+        <v>772</v>
+      </c>
+      <c r="C5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D5" t="s">
+        <v>78</v>
+      </c>
+      <c r="E5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>97</v>
+      </c>
+      <c r="B6" t="s">
+        <v>773</v>
+      </c>
+      <c r="C6" t="s">
+        <v>52</v>
+      </c>
+      <c r="D6" t="s">
+        <v>78</v>
+      </c>
+      <c r="E6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2C00-000000000000}">
+  <dimension ref="A1:G56"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G2" sqref="E2:G2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="3" max="3" width="18" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>781</v>
+      </c>
+      <c r="C2" t="s">
+        <v>952</v>
+      </c>
+      <c r="D2" t="s">
+        <v>355</v>
+      </c>
+      <c r="E2" t="s">
+        <v>774</v>
+      </c>
+      <c r="F2" t="str">
+        <f>LEFT(C2,LEN(C2)-4)</f>
+        <v>16:14:11</v>
+      </c>
+      <c r="G2" t="str">
+        <f>LEFT(C56,LEN(C2)-4)</f>
+        <v>16:16:12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>781</v>
+      </c>
+      <c r="C3" t="s">
+        <v>953</v>
+      </c>
+      <c r="D3" t="s">
+        <v>454</v>
+      </c>
+      <c r="E3" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>781</v>
+      </c>
+      <c r="C4" t="s">
+        <v>954</v>
+      </c>
+      <c r="D4" t="s">
+        <v>354</v>
+      </c>
+      <c r="E4" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
+        <v>781</v>
+      </c>
+      <c r="C5" t="s">
+        <v>955</v>
+      </c>
+      <c r="D5" t="s">
+        <v>455</v>
+      </c>
+      <c r="E5" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" t="s">
+        <v>781</v>
+      </c>
+      <c r="C6" t="s">
+        <v>956</v>
+      </c>
+      <c r="D6" t="s">
+        <v>456</v>
+      </c>
+      <c r="E6" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" t="s">
+        <v>781</v>
+      </c>
+      <c r="C7" t="s">
+        <v>957</v>
+      </c>
+      <c r="D7" t="s">
+        <v>39</v>
+      </c>
+      <c r="E7" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" t="s">
+        <v>781</v>
+      </c>
+      <c r="C8" t="s">
+        <v>957</v>
+      </c>
+      <c r="D8" t="s">
+        <v>455</v>
+      </c>
+      <c r="E8" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" t="s">
+        <v>781</v>
+      </c>
+      <c r="C9" t="s">
+        <v>958</v>
+      </c>
+      <c r="D9" t="s">
+        <v>39</v>
+      </c>
+      <c r="E9" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" t="s">
+        <v>781</v>
+      </c>
+      <c r="C10" t="s">
+        <v>959</v>
+      </c>
+      <c r="D10" t="s">
+        <v>40</v>
+      </c>
+      <c r="E10" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" t="s">
+        <v>781</v>
+      </c>
+      <c r="C11" t="s">
+        <v>959</v>
+      </c>
+      <c r="D11" t="s">
+        <v>454</v>
+      </c>
+      <c r="E11" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" t="s">
+        <v>781</v>
+      </c>
+      <c r="C12" t="s">
+        <v>960</v>
+      </c>
+      <c r="D12" t="s">
+        <v>40</v>
+      </c>
+      <c r="E12" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" t="s">
+        <v>781</v>
+      </c>
+      <c r="C13" t="s">
+        <v>961</v>
+      </c>
+      <c r="D13" t="s">
+        <v>42</v>
+      </c>
+      <c r="E13" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" t="s">
+        <v>781</v>
+      </c>
+      <c r="C14" t="s">
+        <v>961</v>
+      </c>
+      <c r="D14" t="s">
+        <v>456</v>
+      </c>
+      <c r="E14" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A15" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" t="s">
+        <v>781</v>
+      </c>
+      <c r="C15" t="s">
+        <v>962</v>
+      </c>
+      <c r="D15" t="s">
+        <v>42</v>
+      </c>
+      <c r="E15" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" t="s">
+        <v>781</v>
+      </c>
+      <c r="C16" t="s">
+        <v>963</v>
+      </c>
+      <c r="D16" t="s">
+        <v>41</v>
+      </c>
+      <c r="E16" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A17" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" t="s">
+        <v>781</v>
+      </c>
+      <c r="C17" t="s">
+        <v>963</v>
+      </c>
+      <c r="D17" t="s">
+        <v>355</v>
+      </c>
+      <c r="E17" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A18" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" t="s">
+        <v>781</v>
+      </c>
+      <c r="C18" t="s">
+        <v>964</v>
+      </c>
+      <c r="D18" t="s">
+        <v>41</v>
+      </c>
+      <c r="E18" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" t="s">
+        <v>781</v>
+      </c>
+      <c r="C19" t="s">
+        <v>965</v>
+      </c>
+      <c r="D19" t="s">
+        <v>43</v>
+      </c>
+      <c r="E19" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A20" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20" t="s">
+        <v>781</v>
+      </c>
+      <c r="C20" t="s">
+        <v>965</v>
+      </c>
+      <c r="D20" t="s">
+        <v>354</v>
+      </c>
+      <c r="E20" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A21" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21" t="s">
+        <v>781</v>
+      </c>
+      <c r="C21" t="s">
+        <v>966</v>
+      </c>
+      <c r="D21" t="s">
+        <v>43</v>
+      </c>
+      <c r="E21" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>781</v>
+      </c>
+      <c r="C22" t="s">
+        <v>967</v>
+      </c>
+      <c r="D22" t="s">
+        <v>354</v>
+      </c>
+      <c r="E22" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>781</v>
+      </c>
+      <c r="C23" t="s">
+        <v>968</v>
+      </c>
+      <c r="D23" t="s">
+        <v>355</v>
+      </c>
+      <c r="E23" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A24" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" t="s">
+        <v>781</v>
+      </c>
+      <c r="C24" t="s">
+        <v>969</v>
+      </c>
+      <c r="D24" t="s">
+        <v>41</v>
+      </c>
+      <c r="E24" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A25" t="s">
+        <v>26</v>
+      </c>
+      <c r="B25" t="s">
+        <v>781</v>
+      </c>
+      <c r="C25" t="s">
+        <v>969</v>
+      </c>
+      <c r="D25" t="s">
+        <v>355</v>
+      </c>
+      <c r="E25" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A26" t="s">
+        <v>27</v>
+      </c>
+      <c r="B26" t="s">
+        <v>781</v>
+      </c>
+      <c r="C26" t="s">
+        <v>970</v>
+      </c>
+      <c r="D26" t="s">
+        <v>454</v>
+      </c>
+      <c r="E26" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A27" t="s">
+        <v>28</v>
+      </c>
+      <c r="B27" t="s">
+        <v>781</v>
+      </c>
+      <c r="C27" t="s">
+        <v>971</v>
+      </c>
+      <c r="D27" t="s">
+        <v>40</v>
+      </c>
+      <c r="E27" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A28" t="s">
+        <v>29</v>
+      </c>
+      <c r="B28" t="s">
+        <v>781</v>
+      </c>
+      <c r="C28" t="s">
+        <v>972</v>
+      </c>
+      <c r="D28" t="s">
+        <v>454</v>
+      </c>
+      <c r="E28" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A29" t="s">
+        <v>79</v>
+      </c>
+      <c r="B29" t="s">
+        <v>781</v>
+      </c>
+      <c r="C29" t="s">
+        <v>973</v>
+      </c>
+      <c r="D29" t="s">
+        <v>40</v>
+      </c>
+      <c r="E29" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A30" t="s">
+        <v>80</v>
+      </c>
+      <c r="B30" t="s">
+        <v>781</v>
+      </c>
+      <c r="C30" t="s">
+        <v>974</v>
+      </c>
+      <c r="D30" t="s">
+        <v>454</v>
+      </c>
+      <c r="E30" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A31" t="s">
+        <v>81</v>
+      </c>
+      <c r="B31" t="s">
+        <v>781</v>
+      </c>
+      <c r="C31" t="s">
+        <v>975</v>
+      </c>
+      <c r="D31" t="s">
+        <v>40</v>
+      </c>
+      <c r="E31" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A32" t="s">
+        <v>82</v>
+      </c>
+      <c r="B32" t="s">
+        <v>781</v>
+      </c>
+      <c r="C32" t="s">
+        <v>975</v>
+      </c>
+      <c r="D32" t="s">
+        <v>454</v>
+      </c>
+      <c r="E32" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A33" t="s">
+        <v>83</v>
+      </c>
+      <c r="B33" t="s">
+        <v>781</v>
+      </c>
+      <c r="C33" t="s">
+        <v>976</v>
+      </c>
+      <c r="D33" t="s">
+        <v>40</v>
+      </c>
+      <c r="E33" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A34" t="s">
+        <v>84</v>
+      </c>
+      <c r="B34" t="s">
+        <v>781</v>
+      </c>
+      <c r="C34" t="s">
+        <v>977</v>
+      </c>
+      <c r="D34" t="s">
+        <v>454</v>
+      </c>
+      <c r="E34" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A35" t="s">
+        <v>85</v>
+      </c>
+      <c r="B35" t="s">
+        <v>781</v>
+      </c>
+      <c r="C35" t="s">
+        <v>978</v>
+      </c>
+      <c r="D35" t="s">
+        <v>40</v>
+      </c>
+      <c r="E35" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A36" t="s">
+        <v>86</v>
+      </c>
+      <c r="B36" t="s">
+        <v>781</v>
+      </c>
+      <c r="C36" t="s">
+        <v>979</v>
+      </c>
+      <c r="D36" t="s">
+        <v>454</v>
+      </c>
+      <c r="E36" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A37" t="s">
+        <v>87</v>
+      </c>
+      <c r="B37" t="s">
+        <v>781</v>
+      </c>
+      <c r="C37" t="s">
+        <v>980</v>
+      </c>
+      <c r="D37" t="s">
+        <v>40</v>
+      </c>
+      <c r="E37" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A38" t="s">
+        <v>88</v>
+      </c>
+      <c r="B38" t="s">
+        <v>781</v>
+      </c>
+      <c r="C38" t="s">
+        <v>981</v>
+      </c>
+      <c r="D38" t="s">
+        <v>454</v>
+      </c>
+      <c r="E38" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A39" t="s">
+        <v>89</v>
+      </c>
+      <c r="B39" t="s">
+        <v>781</v>
+      </c>
+      <c r="C39" t="s">
+        <v>982</v>
+      </c>
+      <c r="D39" t="s">
+        <v>40</v>
+      </c>
+      <c r="E39" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A40" t="s">
+        <v>90</v>
+      </c>
+      <c r="B40" t="s">
+        <v>781</v>
+      </c>
+      <c r="C40" t="s">
+        <v>983</v>
+      </c>
+      <c r="D40" t="s">
+        <v>454</v>
+      </c>
+      <c r="E40" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A41" t="s">
+        <v>91</v>
+      </c>
+      <c r="B41" t="s">
+        <v>781</v>
+      </c>
+      <c r="C41" t="s">
+        <v>984</v>
+      </c>
+      <c r="D41" t="s">
+        <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A42" t="s">
+        <v>92</v>
+      </c>
+      <c r="B42" t="s">
+        <v>781</v>
+      </c>
+      <c r="C42" t="s">
+        <v>985</v>
+      </c>
+      <c r="D42" t="s">
+        <v>454</v>
+      </c>
+      <c r="E42" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A43" t="s">
+        <v>93</v>
+      </c>
+      <c r="B43" t="s">
+        <v>781</v>
+      </c>
+      <c r="C43" t="s">
+        <v>986</v>
+      </c>
+      <c r="D43" t="s">
+        <v>40</v>
+      </c>
+      <c r="E43" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A44" t="s">
+        <v>94</v>
+      </c>
+      <c r="B44" t="s">
+        <v>781</v>
+      </c>
+      <c r="C44" t="s">
+        <v>986</v>
+      </c>
+      <c r="D44" t="s">
+        <v>454</v>
+      </c>
+      <c r="E44" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A45" t="s">
+        <v>95</v>
+      </c>
+      <c r="B45" t="s">
+        <v>781</v>
+      </c>
+      <c r="C45" t="s">
+        <v>987</v>
+      </c>
+      <c r="D45" t="s">
+        <v>40</v>
+      </c>
+      <c r="E45" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A46" t="s">
+        <v>96</v>
+      </c>
+      <c r="B46" t="s">
+        <v>781</v>
+      </c>
+      <c r="C46" t="s">
+        <v>988</v>
+      </c>
+      <c r="D46" t="s">
+        <v>454</v>
+      </c>
+      <c r="E46" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A47" t="s">
+        <v>97</v>
+      </c>
+      <c r="B47" t="s">
+        <v>781</v>
+      </c>
+      <c r="C47" t="s">
+        <v>989</v>
+      </c>
+      <c r="D47" t="s">
+        <v>455</v>
+      </c>
+      <c r="E47" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A48" t="s">
+        <v>98</v>
+      </c>
+      <c r="B48" t="s">
+        <v>781</v>
+      </c>
+      <c r="C48" t="s">
+        <v>990</v>
+      </c>
+      <c r="D48" t="s">
+        <v>456</v>
+      </c>
+      <c r="E48" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A49" t="s">
+        <v>99</v>
+      </c>
+      <c r="B49" t="s">
+        <v>781</v>
+      </c>
+      <c r="C49" t="s">
+        <v>991</v>
+      </c>
+      <c r="D49" t="s">
+        <v>42</v>
+      </c>
+      <c r="E49" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A50" t="s">
+        <v>100</v>
+      </c>
+      <c r="B50" t="s">
+        <v>781</v>
+      </c>
+      <c r="C50" t="s">
+        <v>992</v>
+      </c>
+      <c r="D50" t="s">
+        <v>456</v>
+      </c>
+      <c r="E50" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A51" t="s">
+        <v>101</v>
+      </c>
+      <c r="B51" t="s">
+        <v>781</v>
+      </c>
+      <c r="C51" t="s">
+        <v>993</v>
+      </c>
+      <c r="D51" t="s">
+        <v>42</v>
+      </c>
+      <c r="E51" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A52" t="s">
+        <v>102</v>
+      </c>
+      <c r="B52" t="s">
+        <v>781</v>
+      </c>
+      <c r="C52" t="s">
+        <v>994</v>
+      </c>
+      <c r="D52" t="s">
+        <v>456</v>
+      </c>
+      <c r="E52" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A53" t="s">
+        <v>103</v>
+      </c>
+      <c r="B53" t="s">
+        <v>781</v>
+      </c>
+      <c r="C53" t="s">
+        <v>995</v>
+      </c>
+      <c r="D53" t="s">
+        <v>42</v>
+      </c>
+      <c r="E53" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A54" t="s">
+        <v>104</v>
+      </c>
+      <c r="B54" t="s">
+        <v>781</v>
+      </c>
+      <c r="C54" t="s">
+        <v>996</v>
+      </c>
+      <c r="D54" t="s">
+        <v>456</v>
+      </c>
+      <c r="E54" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A55" t="s">
+        <v>105</v>
+      </c>
+      <c r="B55" t="s">
+        <v>781</v>
+      </c>
+      <c r="C55" t="s">
+        <v>997</v>
+      </c>
+      <c r="D55" t="s">
+        <v>42</v>
+      </c>
+      <c r="E55" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A56" t="s">
+        <v>106</v>
+      </c>
+      <c r="B56" t="s">
+        <v>781</v>
+      </c>
+      <c r="C56" t="s">
+        <v>998</v>
+      </c>
+      <c r="D56" t="s">
+        <v>456</v>
+      </c>
+      <c r="E56" t="s">
+        <v>774</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2D00-000000000000}">
+  <dimension ref="A1:E6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="3" max="3" width="17.59765625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" t="s">
+        <v>771</v>
+      </c>
+      <c r="C2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>106</v>
+      </c>
+      <c r="B3" t="s">
+        <v>772</v>
+      </c>
+      <c r="C3" t="s">
+        <v>242</v>
+      </c>
+      <c r="D3" t="s">
+        <v>78</v>
+      </c>
+      <c r="E3" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>747</v>
+      </c>
+      <c r="B4" t="s">
+        <v>771</v>
+      </c>
+      <c r="C4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D4" t="s">
+        <v>78</v>
+      </c>
+      <c r="E4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>770</v>
+      </c>
+      <c r="B5" t="s">
+        <v>772</v>
+      </c>
+      <c r="C5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D5" t="s">
+        <v>78</v>
+      </c>
+      <c r="E5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>97</v>
+      </c>
+      <c r="B6" t="s">
+        <v>773</v>
+      </c>
+      <c r="C6" t="s">
+        <v>52</v>
+      </c>
+      <c r="D6" t="s">
+        <v>78</v>
+      </c>
+      <c r="E6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2E00-000000000000}">
+  <dimension ref="A1:G56"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G2" sqref="E2:G2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="3" max="3" width="18" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>781</v>
+      </c>
+      <c r="C2" t="s">
+        <v>952</v>
+      </c>
+      <c r="D2" t="s">
+        <v>355</v>
+      </c>
+      <c r="E2" t="s">
+        <v>775</v>
+      </c>
+      <c r="F2" t="str">
+        <f>LEFT(C2,LEN(C2)-4)</f>
+        <v>16:14:11</v>
+      </c>
+      <c r="G2" t="str">
+        <f>LEFT(C56,LEN(C2)-4)</f>
+        <v>16:16:12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>781</v>
+      </c>
+      <c r="C3" t="s">
+        <v>953</v>
+      </c>
+      <c r="D3" t="s">
+        <v>454</v>
+      </c>
+      <c r="E3" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>781</v>
+      </c>
+      <c r="C4" t="s">
+        <v>954</v>
+      </c>
+      <c r="D4" t="s">
+        <v>354</v>
+      </c>
+      <c r="E4" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
+        <v>781</v>
+      </c>
+      <c r="C5" t="s">
+        <v>955</v>
+      </c>
+      <c r="D5" t="s">
+        <v>455</v>
+      </c>
+      <c r="E5" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" t="s">
+        <v>781</v>
+      </c>
+      <c r="C6" t="s">
+        <v>956</v>
+      </c>
+      <c r="D6" t="s">
+        <v>456</v>
+      </c>
+      <c r="E6" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" t="s">
+        <v>781</v>
+      </c>
+      <c r="C7" t="s">
+        <v>957</v>
+      </c>
+      <c r="D7" t="s">
+        <v>39</v>
+      </c>
+      <c r="E7" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" t="s">
+        <v>781</v>
+      </c>
+      <c r="C8" t="s">
+        <v>957</v>
+      </c>
+      <c r="D8" t="s">
+        <v>455</v>
+      </c>
+      <c r="E8" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" t="s">
+        <v>781</v>
+      </c>
+      <c r="C9" t="s">
+        <v>958</v>
+      </c>
+      <c r="D9" t="s">
+        <v>39</v>
+      </c>
+      <c r="E9" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" t="s">
+        <v>781</v>
+      </c>
+      <c r="C10" t="s">
+        <v>959</v>
+      </c>
+      <c r="D10" t="s">
+        <v>40</v>
+      </c>
+      <c r="E10" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" t="s">
+        <v>781</v>
+      </c>
+      <c r="C11" t="s">
+        <v>959</v>
+      </c>
+      <c r="D11" t="s">
+        <v>454</v>
+      </c>
+      <c r="E11" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" t="s">
+        <v>781</v>
+      </c>
+      <c r="C12" t="s">
+        <v>960</v>
+      </c>
+      <c r="D12" t="s">
+        <v>40</v>
+      </c>
+      <c r="E12" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" t="s">
+        <v>781</v>
+      </c>
+      <c r="C13" t="s">
+        <v>961</v>
+      </c>
+      <c r="D13" t="s">
+        <v>42</v>
+      </c>
+      <c r="E13" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" t="s">
+        <v>781</v>
+      </c>
+      <c r="C14" t="s">
+        <v>961</v>
+      </c>
+      <c r="D14" t="s">
+        <v>456</v>
+      </c>
+      <c r="E14" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A15" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" t="s">
+        <v>781</v>
+      </c>
+      <c r="C15" t="s">
+        <v>962</v>
+      </c>
+      <c r="D15" t="s">
+        <v>42</v>
+      </c>
+      <c r="E15" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" t="s">
+        <v>781</v>
+      </c>
+      <c r="C16" t="s">
+        <v>963</v>
+      </c>
+      <c r="D16" t="s">
+        <v>41</v>
+      </c>
+      <c r="E16" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A17" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" t="s">
+        <v>781</v>
+      </c>
+      <c r="C17" t="s">
+        <v>963</v>
+      </c>
+      <c r="D17" t="s">
+        <v>355</v>
+      </c>
+      <c r="E17" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A18" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" t="s">
+        <v>781</v>
+      </c>
+      <c r="C18" t="s">
+        <v>964</v>
+      </c>
+      <c r="D18" t="s">
+        <v>41</v>
+      </c>
+      <c r="E18" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" t="s">
+        <v>781</v>
+      </c>
+      <c r="C19" t="s">
+        <v>965</v>
+      </c>
+      <c r="D19" t="s">
+        <v>43</v>
+      </c>
+      <c r="E19" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A20" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20" t="s">
+        <v>781</v>
+      </c>
+      <c r="C20" t="s">
+        <v>965</v>
+      </c>
+      <c r="D20" t="s">
+        <v>354</v>
+      </c>
+      <c r="E20" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A21" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21" t="s">
+        <v>781</v>
+      </c>
+      <c r="C21" t="s">
+        <v>966</v>
+      </c>
+      <c r="D21" t="s">
+        <v>43</v>
+      </c>
+      <c r="E21" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>781</v>
+      </c>
+      <c r="C22" t="s">
+        <v>967</v>
+      </c>
+      <c r="D22" t="s">
+        <v>354</v>
+      </c>
+      <c r="E22" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>781</v>
+      </c>
+      <c r="C23" t="s">
+        <v>968</v>
+      </c>
+      <c r="D23" t="s">
+        <v>355</v>
+      </c>
+      <c r="E23" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A24" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" t="s">
+        <v>781</v>
+      </c>
+      <c r="C24" t="s">
+        <v>969</v>
+      </c>
+      <c r="D24" t="s">
+        <v>41</v>
+      </c>
+      <c r="E24" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A25" t="s">
+        <v>26</v>
+      </c>
+      <c r="B25" t="s">
+        <v>781</v>
+      </c>
+      <c r="C25" t="s">
+        <v>969</v>
+      </c>
+      <c r="D25" t="s">
+        <v>355</v>
+      </c>
+      <c r="E25" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A26" t="s">
+        <v>27</v>
+      </c>
+      <c r="B26" t="s">
+        <v>781</v>
+      </c>
+      <c r="C26" t="s">
+        <v>970</v>
+      </c>
+      <c r="D26" t="s">
+        <v>454</v>
+      </c>
+      <c r="E26" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A27" t="s">
+        <v>28</v>
+      </c>
+      <c r="B27" t="s">
+        <v>781</v>
+      </c>
+      <c r="C27" t="s">
+        <v>971</v>
+      </c>
+      <c r="D27" t="s">
+        <v>40</v>
+      </c>
+      <c r="E27" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A28" t="s">
+        <v>29</v>
+      </c>
+      <c r="B28" t="s">
+        <v>781</v>
+      </c>
+      <c r="C28" t="s">
+        <v>972</v>
+      </c>
+      <c r="D28" t="s">
+        <v>454</v>
+      </c>
+      <c r="E28" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A29" t="s">
+        <v>79</v>
+      </c>
+      <c r="B29" t="s">
+        <v>781</v>
+      </c>
+      <c r="C29" t="s">
+        <v>973</v>
+      </c>
+      <c r="D29" t="s">
+        <v>40</v>
+      </c>
+      <c r="E29" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A30" t="s">
+        <v>80</v>
+      </c>
+      <c r="B30" t="s">
+        <v>781</v>
+      </c>
+      <c r="C30" t="s">
+        <v>974</v>
+      </c>
+      <c r="D30" t="s">
+        <v>454</v>
+      </c>
+      <c r="E30" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A31" t="s">
+        <v>81</v>
+      </c>
+      <c r="B31" t="s">
+        <v>781</v>
+      </c>
+      <c r="C31" t="s">
+        <v>975</v>
+      </c>
+      <c r="D31" t="s">
+        <v>40</v>
+      </c>
+      <c r="E31" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A32" t="s">
+        <v>82</v>
+      </c>
+      <c r="B32" t="s">
+        <v>781</v>
+      </c>
+      <c r="C32" t="s">
+        <v>975</v>
+      </c>
+      <c r="D32" t="s">
+        <v>454</v>
+      </c>
+      <c r="E32" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A33" t="s">
+        <v>83</v>
+      </c>
+      <c r="B33" t="s">
+        <v>781</v>
+      </c>
+      <c r="C33" t="s">
+        <v>976</v>
+      </c>
+      <c r="D33" t="s">
+        <v>40</v>
+      </c>
+      <c r="E33" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A34" t="s">
+        <v>84</v>
+      </c>
+      <c r="B34" t="s">
+        <v>781</v>
+      </c>
+      <c r="C34" t="s">
+        <v>977</v>
+      </c>
+      <c r="D34" t="s">
+        <v>454</v>
+      </c>
+      <c r="E34" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A35" t="s">
+        <v>85</v>
+      </c>
+      <c r="B35" t="s">
+        <v>781</v>
+      </c>
+      <c r="C35" t="s">
+        <v>978</v>
+      </c>
+      <c r="D35" t="s">
+        <v>40</v>
+      </c>
+      <c r="E35" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A36" t="s">
+        <v>86</v>
+      </c>
+      <c r="B36" t="s">
+        <v>781</v>
+      </c>
+      <c r="C36" t="s">
+        <v>979</v>
+      </c>
+      <c r="D36" t="s">
+        <v>454</v>
+      </c>
+      <c r="E36" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A37" t="s">
+        <v>87</v>
+      </c>
+      <c r="B37" t="s">
+        <v>781</v>
+      </c>
+      <c r="C37" t="s">
+        <v>980</v>
+      </c>
+      <c r="D37" t="s">
+        <v>40</v>
+      </c>
+      <c r="E37" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A38" t="s">
+        <v>88</v>
+      </c>
+      <c r="B38" t="s">
+        <v>781</v>
+      </c>
+      <c r="C38" t="s">
+        <v>981</v>
+      </c>
+      <c r="D38" t="s">
+        <v>454</v>
+      </c>
+      <c r="E38" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A39" t="s">
+        <v>89</v>
+      </c>
+      <c r="B39" t="s">
+        <v>781</v>
+      </c>
+      <c r="C39" t="s">
+        <v>982</v>
+      </c>
+      <c r="D39" t="s">
+        <v>40</v>
+      </c>
+      <c r="E39" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A40" t="s">
+        <v>90</v>
+      </c>
+      <c r="B40" t="s">
+        <v>781</v>
+      </c>
+      <c r="C40" t="s">
+        <v>983</v>
+      </c>
+      <c r="D40" t="s">
+        <v>454</v>
+      </c>
+      <c r="E40" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A41" t="s">
+        <v>91</v>
+      </c>
+      <c r="B41" t="s">
+        <v>781</v>
+      </c>
+      <c r="C41" t="s">
+        <v>984</v>
+      </c>
+      <c r="D41" t="s">
+        <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A42" t="s">
+        <v>92</v>
+      </c>
+      <c r="B42" t="s">
+        <v>781</v>
+      </c>
+      <c r="C42" t="s">
+        <v>985</v>
+      </c>
+      <c r="D42" t="s">
+        <v>454</v>
+      </c>
+      <c r="E42" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A43" t="s">
+        <v>93</v>
+      </c>
+      <c r="B43" t="s">
+        <v>781</v>
+      </c>
+      <c r="C43" t="s">
+        <v>986</v>
+      </c>
+      <c r="D43" t="s">
+        <v>40</v>
+      </c>
+      <c r="E43" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A44" t="s">
+        <v>94</v>
+      </c>
+      <c r="B44" t="s">
+        <v>781</v>
+      </c>
+      <c r="C44" t="s">
+        <v>986</v>
+      </c>
+      <c r="D44" t="s">
+        <v>454</v>
+      </c>
+      <c r="E44" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A45" t="s">
+        <v>95</v>
+      </c>
+      <c r="B45" t="s">
+        <v>781</v>
+      </c>
+      <c r="C45" t="s">
+        <v>987</v>
+      </c>
+      <c r="D45" t="s">
+        <v>40</v>
+      </c>
+      <c r="E45" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A46" t="s">
+        <v>96</v>
+      </c>
+      <c r="B46" t="s">
+        <v>781</v>
+      </c>
+      <c r="C46" t="s">
+        <v>988</v>
+      </c>
+      <c r="D46" t="s">
+        <v>454</v>
+      </c>
+      <c r="E46" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A47" t="s">
+        <v>97</v>
+      </c>
+      <c r="B47" t="s">
+        <v>781</v>
+      </c>
+      <c r="C47" t="s">
+        <v>989</v>
+      </c>
+      <c r="D47" t="s">
+        <v>455</v>
+      </c>
+      <c r="E47" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A48" t="s">
+        <v>98</v>
+      </c>
+      <c r="B48" t="s">
+        <v>781</v>
+      </c>
+      <c r="C48" t="s">
+        <v>990</v>
+      </c>
+      <c r="D48" t="s">
+        <v>456</v>
+      </c>
+      <c r="E48" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A49" t="s">
+        <v>99</v>
+      </c>
+      <c r="B49" t="s">
+        <v>781</v>
+      </c>
+      <c r="C49" t="s">
+        <v>991</v>
+      </c>
+      <c r="D49" t="s">
+        <v>42</v>
+      </c>
+      <c r="E49" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A50" t="s">
+        <v>100</v>
+      </c>
+      <c r="B50" t="s">
+        <v>781</v>
+      </c>
+      <c r="C50" t="s">
+        <v>992</v>
+      </c>
+      <c r="D50" t="s">
+        <v>456</v>
+      </c>
+      <c r="E50" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A51" t="s">
+        <v>101</v>
+      </c>
+      <c r="B51" t="s">
+        <v>781</v>
+      </c>
+      <c r="C51" t="s">
+        <v>993</v>
+      </c>
+      <c r="D51" t="s">
+        <v>42</v>
+      </c>
+      <c r="E51" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A52" t="s">
+        <v>102</v>
+      </c>
+      <c r="B52" t="s">
+        <v>781</v>
+      </c>
+      <c r="C52" t="s">
+        <v>994</v>
+      </c>
+      <c r="D52" t="s">
+        <v>456</v>
+      </c>
+      <c r="E52" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A53" t="s">
+        <v>103</v>
+      </c>
+      <c r="B53" t="s">
+        <v>781</v>
+      </c>
+      <c r="C53" t="s">
+        <v>995</v>
+      </c>
+      <c r="D53" t="s">
+        <v>42</v>
+      </c>
+      <c r="E53" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A54" t="s">
+        <v>104</v>
+      </c>
+      <c r="B54" t="s">
+        <v>781</v>
+      </c>
+      <c r="C54" t="s">
+        <v>996</v>
+      </c>
+      <c r="D54" t="s">
+        <v>456</v>
+      </c>
+      <c r="E54" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A55" t="s">
+        <v>105</v>
+      </c>
+      <c r="B55" t="s">
+        <v>781</v>
+      </c>
+      <c r="C55" t="s">
+        <v>997</v>
+      </c>
+      <c r="D55" t="s">
+        <v>42</v>
+      </c>
+      <c r="E55" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A56" t="s">
+        <v>106</v>
+      </c>
+      <c r="B56" t="s">
+        <v>781</v>
+      </c>
+      <c r="C56" t="s">
+        <v>998</v>
+      </c>
+      <c r="D56" t="s">
+        <v>456</v>
+      </c>
+      <c r="E56" t="s">
+        <v>775</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet48.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2F00-000000000000}">
+  <dimension ref="A1:E6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="3" max="3" width="13.796875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B2" t="s">
+        <v>776</v>
+      </c>
+      <c r="C2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B3" t="s">
+        <v>777</v>
+      </c>
+      <c r="C3" t="s">
+        <v>242</v>
+      </c>
+      <c r="E3" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>88</v>
+      </c>
+      <c r="B4" t="s">
+        <v>778</v>
+      </c>
+      <c r="C4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D4" t="s">
+        <v>78</v>
+      </c>
+      <c r="E4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>142</v>
+      </c>
+      <c r="B5" t="s">
+        <v>777</v>
+      </c>
+      <c r="C5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D5" t="s">
+        <v>78</v>
+      </c>
+      <c r="E5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" t="s">
+        <v>779</v>
+      </c>
+      <c r="C6" t="s">
+        <v>52</v>
+      </c>
+      <c r="D6" t="s">
+        <v>78</v>
+      </c>
+      <c r="E6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet49.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3000-000000000000}">
+  <dimension ref="A1:G38"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G2" sqref="E2:G2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1001</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1002</v>
+      </c>
+      <c r="D2" t="s">
+        <v>355</v>
+      </c>
+      <c r="E2" t="s">
+        <v>780</v>
+      </c>
+      <c r="F2" t="str">
+        <f>LEFT(C2,LEN(C2)-4)</f>
+        <v>09:53:56</v>
+      </c>
+      <c r="G2" t="str">
+        <f>LEFT(C38,LEN(C2)-4)</f>
+        <v>09:55:19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1001</v>
+      </c>
+      <c r="C3" t="s">
+        <v>1003</v>
+      </c>
+      <c r="D3" t="s">
+        <v>454</v>
+      </c>
+      <c r="E3" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1001</v>
+      </c>
+      <c r="C4" t="s">
+        <v>1004</v>
+      </c>
+      <c r="D4" t="s">
+        <v>354</v>
+      </c>
+      <c r="E4" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1001</v>
+      </c>
+      <c r="C5" t="s">
+        <v>1005</v>
+      </c>
+      <c r="D5" t="s">
+        <v>455</v>
+      </c>
+      <c r="E5" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1001</v>
+      </c>
+      <c r="C6" t="s">
+        <v>1006</v>
+      </c>
+      <c r="D6" t="s">
+        <v>456</v>
+      </c>
+      <c r="E6" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1001</v>
+      </c>
+      <c r="C7" t="s">
+        <v>1007</v>
+      </c>
+      <c r="D7" t="s">
+        <v>39</v>
+      </c>
+      <c r="E7" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" t="s">
+        <v>1001</v>
+      </c>
+      <c r="C8" t="s">
+        <v>1007</v>
+      </c>
+      <c r="D8" t="s">
+        <v>455</v>
+      </c>
+      <c r="E8" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" t="s">
+        <v>1001</v>
+      </c>
+      <c r="C9" t="s">
+        <v>1008</v>
+      </c>
+      <c r="D9" t="s">
+        <v>39</v>
+      </c>
+      <c r="E9" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" t="s">
+        <v>1001</v>
+      </c>
+      <c r="C10" t="s">
+        <v>1009</v>
+      </c>
+      <c r="D10" t="s">
+        <v>40</v>
+      </c>
+      <c r="E10" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" t="s">
+        <v>1001</v>
+      </c>
+      <c r="C11" t="s">
+        <v>1009</v>
+      </c>
+      <c r="D11" t="s">
+        <v>454</v>
+      </c>
+      <c r="E11" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" t="s">
+        <v>1001</v>
+      </c>
+      <c r="C12" t="s">
+        <v>1010</v>
+      </c>
+      <c r="D12" t="s">
+        <v>40</v>
+      </c>
+      <c r="E12" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" t="s">
+        <v>1001</v>
+      </c>
+      <c r="C13" t="s">
+        <v>1011</v>
+      </c>
+      <c r="D13" t="s">
+        <v>454</v>
+      </c>
+      <c r="E13" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" t="s">
+        <v>1001</v>
+      </c>
+      <c r="C14" t="s">
+        <v>1012</v>
+      </c>
+      <c r="D14" t="s">
+        <v>40</v>
+      </c>
+      <c r="E14" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A15" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" t="s">
+        <v>1001</v>
+      </c>
+      <c r="C15" t="s">
+        <v>1013</v>
+      </c>
+      <c r="D15" t="s">
+        <v>42</v>
+      </c>
+      <c r="E15" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" t="s">
+        <v>1001</v>
+      </c>
+      <c r="C16" t="s">
+        <v>1013</v>
+      </c>
+      <c r="D16" t="s">
+        <v>456</v>
+      </c>
+      <c r="E16" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A17" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" t="s">
+        <v>1001</v>
+      </c>
+      <c r="C17" t="s">
+        <v>1014</v>
+      </c>
+      <c r="D17" t="s">
+        <v>42</v>
+      </c>
+      <c r="E17" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A18" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" t="s">
+        <v>1001</v>
+      </c>
+      <c r="C18" t="s">
+        <v>1015</v>
+      </c>
+      <c r="D18" t="s">
+        <v>41</v>
+      </c>
+      <c r="E18" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" t="s">
+        <v>1001</v>
+      </c>
+      <c r="C19" t="s">
+        <v>1015</v>
+      </c>
+      <c r="D19" t="s">
+        <v>355</v>
+      </c>
+      <c r="E19" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A20" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20" t="s">
+        <v>1001</v>
+      </c>
+      <c r="C20" t="s">
+        <v>1016</v>
+      </c>
+      <c r="D20" t="s">
+        <v>41</v>
+      </c>
+      <c r="E20" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A21" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21" t="s">
+        <v>1001</v>
+      </c>
+      <c r="C21" t="s">
+        <v>1017</v>
+      </c>
+      <c r="D21" t="s">
+        <v>43</v>
+      </c>
+      <c r="E21" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>1001</v>
+      </c>
+      <c r="C22" t="s">
+        <v>1017</v>
+      </c>
+      <c r="D22" t="s">
+        <v>354</v>
+      </c>
+      <c r="E22" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>1001</v>
+      </c>
+      <c r="C23" t="s">
+        <v>1018</v>
+      </c>
+      <c r="D23" t="s">
+        <v>43</v>
+      </c>
+      <c r="E23" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A24" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" t="s">
+        <v>1001</v>
+      </c>
+      <c r="C24" t="s">
+        <v>1019</v>
+      </c>
+      <c r="D24" t="s">
+        <v>455</v>
+      </c>
+      <c r="E24" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A25" t="s">
+        <v>26</v>
+      </c>
+      <c r="B25" t="s">
+        <v>1001</v>
+      </c>
+      <c r="C25" t="s">
+        <v>1020</v>
+      </c>
+      <c r="D25" t="s">
+        <v>454</v>
+      </c>
+      <c r="E25" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A26" t="s">
+        <v>27</v>
+      </c>
+      <c r="B26" t="s">
+        <v>1001</v>
+      </c>
+      <c r="C26" t="s">
+        <v>1021</v>
+      </c>
+      <c r="D26" t="s">
+        <v>40</v>
+      </c>
+      <c r="E26" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A27" t="s">
+        <v>28</v>
+      </c>
+      <c r="B27" t="s">
+        <v>1001</v>
+      </c>
+      <c r="C27" t="s">
+        <v>1022</v>
+      </c>
+      <c r="D27" t="s">
+        <v>454</v>
+      </c>
+      <c r="E27" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A28" t="s">
+        <v>29</v>
+      </c>
+      <c r="B28" t="s">
+        <v>1001</v>
+      </c>
+      <c r="C28" t="s">
+        <v>1023</v>
+      </c>
+      <c r="D28" t="s">
+        <v>40</v>
+      </c>
+      <c r="E28" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A29" t="s">
+        <v>79</v>
+      </c>
+      <c r="B29" t="s">
+        <v>1001</v>
+      </c>
+      <c r="C29" t="s">
+        <v>1023</v>
+      </c>
+      <c r="D29" t="s">
+        <v>454</v>
+      </c>
+      <c r="E29" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A30" t="s">
+        <v>80</v>
+      </c>
+      <c r="B30" t="s">
+        <v>1001</v>
+      </c>
+      <c r="C30" t="s">
+        <v>1024</v>
+      </c>
+      <c r="D30" t="s">
+        <v>456</v>
+      </c>
+      <c r="E30" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A31" t="s">
+        <v>81</v>
+      </c>
+      <c r="B31" t="s">
+        <v>1001</v>
+      </c>
+      <c r="C31" t="s">
+        <v>1025</v>
+      </c>
+      <c r="D31" t="s">
+        <v>42</v>
+      </c>
+      <c r="E31" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A32" t="s">
+        <v>82</v>
+      </c>
+      <c r="B32" t="s">
+        <v>1001</v>
+      </c>
+      <c r="C32" t="s">
+        <v>1025</v>
+      </c>
+      <c r="D32" t="s">
+        <v>456</v>
+      </c>
+      <c r="E32" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A33" t="s">
+        <v>83</v>
+      </c>
+      <c r="B33" t="s">
+        <v>1001</v>
+      </c>
+      <c r="C33" t="s">
+        <v>1026</v>
+      </c>
+      <c r="D33" t="s">
+        <v>355</v>
+      </c>
+      <c r="E33" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A34" t="s">
+        <v>84</v>
+      </c>
+      <c r="B34" t="s">
+        <v>1001</v>
+      </c>
+      <c r="C34" t="s">
+        <v>1027</v>
+      </c>
+      <c r="D34" t="s">
+        <v>41</v>
+      </c>
+      <c r="E34" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A35" t="s">
+        <v>85</v>
+      </c>
+      <c r="B35" t="s">
+        <v>1001</v>
+      </c>
+      <c r="C35" t="s">
+        <v>1027</v>
+      </c>
+      <c r="D35" t="s">
+        <v>355</v>
+      </c>
+      <c r="E35" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A36" t="s">
+        <v>86</v>
+      </c>
+      <c r="B36" t="s">
+        <v>1001</v>
+      </c>
+      <c r="C36" t="s">
+        <v>1028</v>
+      </c>
+      <c r="D36" t="s">
+        <v>354</v>
+      </c>
+      <c r="E36" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A37" t="s">
+        <v>87</v>
+      </c>
+      <c r="B37" t="s">
+        <v>1001</v>
+      </c>
+      <c r="C37" t="s">
+        <v>1029</v>
+      </c>
+      <c r="D37" t="s">
+        <v>43</v>
+      </c>
+      <c r="E37" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A38" t="s">
+        <v>88</v>
+      </c>
+      <c r="B38" t="s">
+        <v>1001</v>
+      </c>
+      <c r="C38" t="s">
+        <v>1029</v>
+      </c>
+      <c r="D38" t="s">
+        <v>354</v>
+      </c>
+      <c r="E38" t="s">
+        <v>780</v>
       </c>
     </row>
   </sheetData>

--- a/objectsPositionSG5.xlsx
+++ b/objectsPositionSG5.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Edoardo\Documents\HapticMemorySequence\"/>
     </mc:Choice>
@@ -62,6 +62,12 @@
     <sheet name="objectsPositionU22SG5" sheetId="47" state="hidden" r:id="rId47"/>
     <sheet name="U23SG5_check_total" sheetId="48" state="hidden" r:id="rId48"/>
     <sheet name="objectsPositionU23SG5" sheetId="49" state="hidden" r:id="rId49"/>
+    <sheet name="U25SG5_check_total" r:id="rId54" sheetId="50"/>
+    <sheet name="objectsPositionU25SG5" r:id="rId55" sheetId="51"/>
+    <sheet name="U26SG5_check_total" r:id="rId56" sheetId="52"/>
+    <sheet name="objectsPositionU26SG5" r:id="rId57" sheetId="53"/>
+    <sheet name="U27SG5_check_total" r:id="rId58" sheetId="54"/>
+    <sheet name="objectsPositionU27SG5" r:id="rId59" sheetId="55"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -79,7 +85,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5669" uniqueCount="1032">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6183" uniqueCount="1122">
   <si>
     <t>timestamp</t>
   </si>
@@ -3175,6 +3181,276 @@
   </si>
   <si>
     <t>09:55:19</t>
+  </si>
+  <si>
+    <t>221</t>
+  </si>
+  <si>
+    <t>2021_11_10_14_22_47_497</t>
+  </si>
+  <si>
+    <t>2021_11_10_14_22_08_444</t>
+  </si>
+  <si>
+    <t>2021_11_10_14_22_23_054</t>
+  </si>
+  <si>
+    <t>U25SG</t>
+  </si>
+  <si>
+    <t>2021_11_10_14_21_27_721</t>
+  </si>
+  <si>
+    <t>2021_11_10_14_21_27_759</t>
+  </si>
+  <si>
+    <t>2021_11_10_14_21_27_777</t>
+  </si>
+  <si>
+    <t>2021_11_10_14_21_27_784</t>
+  </si>
+  <si>
+    <t>2021_11_10_14_21_27_790</t>
+  </si>
+  <si>
+    <t>2021_11_10_14_21_58_610</t>
+  </si>
+  <si>
+    <t>2021_11_10_14_21_58_773</t>
+  </si>
+  <si>
+    <t>2021_11_10_14_21_58_876</t>
+  </si>
+  <si>
+    <t>2021_11_10_14_21_58_961</t>
+  </si>
+  <si>
+    <t>2021_11_10_14_22_04_663</t>
+  </si>
+  <si>
+    <t>2021_11_10_14_22_05_209</t>
+  </si>
+  <si>
+    <t>2021_11_10_14_22_05_233</t>
+  </si>
+  <si>
+    <t>2021_11_10_14_22_05_263</t>
+  </si>
+  <si>
+    <t>2021_11_10_14_22_08_231</t>
+  </si>
+  <si>
+    <t>2021_11_10_14_22_08_365</t>
+  </si>
+  <si>
+    <t>2021_11_10_14_22_08_389</t>
+  </si>
+  <si>
+    <t>2021_11_10_14_22_12_066</t>
+  </si>
+  <si>
+    <t>2021_11_10_14_22_12_067</t>
+  </si>
+  <si>
+    <t>2021_11_10_14_22_12_696</t>
+  </si>
+  <si>
+    <t>2021_11_10_14_22_17_466</t>
+  </si>
+  <si>
+    <t>2021_11_10_14_22_17_776</t>
+  </si>
+  <si>
+    <t>2021_11_10_14_22_23_024</t>
+  </si>
+  <si>
+    <t>2021_11_10_14_22_39_369</t>
+  </si>
+  <si>
+    <t>2021_11_10_14_22_45_566</t>
+  </si>
+  <si>
+    <t>2021_11_10_14_22_46_730</t>
+  </si>
+  <si>
+    <t>2021_11_10_14_22_46_785</t>
+  </si>
+  <si>
+    <t>2021_11_10_15_18_15_979</t>
+  </si>
+  <si>
+    <t>2021_11_10_15_18_12_189</t>
+  </si>
+  <si>
+    <t>2021_11_10_15_18_19_247</t>
+  </si>
+  <si>
+    <t>2021_11_10_15_18_03_442</t>
+  </si>
+  <si>
+    <t>U26SG</t>
+  </si>
+  <si>
+    <t>2021_11_10_15_17_16_801</t>
+  </si>
+  <si>
+    <t>2021_11_10_15_17_16_840</t>
+  </si>
+  <si>
+    <t>2021_11_10_15_17_16_846</t>
+  </si>
+  <si>
+    <t>2021_11_10_15_17_16_865</t>
+  </si>
+  <si>
+    <t>2021_11_10_15_17_16_871</t>
+  </si>
+  <si>
+    <t>2021_11_10_15_17_42_134</t>
+  </si>
+  <si>
+    <t>2021_11_10_15_17_42_476</t>
+  </si>
+  <si>
+    <t>2021_11_10_15_17_45_686</t>
+  </si>
+  <si>
+    <t>2021_11_10_15_17_45_810</t>
+  </si>
+  <si>
+    <t>2021_11_10_15_17_45_835</t>
+  </si>
+  <si>
+    <t>2021_11_10_15_17_45_889</t>
+  </si>
+  <si>
+    <t>2021_11_10_15_17_49_343</t>
+  </si>
+  <si>
+    <t>2021_11_10_15_17_49_446</t>
+  </si>
+  <si>
+    <t>2021_11_10_15_17_52_620</t>
+  </si>
+  <si>
+    <t>2021_11_10_15_17_52_812</t>
+  </si>
+  <si>
+    <t>2021_11_10_15_17_55_868</t>
+  </si>
+  <si>
+    <t>2021_11_10_15_17_55_924</t>
+  </si>
+  <si>
+    <t>2021_11_10_15_18_03_232</t>
+  </si>
+  <si>
+    <t>2021_11_10_15_18_08_023</t>
+  </si>
+  <si>
+    <t>2021_11_10_15_18_08_378</t>
+  </si>
+  <si>
+    <t>2021_11_10_15_18_11_890</t>
+  </si>
+  <si>
+    <t>2021_11_10_15_18_15_731</t>
+  </si>
+  <si>
+    <t>2021_11_10_15_18_19_144</t>
+  </si>
+  <si>
+    <t>351</t>
+  </si>
+  <si>
+    <t>2021_11_10_16_23_05_082</t>
+  </si>
+  <si>
+    <t>2021_11_10_16_22_59_501</t>
+  </si>
+  <si>
+    <t>2021_11_10_16_22_53_430</t>
+  </si>
+  <si>
+    <t>2021_11_10_16_22_45_486</t>
+  </si>
+  <si>
+    <t>U27SG</t>
+  </si>
+  <si>
+    <t>2021_11_10_16_21_27_258</t>
+  </si>
+  <si>
+    <t>2021_11_10_16_21_27_296</t>
+  </si>
+  <si>
+    <t>2021_11_10_16_21_27_315</t>
+  </si>
+  <si>
+    <t>2021_11_10_16_21_27_321</t>
+  </si>
+  <si>
+    <t>2021_11_10_16_21_27_327</t>
+  </si>
+  <si>
+    <t>2021_11_10_16_22_16_135</t>
+  </si>
+  <si>
+    <t>2021_11_10_16_22_16_480</t>
+  </si>
+  <si>
+    <t>2021_11_10_16_22_26_881</t>
+  </si>
+  <si>
+    <t>2021_11_10_16_22_27_239</t>
+  </si>
+  <si>
+    <t>2021_11_10_16_22_30_657</t>
+  </si>
+  <si>
+    <t>2021_11_10_16_22_30_735</t>
+  </si>
+  <si>
+    <t>2021_11_10_16_22_34_847</t>
+  </si>
+  <si>
+    <t>2021_11_10_16_22_34_932</t>
+  </si>
+  <si>
+    <t>2021_11_10_16_22_39_193</t>
+  </si>
+  <si>
+    <t>2021_11_10_16_22_39_435</t>
+  </si>
+  <si>
+    <t>2021_11_10_16_22_39_514</t>
+  </si>
+  <si>
+    <t>2021_11_10_16_22_39_539</t>
+  </si>
+  <si>
+    <t>2021_11_10_16_22_49_122</t>
+  </si>
+  <si>
+    <t>2021_11_10_16_22_53_343</t>
+  </si>
+  <si>
+    <t>2021_11_10_16_22_53_406</t>
+  </si>
+  <si>
+    <t>2021_11_10_16_22_58_916</t>
+  </si>
+  <si>
+    <t>2021_11_10_16_22_58_946</t>
+  </si>
+  <si>
+    <t>2021_11_10_16_22_58_969</t>
+  </si>
+  <si>
+    <t>2021_11_10_16_22_59_500</t>
+  </si>
+  <si>
+    <t>2021_11_10_16_23_04_380</t>
   </si>
 </sst>
 </file>
@@ -3546,14 +3822,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="6.59765625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="3" width="7.796875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="5" width="12.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="11.265625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="13" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="9.265625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="6.59765625" collapsed="true"/>
+    <col min="2" max="3" bestFit="true" customWidth="true" width="7.796875" collapsed="true"/>
+    <col min="4" max="5" bestFit="true" customWidth="true" width="12.33203125" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="15.0" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="11.265625" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="15.0" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="13.0" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="9.265625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.45">
@@ -4403,8 +4679,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="23.53125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="19.53125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="23.53125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="19.53125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.45">
@@ -4815,7 +5091,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="3" max="3" width="19.53125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="19.53125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.45">
@@ -4914,8 +5190,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="23.53125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="19.53125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="23.53125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="19.53125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.45">
@@ -5581,7 +5857,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="3" max="3" width="19.53125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="19.53125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.45">
@@ -5680,7 +5956,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="23.53125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="23.53125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.45">
@@ -6210,7 +6486,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="3" max="3" width="19.53125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="19.53125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.45">
@@ -6309,8 +6585,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="23.53125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="19.53125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="23.53125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="19.53125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.45">
@@ -7042,7 +7318,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="3" max="3" width="19.53125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="19.53125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.45">
@@ -7141,8 +7417,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="23.53125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="19.53125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="23.53125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="19.53125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.45">
@@ -8182,7 +8458,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="3" max="3" width="19.53125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="19.53125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.45">
@@ -8281,8 +8557,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="23.53125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="4" width="19.53125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="23.53125" collapsed="true"/>
+    <col min="3" max="4" bestFit="true" customWidth="true" width="19.53125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.45">
@@ -8784,8 +9060,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="23.53125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="19.53125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="23.53125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="19.53125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.45">
@@ -9723,7 +9999,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="3" max="3" width="19.53125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="19.53125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.45">
@@ -9822,9 +10098,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="23.53125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="11.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="19.53125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="23.53125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="11.33203125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="19.53125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.45">
@@ -10420,7 +10696,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="3" max="3" width="19.53125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="19.53125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.45">
@@ -10519,8 +10795,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="23.53125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="19.53125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="23.53125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="19.53125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.45">
@@ -11118,7 +11394,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="3" max="3" width="19.53125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="19.53125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.45">
@@ -11217,8 +11493,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="23.53125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="19.53125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="23.53125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="19.53125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.45">
@@ -11918,7 +12194,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="3" max="3" width="19.53125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="19.53125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.45">
@@ -12017,8 +12293,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="23.53125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="19.53125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="23.53125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="19.53125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.45">
@@ -12682,7 +12958,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="3" max="3" width="19.53125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="19.53125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.45">
@@ -12781,7 +13057,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="3" max="3" width="19.53125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="19.53125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.45">
@@ -12880,7 +13156,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="23.53125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="23.53125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.45">
@@ -13323,7 +13599,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="3" max="3" width="19.53125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="19.53125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.45">
@@ -13422,8 +13698,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="23.53125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="19.53125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="23.53125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="19.53125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.45">
@@ -14495,7 +14771,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="3" max="3" width="19" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="19.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.45">
@@ -14592,7 +14868,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="3" max="3" width="17.59765625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="17.59765625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.45">
@@ -15575,8 +15851,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="3" max="3" width="18" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="13.796875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.45">
@@ -15690,7 +15966,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="3" max="3" width="18" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="18.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.45">
@@ -16152,7 +16428,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="3" max="3" width="17.59765625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="17.59765625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.45">
@@ -16266,7 +16542,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="3" max="3" width="18" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="18.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.45">
@@ -17138,8 +17414,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="23.53125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="4" width="19.53125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="23.53125" collapsed="true"/>
+    <col min="3" max="4" bestFit="true" customWidth="true" width="19.53125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.45">
@@ -18519,8 +18795,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="3" max="3" width="18" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="13.796875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.45">
@@ -19212,7 +19488,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="3" max="3" width="13.796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="13.796875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.45">
@@ -19326,7 +19602,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="3" max="3" width="18" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="18.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.45">
@@ -20128,7 +20404,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="3" max="3" width="17.59765625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="17.59765625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.45">
@@ -20242,7 +20518,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="3" max="3" width="18" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="18.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.45">
@@ -21214,7 +21490,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="3" max="3" width="17.59765625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="17.59765625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.45">
@@ -21328,7 +21604,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="3" max="3" width="18" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="18.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.45">
@@ -22300,7 +22576,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="3" max="3" width="13.796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="13.796875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.45">
@@ -23074,7 +23350,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="3" max="3" width="19.53125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="19.53125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.45">
@@ -23160,6 +23436,1892 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet50.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1"/>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1033</v>
+      </c>
+      <c r="C2" t="s">
+        <v>355</v>
+      </c>
+      <c r="D2" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1034</v>
+      </c>
+      <c r="C3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D3" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>159</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1033</v>
+      </c>
+      <c r="C4" t="s">
+        <v>355</v>
+      </c>
+      <c r="D4" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>1032</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1034</v>
+      </c>
+      <c r="C5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D5" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>82</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1035</v>
+      </c>
+      <c r="C6" t="s">
+        <v>455</v>
+      </c>
+      <c r="D6" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet51.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1"/>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1037</v>
+      </c>
+      <c r="C2" t="s">
+        <v>355</v>
+      </c>
+      <c r="D2" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1038</v>
+      </c>
+      <c r="C3" t="s">
+        <v>454</v>
+      </c>
+      <c r="D3" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1039</v>
+      </c>
+      <c r="C4" t="s">
+        <v>354</v>
+      </c>
+      <c r="D4" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1040</v>
+      </c>
+      <c r="C5" t="s">
+        <v>455</v>
+      </c>
+      <c r="D5" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1041</v>
+      </c>
+      <c r="C6" t="s">
+        <v>456</v>
+      </c>
+      <c r="D6" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1042</v>
+      </c>
+      <c r="C7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D7" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" t="s">
+        <v>1042</v>
+      </c>
+      <c r="C8" t="s">
+        <v>455</v>
+      </c>
+      <c r="D8" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" t="s">
+        <v>1043</v>
+      </c>
+      <c r="C9" t="s">
+        <v>39</v>
+      </c>
+      <c r="D9" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" t="s">
+        <v>1043</v>
+      </c>
+      <c r="C10" t="s">
+        <v>455</v>
+      </c>
+      <c r="D10" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" t="s">
+        <v>1044</v>
+      </c>
+      <c r="C11" t="s">
+        <v>39</v>
+      </c>
+      <c r="D11" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" t="s">
+        <v>1044</v>
+      </c>
+      <c r="C12" t="s">
+        <v>455</v>
+      </c>
+      <c r="D12" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" t="s">
+        <v>1045</v>
+      </c>
+      <c r="C13" t="s">
+        <v>39</v>
+      </c>
+      <c r="D13" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" t="s">
+        <v>1046</v>
+      </c>
+      <c r="C14" t="s">
+        <v>40</v>
+      </c>
+      <c r="D14" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" t="s">
+        <v>1046</v>
+      </c>
+      <c r="C15" t="s">
+        <v>454</v>
+      </c>
+      <c r="D15" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" t="s">
+        <v>1047</v>
+      </c>
+      <c r="C16" t="s">
+        <v>40</v>
+      </c>
+      <c r="D16" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" t="s">
+        <v>1048</v>
+      </c>
+      <c r="C17" t="s">
+        <v>454</v>
+      </c>
+      <c r="D17" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" t="s">
+        <v>1049</v>
+      </c>
+      <c r="C18" t="s">
+        <v>40</v>
+      </c>
+      <c r="D18" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" t="s">
+        <v>1050</v>
+      </c>
+      <c r="C19" t="s">
+        <v>42</v>
+      </c>
+      <c r="D19" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20" t="s">
+        <v>1050</v>
+      </c>
+      <c r="C20" t="s">
+        <v>456</v>
+      </c>
+      <c r="D20" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21" t="s">
+        <v>1051</v>
+      </c>
+      <c r="C21" t="s">
+        <v>42</v>
+      </c>
+      <c r="D21" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>1052</v>
+      </c>
+      <c r="C22" t="s">
+        <v>456</v>
+      </c>
+      <c r="D22" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>1034</v>
+      </c>
+      <c r="C23" t="s">
+        <v>42</v>
+      </c>
+      <c r="D23" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" t="s">
+        <v>1053</v>
+      </c>
+      <c r="C24" t="s">
+        <v>41</v>
+      </c>
+      <c r="D24" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>26</v>
+      </c>
+      <c r="B25" t="s">
+        <v>1054</v>
+      </c>
+      <c r="C25" t="s">
+        <v>355</v>
+      </c>
+      <c r="D25" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>27</v>
+      </c>
+      <c r="B26" t="s">
+        <v>1055</v>
+      </c>
+      <c r="C26" t="s">
+        <v>41</v>
+      </c>
+      <c r="D26" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>28</v>
+      </c>
+      <c r="B27" t="s">
+        <v>1056</v>
+      </c>
+      <c r="C27" t="s">
+        <v>43</v>
+      </c>
+      <c r="D27" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>29</v>
+      </c>
+      <c r="B28" t="s">
+        <v>1056</v>
+      </c>
+      <c r="C28" t="s">
+        <v>354</v>
+      </c>
+      <c r="D28" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>79</v>
+      </c>
+      <c r="B29" t="s">
+        <v>1057</v>
+      </c>
+      <c r="C29" t="s">
+        <v>43</v>
+      </c>
+      <c r="D29" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>80</v>
+      </c>
+      <c r="B30" t="s">
+        <v>1058</v>
+      </c>
+      <c r="C30" t="s">
+        <v>455</v>
+      </c>
+      <c r="D30" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>81</v>
+      </c>
+      <c r="B31" t="s">
+        <v>1035</v>
+      </c>
+      <c r="C31" t="s">
+        <v>39</v>
+      </c>
+      <c r="D31" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>82</v>
+      </c>
+      <c r="B32" t="s">
+        <v>1035</v>
+      </c>
+      <c r="C32" t="s">
+        <v>455</v>
+      </c>
+      <c r="D32" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>83</v>
+      </c>
+      <c r="B33" t="s">
+        <v>1059</v>
+      </c>
+      <c r="C33" t="s">
+        <v>355</v>
+      </c>
+      <c r="D33" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>84</v>
+      </c>
+      <c r="B34" t="s">
+        <v>1060</v>
+      </c>
+      <c r="C34" t="s">
+        <v>354</v>
+      </c>
+      <c r="D34" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>85</v>
+      </c>
+      <c r="B35" t="s">
+        <v>1061</v>
+      </c>
+      <c r="C35" t="s">
+        <v>41</v>
+      </c>
+      <c r="D35" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>86</v>
+      </c>
+      <c r="B36" t="s">
+        <v>1061</v>
+      </c>
+      <c r="C36" t="s">
+        <v>355</v>
+      </c>
+      <c r="D36" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s">
+        <v>87</v>
+      </c>
+      <c r="B37" t="s">
+        <v>1062</v>
+      </c>
+      <c r="C37" t="s">
+        <v>41</v>
+      </c>
+      <c r="D37" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s">
+        <v>88</v>
+      </c>
+      <c r="B38" t="s">
+        <v>1033</v>
+      </c>
+      <c r="C38" t="s">
+        <v>355</v>
+      </c>
+      <c r="D38" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet52.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1"/>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1063</v>
+      </c>
+      <c r="C2" t="s">
+        <v>355</v>
+      </c>
+      <c r="D2" t="s">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1064</v>
+      </c>
+      <c r="C3" t="s">
+        <v>456</v>
+      </c>
+      <c r="D3" t="s">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>88</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1065</v>
+      </c>
+      <c r="C4" t="s">
+        <v>354</v>
+      </c>
+      <c r="D4" t="s">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>142</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1064</v>
+      </c>
+      <c r="C5" t="s">
+        <v>456</v>
+      </c>
+      <c r="D5" t="s">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1066</v>
+      </c>
+      <c r="C6" t="s">
+        <v>455</v>
+      </c>
+      <c r="D6" t="s">
+        <v>1067</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet53.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1"/>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1068</v>
+      </c>
+      <c r="C2" t="s">
+        <v>355</v>
+      </c>
+      <c r="D2" t="s">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1069</v>
+      </c>
+      <c r="C3" t="s">
+        <v>454</v>
+      </c>
+      <c r="D3" t="s">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1070</v>
+      </c>
+      <c r="C4" t="s">
+        <v>354</v>
+      </c>
+      <c r="D4" t="s">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1071</v>
+      </c>
+      <c r="C5" t="s">
+        <v>455</v>
+      </c>
+      <c r="D5" t="s">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1072</v>
+      </c>
+      <c r="C6" t="s">
+        <v>456</v>
+      </c>
+      <c r="D6" t="s">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1073</v>
+      </c>
+      <c r="C7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D7" t="s">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" t="s">
+        <v>1073</v>
+      </c>
+      <c r="C8" t="s">
+        <v>455</v>
+      </c>
+      <c r="D8" t="s">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" t="s">
+        <v>1074</v>
+      </c>
+      <c r="C9" t="s">
+        <v>39</v>
+      </c>
+      <c r="D9" t="s">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" t="s">
+        <v>1075</v>
+      </c>
+      <c r="C10" t="s">
+        <v>40</v>
+      </c>
+      <c r="D10" t="s">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" t="s">
+        <v>1075</v>
+      </c>
+      <c r="C11" t="s">
+        <v>454</v>
+      </c>
+      <c r="D11" t="s">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" t="s">
+        <v>1076</v>
+      </c>
+      <c r="C12" t="s">
+        <v>40</v>
+      </c>
+      <c r="D12" t="s">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" t="s">
+        <v>1077</v>
+      </c>
+      <c r="C13" t="s">
+        <v>454</v>
+      </c>
+      <c r="D13" t="s">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" t="s">
+        <v>1078</v>
+      </c>
+      <c r="C14" t="s">
+        <v>40</v>
+      </c>
+      <c r="D14" t="s">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" t="s">
+        <v>1079</v>
+      </c>
+      <c r="C15" t="s">
+        <v>42</v>
+      </c>
+      <c r="D15" t="s">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" t="s">
+        <v>1079</v>
+      </c>
+      <c r="C16" t="s">
+        <v>456</v>
+      </c>
+      <c r="D16" t="s">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" t="s">
+        <v>1080</v>
+      </c>
+      <c r="C17" t="s">
+        <v>42</v>
+      </c>
+      <c r="D17" t="s">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" t="s">
+        <v>1081</v>
+      </c>
+      <c r="C18" t="s">
+        <v>41</v>
+      </c>
+      <c r="D18" t="s">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" t="s">
+        <v>1081</v>
+      </c>
+      <c r="C19" t="s">
+        <v>355</v>
+      </c>
+      <c r="D19" t="s">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20" t="s">
+        <v>1082</v>
+      </c>
+      <c r="C20" t="s">
+        <v>41</v>
+      </c>
+      <c r="D20" t="s">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21" t="s">
+        <v>1083</v>
+      </c>
+      <c r="C21" t="s">
+        <v>43</v>
+      </c>
+      <c r="D21" t="s">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>1083</v>
+      </c>
+      <c r="C22" t="s">
+        <v>354</v>
+      </c>
+      <c r="D22" t="s">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>1084</v>
+      </c>
+      <c r="C23" t="s">
+        <v>43</v>
+      </c>
+      <c r="D23" t="s">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" t="s">
+        <v>1085</v>
+      </c>
+      <c r="C24" t="s">
+        <v>455</v>
+      </c>
+      <c r="D24" t="s">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>26</v>
+      </c>
+      <c r="B25" t="s">
+        <v>1066</v>
+      </c>
+      <c r="C25" t="s">
+        <v>39</v>
+      </c>
+      <c r="D25" t="s">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>27</v>
+      </c>
+      <c r="B26" t="s">
+        <v>1066</v>
+      </c>
+      <c r="C26" t="s">
+        <v>455</v>
+      </c>
+      <c r="D26" t="s">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>28</v>
+      </c>
+      <c r="B27" t="s">
+        <v>1086</v>
+      </c>
+      <c r="C27" t="s">
+        <v>454</v>
+      </c>
+      <c r="D27" t="s">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>29</v>
+      </c>
+      <c r="B28" t="s">
+        <v>1087</v>
+      </c>
+      <c r="C28" t="s">
+        <v>40</v>
+      </c>
+      <c r="D28" t="s">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>79</v>
+      </c>
+      <c r="B29" t="s">
+        <v>1087</v>
+      </c>
+      <c r="C29" t="s">
+        <v>454</v>
+      </c>
+      <c r="D29" t="s">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>80</v>
+      </c>
+      <c r="B30" t="s">
+        <v>1088</v>
+      </c>
+      <c r="C30" t="s">
+        <v>456</v>
+      </c>
+      <c r="D30" t="s">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>81</v>
+      </c>
+      <c r="B31" t="s">
+        <v>1064</v>
+      </c>
+      <c r="C31" t="s">
+        <v>42</v>
+      </c>
+      <c r="D31" t="s">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>82</v>
+      </c>
+      <c r="B32" t="s">
+        <v>1064</v>
+      </c>
+      <c r="C32" t="s">
+        <v>456</v>
+      </c>
+      <c r="D32" t="s">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>83</v>
+      </c>
+      <c r="B33" t="s">
+        <v>1089</v>
+      </c>
+      <c r="C33" t="s">
+        <v>355</v>
+      </c>
+      <c r="D33" t="s">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>84</v>
+      </c>
+      <c r="B34" t="s">
+        <v>1063</v>
+      </c>
+      <c r="C34" t="s">
+        <v>41</v>
+      </c>
+      <c r="D34" t="s">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>85</v>
+      </c>
+      <c r="B35" t="s">
+        <v>1063</v>
+      </c>
+      <c r="C35" t="s">
+        <v>355</v>
+      </c>
+      <c r="D35" t="s">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>86</v>
+      </c>
+      <c r="B36" t="s">
+        <v>1090</v>
+      </c>
+      <c r="C36" t="s">
+        <v>354</v>
+      </c>
+      <c r="D36" t="s">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s">
+        <v>87</v>
+      </c>
+      <c r="B37" t="s">
+        <v>1065</v>
+      </c>
+      <c r="C37" t="s">
+        <v>43</v>
+      </c>
+      <c r="D37" t="s">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s">
+        <v>88</v>
+      </c>
+      <c r="B38" t="s">
+        <v>1065</v>
+      </c>
+      <c r="C38" t="s">
+        <v>354</v>
+      </c>
+      <c r="D38" t="s">
+        <v>1067</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet54.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1"/>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1092</v>
+      </c>
+      <c r="C2" t="s">
+        <v>355</v>
+      </c>
+      <c r="D2" t="s">
+        <v>1096</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1093</v>
+      </c>
+      <c r="C3" t="s">
+        <v>454</v>
+      </c>
+      <c r="D3" t="s">
+        <v>1096</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>1091</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1092</v>
+      </c>
+      <c r="C4" t="s">
+        <v>355</v>
+      </c>
+      <c r="D4" t="s">
+        <v>1096</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1094</v>
+      </c>
+      <c r="C5" t="s">
+        <v>456</v>
+      </c>
+      <c r="D5" t="s">
+        <v>1096</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1095</v>
+      </c>
+      <c r="C6" t="s">
+        <v>455</v>
+      </c>
+      <c r="D6" t="s">
+        <v>1096</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet55.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1"/>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1097</v>
+      </c>
+      <c r="C2" t="s">
+        <v>355</v>
+      </c>
+      <c r="D2" t="s">
+        <v>1096</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1098</v>
+      </c>
+      <c r="C3" t="s">
+        <v>454</v>
+      </c>
+      <c r="D3" t="s">
+        <v>1096</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1099</v>
+      </c>
+      <c r="C4" t="s">
+        <v>354</v>
+      </c>
+      <c r="D4" t="s">
+        <v>1096</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1100</v>
+      </c>
+      <c r="C5" t="s">
+        <v>455</v>
+      </c>
+      <c r="D5" t="s">
+        <v>1096</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1101</v>
+      </c>
+      <c r="C6" t="s">
+        <v>456</v>
+      </c>
+      <c r="D6" t="s">
+        <v>1096</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1102</v>
+      </c>
+      <c r="C7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D7" t="s">
+        <v>1096</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" t="s">
+        <v>1102</v>
+      </c>
+      <c r="C8" t="s">
+        <v>455</v>
+      </c>
+      <c r="D8" t="s">
+        <v>1096</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" t="s">
+        <v>1103</v>
+      </c>
+      <c r="C9" t="s">
+        <v>39</v>
+      </c>
+      <c r="D9" t="s">
+        <v>1096</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" t="s">
+        <v>1104</v>
+      </c>
+      <c r="C10" t="s">
+        <v>40</v>
+      </c>
+      <c r="D10" t="s">
+        <v>1096</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" t="s">
+        <v>1104</v>
+      </c>
+      <c r="C11" t="s">
+        <v>454</v>
+      </c>
+      <c r="D11" t="s">
+        <v>1096</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" t="s">
+        <v>1105</v>
+      </c>
+      <c r="C12" t="s">
+        <v>40</v>
+      </c>
+      <c r="D12" t="s">
+        <v>1096</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" t="s">
+        <v>1106</v>
+      </c>
+      <c r="C13" t="s">
+        <v>41</v>
+      </c>
+      <c r="D13" t="s">
+        <v>1096</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" t="s">
+        <v>1106</v>
+      </c>
+      <c r="C14" t="s">
+        <v>355</v>
+      </c>
+      <c r="D14" t="s">
+        <v>1096</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" t="s">
+        <v>1107</v>
+      </c>
+      <c r="C15" t="s">
+        <v>41</v>
+      </c>
+      <c r="D15" t="s">
+        <v>1096</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" t="s">
+        <v>1108</v>
+      </c>
+      <c r="C16" t="s">
+        <v>43</v>
+      </c>
+      <c r="D16" t="s">
+        <v>1096</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" t="s">
+        <v>1108</v>
+      </c>
+      <c r="C17" t="s">
+        <v>354</v>
+      </c>
+      <c r="D17" t="s">
+        <v>1096</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" t="s">
+        <v>1109</v>
+      </c>
+      <c r="C18" t="s">
+        <v>43</v>
+      </c>
+      <c r="D18" t="s">
+        <v>1096</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" t="s">
+        <v>1110</v>
+      </c>
+      <c r="C19" t="s">
+        <v>42</v>
+      </c>
+      <c r="D19" t="s">
+        <v>1096</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20" t="s">
+        <v>1110</v>
+      </c>
+      <c r="C20" t="s">
+        <v>456</v>
+      </c>
+      <c r="D20" t="s">
+        <v>1096</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21" t="s">
+        <v>1111</v>
+      </c>
+      <c r="C21" t="s">
+        <v>42</v>
+      </c>
+      <c r="D21" t="s">
+        <v>1096</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>1112</v>
+      </c>
+      <c r="C22" t="s">
+        <v>456</v>
+      </c>
+      <c r="D22" t="s">
+        <v>1096</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>1113</v>
+      </c>
+      <c r="C23" t="s">
+        <v>42</v>
+      </c>
+      <c r="D23" t="s">
+        <v>1096</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" t="s">
+        <v>1095</v>
+      </c>
+      <c r="C24" t="s">
+        <v>455</v>
+      </c>
+      <c r="D24" t="s">
+        <v>1096</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>26</v>
+      </c>
+      <c r="B25" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C25" t="s">
+        <v>354</v>
+      </c>
+      <c r="D25" t="s">
+        <v>1096</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>27</v>
+      </c>
+      <c r="B26" t="s">
+        <v>1115</v>
+      </c>
+      <c r="C26" t="s">
+        <v>456</v>
+      </c>
+      <c r="D26" t="s">
+        <v>1096</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>28</v>
+      </c>
+      <c r="B27" t="s">
+        <v>1116</v>
+      </c>
+      <c r="C27" t="s">
+        <v>42</v>
+      </c>
+      <c r="D27" t="s">
+        <v>1096</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>29</v>
+      </c>
+      <c r="B28" t="s">
+        <v>1094</v>
+      </c>
+      <c r="C28" t="s">
+        <v>456</v>
+      </c>
+      <c r="D28" t="s">
+        <v>1096</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>79</v>
+      </c>
+      <c r="B29" t="s">
+        <v>1117</v>
+      </c>
+      <c r="C29" t="s">
+        <v>454</v>
+      </c>
+      <c r="D29" t="s">
+        <v>1096</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>80</v>
+      </c>
+      <c r="B30" t="s">
+        <v>1118</v>
+      </c>
+      <c r="C30" t="s">
+        <v>40</v>
+      </c>
+      <c r="D30" t="s">
+        <v>1096</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>81</v>
+      </c>
+      <c r="B31" t="s">
+        <v>1119</v>
+      </c>
+      <c r="C31" t="s">
+        <v>454</v>
+      </c>
+      <c r="D31" t="s">
+        <v>1096</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>82</v>
+      </c>
+      <c r="B32" t="s">
+        <v>1120</v>
+      </c>
+      <c r="C32" t="s">
+        <v>40</v>
+      </c>
+      <c r="D32" t="s">
+        <v>1096</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>83</v>
+      </c>
+      <c r="B33" t="s">
+        <v>1093</v>
+      </c>
+      <c r="C33" t="s">
+        <v>454</v>
+      </c>
+      <c r="D33" t="s">
+        <v>1096</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>84</v>
+      </c>
+      <c r="B34" t="s">
+        <v>1121</v>
+      </c>
+      <c r="C34" t="s">
+        <v>355</v>
+      </c>
+      <c r="D34" t="s">
+        <v>1096</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>85</v>
+      </c>
+      <c r="B35" t="s">
+        <v>1092</v>
+      </c>
+      <c r="C35" t="s">
+        <v>41</v>
+      </c>
+      <c r="D35" t="s">
+        <v>1096</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>86</v>
+      </c>
+      <c r="B36" t="s">
+        <v>1092</v>
+      </c>
+      <c r="C36" t="s">
+        <v>355</v>
+      </c>
+      <c r="D36" t="s">
+        <v>1096</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
@@ -23173,8 +25335,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="23.53125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="4" width="19.53125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="23.53125" collapsed="true"/>
+    <col min="3" max="4" bestFit="true" customWidth="true" width="19.53125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.45">
@@ -23806,8 +25968,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="23.53125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="19.53125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="23.53125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="19.53125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.45">
@@ -23906,9 +26068,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="23.53125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="19.53125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="11.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="23.53125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="19.53125" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="11.33203125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.45">
@@ -24523,7 +26685,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="3" max="3" width="19.53125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="19.53125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.45">

--- a/objectsPositionSG5.xlsx
+++ b/objectsPositionSG5.xlsx
@@ -3,12 +3,12 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Edoardo\Documents\HapticMemorySequence\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1801CA48-F22B-4383-921C-C3AE27CE3D9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC0A988A-BCEF-4D66-A787-C47AD43C984B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="11895" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -62,12 +62,12 @@
     <sheet name="objectsPositionU22SG5" sheetId="47" state="hidden" r:id="rId47"/>
     <sheet name="U23SG5_check_total" sheetId="48" state="hidden" r:id="rId48"/>
     <sheet name="objectsPositionU23SG5" sheetId="49" state="hidden" r:id="rId49"/>
-    <sheet name="U25SG5_check_total" r:id="rId54" sheetId="50"/>
-    <sheet name="objectsPositionU25SG5" r:id="rId55" sheetId="51"/>
-    <sheet name="U26SG5_check_total" r:id="rId56" sheetId="52"/>
-    <sheet name="objectsPositionU26SG5" r:id="rId57" sheetId="53"/>
-    <sheet name="U27SG5_check_total" r:id="rId58" sheetId="54"/>
-    <sheet name="objectsPositionU27SG5" r:id="rId59" sheetId="55"/>
+    <sheet name="U25SG5_check_total" sheetId="50" state="hidden" r:id="rId50"/>
+    <sheet name="objectsPositionU25SG5" sheetId="51" state="hidden" r:id="rId51"/>
+    <sheet name="U26SG5_check_total" sheetId="52" state="hidden" r:id="rId52"/>
+    <sheet name="objectsPositionU26SG5" sheetId="53" state="hidden" r:id="rId53"/>
+    <sheet name="U27SG5_check_total" sheetId="54" r:id="rId54"/>
+    <sheet name="objectsPositionU27SG5" sheetId="55" r:id="rId55"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -85,7 +85,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6183" uniqueCount="1122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6317" uniqueCount="1140">
   <si>
     <t>timestamp</t>
   </si>
@@ -3198,84 +3198,6 @@
     <t>U25SG</t>
   </si>
   <si>
-    <t>2021_11_10_14_21_27_721</t>
-  </si>
-  <si>
-    <t>2021_11_10_14_21_27_759</t>
-  </si>
-  <si>
-    <t>2021_11_10_14_21_27_777</t>
-  </si>
-  <si>
-    <t>2021_11_10_14_21_27_784</t>
-  </si>
-  <si>
-    <t>2021_11_10_14_21_27_790</t>
-  </si>
-  <si>
-    <t>2021_11_10_14_21_58_610</t>
-  </si>
-  <si>
-    <t>2021_11_10_14_21_58_773</t>
-  </si>
-  <si>
-    <t>2021_11_10_14_21_58_876</t>
-  </si>
-  <si>
-    <t>2021_11_10_14_21_58_961</t>
-  </si>
-  <si>
-    <t>2021_11_10_14_22_04_663</t>
-  </si>
-  <si>
-    <t>2021_11_10_14_22_05_209</t>
-  </si>
-  <si>
-    <t>2021_11_10_14_22_05_233</t>
-  </si>
-  <si>
-    <t>2021_11_10_14_22_05_263</t>
-  </si>
-  <si>
-    <t>2021_11_10_14_22_08_231</t>
-  </si>
-  <si>
-    <t>2021_11_10_14_22_08_365</t>
-  </si>
-  <si>
-    <t>2021_11_10_14_22_08_389</t>
-  </si>
-  <si>
-    <t>2021_11_10_14_22_12_066</t>
-  </si>
-  <si>
-    <t>2021_11_10_14_22_12_067</t>
-  </si>
-  <si>
-    <t>2021_11_10_14_22_12_696</t>
-  </si>
-  <si>
-    <t>2021_11_10_14_22_17_466</t>
-  </si>
-  <si>
-    <t>2021_11_10_14_22_17_776</t>
-  </si>
-  <si>
-    <t>2021_11_10_14_22_23_024</t>
-  </si>
-  <si>
-    <t>2021_11_10_14_22_39_369</t>
-  </si>
-  <si>
-    <t>2021_11_10_14_22_45_566</t>
-  </si>
-  <si>
-    <t>2021_11_10_14_22_46_730</t>
-  </si>
-  <si>
-    <t>2021_11_10_14_22_46_785</t>
-  </si>
-  <si>
     <t>2021_11_10_15_18_15_979</t>
   </si>
   <si>
@@ -3291,75 +3213,6 @@
     <t>U26SG</t>
   </si>
   <si>
-    <t>2021_11_10_15_17_16_801</t>
-  </si>
-  <si>
-    <t>2021_11_10_15_17_16_840</t>
-  </si>
-  <si>
-    <t>2021_11_10_15_17_16_846</t>
-  </si>
-  <si>
-    <t>2021_11_10_15_17_16_865</t>
-  </si>
-  <si>
-    <t>2021_11_10_15_17_16_871</t>
-  </si>
-  <si>
-    <t>2021_11_10_15_17_42_134</t>
-  </si>
-  <si>
-    <t>2021_11_10_15_17_42_476</t>
-  </si>
-  <si>
-    <t>2021_11_10_15_17_45_686</t>
-  </si>
-  <si>
-    <t>2021_11_10_15_17_45_810</t>
-  </si>
-  <si>
-    <t>2021_11_10_15_17_45_835</t>
-  </si>
-  <si>
-    <t>2021_11_10_15_17_45_889</t>
-  </si>
-  <si>
-    <t>2021_11_10_15_17_49_343</t>
-  </si>
-  <si>
-    <t>2021_11_10_15_17_49_446</t>
-  </si>
-  <si>
-    <t>2021_11_10_15_17_52_620</t>
-  </si>
-  <si>
-    <t>2021_11_10_15_17_52_812</t>
-  </si>
-  <si>
-    <t>2021_11_10_15_17_55_868</t>
-  </si>
-  <si>
-    <t>2021_11_10_15_17_55_924</t>
-  </si>
-  <si>
-    <t>2021_11_10_15_18_03_232</t>
-  </si>
-  <si>
-    <t>2021_11_10_15_18_08_023</t>
-  </si>
-  <si>
-    <t>2021_11_10_15_18_08_378</t>
-  </si>
-  <si>
-    <t>2021_11_10_15_18_11_890</t>
-  </si>
-  <si>
-    <t>2021_11_10_15_18_15_731</t>
-  </si>
-  <si>
-    <t>2021_11_10_15_18_19_144</t>
-  </si>
-  <si>
     <t>351</t>
   </si>
   <si>
@@ -3378,79 +3231,280 @@
     <t>U27SG</t>
   </si>
   <si>
-    <t>2021_11_10_16_21_27_258</t>
-  </si>
-  <si>
-    <t>2021_11_10_16_21_27_296</t>
-  </si>
-  <si>
-    <t>2021_11_10_16_21_27_315</t>
-  </si>
-  <si>
-    <t>2021_11_10_16_21_27_321</t>
-  </si>
-  <si>
-    <t>2021_11_10_16_21_27_327</t>
-  </si>
-  <si>
-    <t>2021_11_10_16_22_16_135</t>
-  </si>
-  <si>
-    <t>2021_11_10_16_22_16_480</t>
-  </si>
-  <si>
-    <t>2021_11_10_16_22_26_881</t>
-  </si>
-  <si>
-    <t>2021_11_10_16_22_27_239</t>
-  </si>
-  <si>
-    <t>2021_11_10_16_22_30_657</t>
-  </si>
-  <si>
-    <t>2021_11_10_16_22_30_735</t>
-  </si>
-  <si>
-    <t>2021_11_10_16_22_34_847</t>
-  </si>
-  <si>
-    <t>2021_11_10_16_22_34_932</t>
-  </si>
-  <si>
-    <t>2021_11_10_16_22_39_193</t>
-  </si>
-  <si>
-    <t>2021_11_10_16_22_39_435</t>
-  </si>
-  <si>
-    <t>2021_11_10_16_22_39_514</t>
-  </si>
-  <si>
-    <t>2021_11_10_16_22_39_539</t>
-  </si>
-  <si>
-    <t>2021_11_10_16_22_49_122</t>
-  </si>
-  <si>
-    <t>2021_11_10_16_22_53_343</t>
-  </si>
-  <si>
-    <t>2021_11_10_16_22_53_406</t>
-  </si>
-  <si>
-    <t>2021_11_10_16_22_58_916</t>
-  </si>
-  <si>
-    <t>2021_11_10_16_22_58_946</t>
-  </si>
-  <si>
-    <t>2021_11_10_16_22_58_969</t>
-  </si>
-  <si>
-    <t>2021_11_10_16_22_59_500</t>
-  </si>
-  <si>
-    <t>2021_11_10_16_23_04_380</t>
+    <t>U24SG</t>
+  </si>
+  <si>
+    <t>14:21:27:721</t>
+  </si>
+  <si>
+    <t>14:21:27:759</t>
+  </si>
+  <si>
+    <t>14:21:27:777</t>
+  </si>
+  <si>
+    <t>14:21:27:784</t>
+  </si>
+  <si>
+    <t>14:21:27:790</t>
+  </si>
+  <si>
+    <t>14:21:58:610</t>
+  </si>
+  <si>
+    <t>14:21:58:773</t>
+  </si>
+  <si>
+    <t>14:21:58:876</t>
+  </si>
+  <si>
+    <t>14:21:58:961</t>
+  </si>
+  <si>
+    <t>14:22:04:663</t>
+  </si>
+  <si>
+    <t>14:22:05:209</t>
+  </si>
+  <si>
+    <t>14:22:05:233</t>
+  </si>
+  <si>
+    <t>14:22:05:263</t>
+  </si>
+  <si>
+    <t>14:22:08:231</t>
+  </si>
+  <si>
+    <t>14:22:08:365</t>
+  </si>
+  <si>
+    <t>14:22:08:389</t>
+  </si>
+  <si>
+    <t>14:22:08:444</t>
+  </si>
+  <si>
+    <t>14:22:12:066</t>
+  </si>
+  <si>
+    <t>14:22:12:067</t>
+  </si>
+  <si>
+    <t>14:22:12:696</t>
+  </si>
+  <si>
+    <t>14:22:17:466</t>
+  </si>
+  <si>
+    <t>14:22:17:776</t>
+  </si>
+  <si>
+    <t>14:22:23:024</t>
+  </si>
+  <si>
+    <t>14:22:23:054</t>
+  </si>
+  <si>
+    <t>14:22:39:369</t>
+  </si>
+  <si>
+    <t>14:22:45:566</t>
+  </si>
+  <si>
+    <t>14:22:46:730</t>
+  </si>
+  <si>
+    <t>14:22:46:785</t>
+  </si>
+  <si>
+    <t>14:22:47:497</t>
+  </si>
+  <si>
+    <t>14:21:27</t>
+  </si>
+  <si>
+    <t>14:22:47</t>
+  </si>
+  <si>
+    <t>15:17:16:801</t>
+  </si>
+  <si>
+    <t>15:17:16:840</t>
+  </si>
+  <si>
+    <t>15:17:16:846</t>
+  </si>
+  <si>
+    <t>15:17:16:865</t>
+  </si>
+  <si>
+    <t>15:17:16:871</t>
+  </si>
+  <si>
+    <t>15:17:42:134</t>
+  </si>
+  <si>
+    <t>15:17:42:476</t>
+  </si>
+  <si>
+    <t>15:17:45:686</t>
+  </si>
+  <si>
+    <t>15:17:45:810</t>
+  </si>
+  <si>
+    <t>15:17:45:835</t>
+  </si>
+  <si>
+    <t>15:17:45:889</t>
+  </si>
+  <si>
+    <t>15:17:49:343</t>
+  </si>
+  <si>
+    <t>15:17:49:446</t>
+  </si>
+  <si>
+    <t>15:17:52:620</t>
+  </si>
+  <si>
+    <t>15:17:52:812</t>
+  </si>
+  <si>
+    <t>15:17:55:868</t>
+  </si>
+  <si>
+    <t>15:17:55:924</t>
+  </si>
+  <si>
+    <t>15:18:03:232</t>
+  </si>
+  <si>
+    <t>15:18:03:442</t>
+  </si>
+  <si>
+    <t>15:18:08:023</t>
+  </si>
+  <si>
+    <t>15:18:08:378</t>
+  </si>
+  <si>
+    <t>15:18:11:890</t>
+  </si>
+  <si>
+    <t>15:18:12:189</t>
+  </si>
+  <si>
+    <t>15:18:15:731</t>
+  </si>
+  <si>
+    <t>15:18:15:979</t>
+  </si>
+  <si>
+    <t>15:18:19:144</t>
+  </si>
+  <si>
+    <t>15:18:19:247</t>
+  </si>
+  <si>
+    <t>15:17:16</t>
+  </si>
+  <si>
+    <t>15:18:19</t>
+  </si>
+  <si>
+    <t>16:21:27:258</t>
+  </si>
+  <si>
+    <t>16:21:27:296</t>
+  </si>
+  <si>
+    <t>16:21:27:315</t>
+  </si>
+  <si>
+    <t>16:21:27:321</t>
+  </si>
+  <si>
+    <t>16:21:27:327</t>
+  </si>
+  <si>
+    <t>16:22:16:135</t>
+  </si>
+  <si>
+    <t>16:22:16:480</t>
+  </si>
+  <si>
+    <t>16:22:26:881</t>
+  </si>
+  <si>
+    <t>16:22:27:239</t>
+  </si>
+  <si>
+    <t>16:22:30:657</t>
+  </si>
+  <si>
+    <t>16:22:30:735</t>
+  </si>
+  <si>
+    <t>16:22:34:847</t>
+  </si>
+  <si>
+    <t>16:22:34:932</t>
+  </si>
+  <si>
+    <t>16:22:39:193</t>
+  </si>
+  <si>
+    <t>16:22:39:435</t>
+  </si>
+  <si>
+    <t>16:22:39:514</t>
+  </si>
+  <si>
+    <t>16:22:39:539</t>
+  </si>
+  <si>
+    <t>16:22:45:486</t>
+  </si>
+  <si>
+    <t>16:22:49:122</t>
+  </si>
+  <si>
+    <t>16:22:53:343</t>
+  </si>
+  <si>
+    <t>16:22:53:406</t>
+  </si>
+  <si>
+    <t>16:22:53:430</t>
+  </si>
+  <si>
+    <t>16:22:58:916</t>
+  </si>
+  <si>
+    <t>16:22:58:946</t>
+  </si>
+  <si>
+    <t>16:22:58:969</t>
+  </si>
+  <si>
+    <t>16:22:59:500</t>
+  </si>
+  <si>
+    <t>16:22:59:501</t>
+  </si>
+  <si>
+    <t>16:23:04:380</t>
+  </si>
+  <si>
+    <t>16:23:05:082</t>
+  </si>
+  <si>
+    <t>16:21:27</t>
+  </si>
+  <si>
+    <t>16:23:05</t>
   </si>
 </sst>
 </file>
@@ -3495,11 +3549,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="46" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -3814,22 +3869,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94767DD9-9FD2-4BD8-8359-DDEF06B57E56}">
-  <dimension ref="A1:J26"/>
+  <dimension ref="A1:J36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25:J28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="6.59765625" collapsed="true"/>
-    <col min="2" max="3" bestFit="true" customWidth="true" width="7.796875" collapsed="true"/>
-    <col min="4" max="5" bestFit="true" customWidth="true" width="12.33203125" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="15.0" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="11.265625" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="15.0" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="13.0" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="9.265625" collapsed="true"/>
+    <col min="1" max="1" width="6.59765625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="3" width="7.796875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="5" width="12.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="15" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="11.265625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="15" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="13" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="9.265625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.45">
@@ -3909,7 +3964,7 @@
         <v>236</v>
       </c>
       <c r="D3" s="1">
-        <f t="shared" ref="D3:D25" si="0">C3-B3</f>
+        <f t="shared" ref="D3:D30" si="0">C3-B3</f>
         <v>7.8703703703697503E-4</v>
       </c>
       <c r="E3">
@@ -3928,7 +3983,7 @@
         <v>1</v>
       </c>
       <c r="J3">
-        <f t="shared" ref="J3:J25" si="1">SUM(E3:I3)</f>
+        <f t="shared" ref="J3:J28" si="1">SUM(E3:I3)</f>
         <v>5</v>
       </c>
     </row>
@@ -4647,21 +4702,190 @@
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
+      <c r="A25" t="s">
+        <v>1048</v>
+      </c>
+      <c r="B25" s="1">
+        <v>0.50253472222222217</v>
+      </c>
+      <c r="C25" s="1">
+        <v>0.5033333333333333</v>
+      </c>
       <c r="D25" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>7.9861111111112493E-4</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25" s="4">
+        <v>1</v>
+      </c>
+      <c r="G25" s="4">
+        <v>1</v>
+      </c>
+      <c r="H25" s="4">
+        <v>1</v>
+      </c>
+      <c r="I25" s="4">
+        <v>1</v>
       </c>
       <c r="J25">
         <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A26" t="s">
+        <v>1036</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>1078</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>1079</v>
+      </c>
+      <c r="D26" s="1">
+        <f t="shared" si="0"/>
+        <v>9.2592592592588563E-4</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
+      <c r="G26">
+        <v>1</v>
+      </c>
+      <c r="H26">
+        <v>0</v>
+      </c>
+      <c r="I26">
+        <v>1</v>
+      </c>
+      <c r="J26">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A27" t="s">
+        <v>1041</v>
+      </c>
+      <c r="B27" t="s">
+        <v>1107</v>
+      </c>
+      <c r="C27" t="s">
+        <v>1108</v>
+      </c>
+      <c r="D27" s="1">
+        <f t="shared" si="0"/>
+        <v>7.2916666666666963E-4</v>
+      </c>
+      <c r="E27">
+        <v>1</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>1</v>
+      </c>
+      <c r="H27">
+        <v>1</v>
+      </c>
+      <c r="I27">
+        <v>1</v>
+      </c>
+      <c r="J27">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A28" t="s">
+        <v>1047</v>
+      </c>
+      <c r="B28" t="s">
+        <v>1138</v>
+      </c>
+      <c r="C28" t="s">
+        <v>1139</v>
+      </c>
+      <c r="D28" s="1">
+        <f t="shared" si="0"/>
+        <v>1.1342592592592515E-3</v>
+      </c>
+      <c r="E28">
+        <v>1</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>1</v>
+      </c>
+      <c r="H28">
+        <v>1</v>
+      </c>
+      <c r="I28">
+        <v>1</v>
+      </c>
+      <c r="J28">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="D29" s="1"/>
+      <c r="F29" s="4"/>
+      <c r="G29" s="4"/>
+      <c r="H29" s="4"/>
+      <c r="I29" s="4"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="D30" s="1"/>
+      <c r="F30" s="4"/>
+      <c r="G30" s="4"/>
+      <c r="H30" s="4"/>
+      <c r="I30" s="4"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="F31" s="4"/>
+      <c r="G31" s="4"/>
+      <c r="H31" s="4"/>
+      <c r="I31" s="4"/>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="F32" s="4"/>
+      <c r="G32" s="4"/>
+      <c r="H32" s="4"/>
+      <c r="I32" s="4"/>
+    </row>
+    <row r="33" spans="6:9" x14ac:dyDescent="0.45">
+      <c r="F33" s="4"/>
+      <c r="G33" s="4"/>
+      <c r="H33" s="4"/>
+      <c r="I33" s="4"/>
+    </row>
+    <row r="34" spans="6:9" x14ac:dyDescent="0.45">
+      <c r="F34" s="4"/>
+      <c r="G34" s="4"/>
+      <c r="H34" s="4"/>
+      <c r="I34" s="4"/>
+    </row>
+    <row r="35" spans="6:9" x14ac:dyDescent="0.45">
+      <c r="F35" s="4"/>
+      <c r="G35" s="4"/>
+      <c r="H35" s="4"/>
+      <c r="I35" s="4"/>
+    </row>
+    <row r="36" spans="6:9" x14ac:dyDescent="0.45">
+      <c r="F36" s="4"/>
+      <c r="G36" s="4"/>
+      <c r="H36" s="4"/>
+      <c r="I36" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4679,8 +4903,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="23.53125" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="19.53125" collapsed="true"/>
+    <col min="2" max="2" width="23.53125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="19.53125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.45">
@@ -5091,7 +5315,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="19.53125" collapsed="true"/>
+    <col min="3" max="3" width="19.53125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.45">
@@ -5190,8 +5414,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="23.53125" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="19.53125" collapsed="true"/>
+    <col min="2" max="2" width="23.53125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="19.53125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.45">
@@ -5857,7 +6081,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="19.53125" collapsed="true"/>
+    <col min="3" max="3" width="19.53125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.45">
@@ -5956,7 +6180,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="23.53125" collapsed="true"/>
+    <col min="2" max="2" width="23.53125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.45">
@@ -6486,7 +6710,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="19.53125" collapsed="true"/>
+    <col min="3" max="3" width="19.53125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.45">
@@ -6585,8 +6809,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="23.53125" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="19.53125" collapsed="true"/>
+    <col min="2" max="2" width="23.53125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="19.53125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.45">
@@ -7318,7 +7542,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="19.53125" collapsed="true"/>
+    <col min="3" max="3" width="19.53125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.45">
@@ -7417,8 +7641,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="23.53125" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="19.53125" collapsed="true"/>
+    <col min="2" max="2" width="23.53125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="19.53125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.45">
@@ -8458,7 +8682,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="19.53125" collapsed="true"/>
+    <col min="3" max="3" width="19.53125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.45">
@@ -8557,8 +8781,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="23.53125" collapsed="true"/>
-    <col min="3" max="4" bestFit="true" customWidth="true" width="19.53125" collapsed="true"/>
+    <col min="2" max="2" width="23.53125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="4" width="19.53125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.45">
@@ -9060,8 +9284,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="23.53125" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="19.53125" collapsed="true"/>
+    <col min="2" max="2" width="23.53125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="19.53125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.45">
@@ -9999,7 +10223,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="19.53125" collapsed="true"/>
+    <col min="3" max="3" width="19.53125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.45">
@@ -10098,9 +10322,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="23.53125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="11.33203125" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="19.53125" collapsed="true"/>
+    <col min="2" max="2" width="23.53125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="11.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="19.53125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.45">
@@ -10696,7 +10920,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="19.53125" collapsed="true"/>
+    <col min="3" max="3" width="19.53125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.45">
@@ -10795,8 +11019,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="23.53125" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="19.53125" collapsed="true"/>
+    <col min="2" max="2" width="23.53125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="19.53125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.45">
@@ -11394,7 +11618,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="19.53125" collapsed="true"/>
+    <col min="3" max="3" width="19.53125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.45">
@@ -11493,8 +11717,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="23.53125" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="19.53125" collapsed="true"/>
+    <col min="2" max="2" width="23.53125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="19.53125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.45">
@@ -12194,7 +12418,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="19.53125" collapsed="true"/>
+    <col min="3" max="3" width="19.53125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.45">
@@ -12293,8 +12517,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="23.53125" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="19.53125" collapsed="true"/>
+    <col min="2" max="2" width="23.53125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="19.53125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.45">
@@ -12958,7 +13182,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="19.53125" collapsed="true"/>
+    <col min="3" max="3" width="19.53125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.45">
@@ -13057,7 +13281,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="19.53125" collapsed="true"/>
+    <col min="3" max="3" width="19.53125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.45">
@@ -13156,7 +13380,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="23.53125" collapsed="true"/>
+    <col min="2" max="2" width="23.53125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.45">
@@ -13599,7 +13823,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="19.53125" collapsed="true"/>
+    <col min="3" max="3" width="19.53125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.45">
@@ -13698,8 +13922,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="23.53125" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="19.53125" collapsed="true"/>
+    <col min="2" max="2" width="23.53125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="19.53125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.45">
@@ -14771,7 +14995,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="19.0" collapsed="true"/>
+    <col min="3" max="3" width="19" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.45">
@@ -14868,7 +15092,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="17.59765625" collapsed="true"/>
+    <col min="3" max="3" width="17.59765625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.45">
@@ -15851,8 +16075,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="18.0" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="13.796875" collapsed="true"/>
+    <col min="3" max="3" width="18" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="13.796875" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.45">
@@ -15966,7 +16190,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="3" max="3" width="18" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.45">
@@ -16428,7 +16652,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="17.59765625" collapsed="true"/>
+    <col min="3" max="3" width="17.59765625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.45">
@@ -16542,7 +16766,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="3" max="3" width="18" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.45">
@@ -17414,8 +17638,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="23.53125" collapsed="true"/>
-    <col min="3" max="4" bestFit="true" customWidth="true" width="19.53125" collapsed="true"/>
+    <col min="2" max="2" width="23.53125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="4" width="19.53125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.45">
@@ -18795,8 +19019,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="18.0" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="13.796875" collapsed="true"/>
+    <col min="3" max="3" width="18" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="13.796875" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.45">
@@ -19488,7 +19712,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="13.796875" collapsed="true"/>
+    <col min="3" max="3" width="13.796875" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.45">
@@ -19602,7 +19826,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="3" max="3" width="18" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.45">
@@ -20404,7 +20628,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="17.59765625" collapsed="true"/>
+    <col min="3" max="3" width="17.59765625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.45">
@@ -20518,7 +20742,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="3" max="3" width="18" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.45">
@@ -21490,7 +21714,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="17.59765625" collapsed="true"/>
+    <col min="3" max="3" width="17.59765625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.45">
@@ -21604,7 +21828,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="3" max="3" width="18" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.45">
@@ -22576,7 +22800,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="13.796875" collapsed="true"/>
+    <col min="3" max="3" width="13.796875" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.45">
@@ -23350,7 +23574,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="19.53125" collapsed="true"/>
+    <col min="3" max="3" width="19.53125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.45">
@@ -23440,15 +23664,19 @@
 </file>
 
 <file path=xl/worksheets/sheet50.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3100-000000000000}">
+  <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:D6"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="3" max="3" width="18" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1"/>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -23459,7 +23687,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>88</v>
       </c>
@@ -23467,13 +23695,16 @@
         <v>1033</v>
       </c>
       <c r="C2" t="s">
-        <v>355</v>
+        <v>49</v>
       </c>
       <c r="D2" t="s">
-        <v>1036</v>
-      </c>
-    </row>
-    <row r="3">
+        <v>78</v>
+      </c>
+      <c r="E2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>24</v>
       </c>
@@ -23481,13 +23712,16 @@
         <v>1034</v>
       </c>
       <c r="C3" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="D3" t="s">
-        <v>1036</v>
-      </c>
-    </row>
-    <row r="4">
+        <v>77</v>
+      </c>
+      <c r="E3" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>159</v>
       </c>
@@ -23495,13 +23729,16 @@
         <v>1033</v>
       </c>
       <c r="C4" t="s">
-        <v>355</v>
+        <v>51</v>
       </c>
       <c r="D4" t="s">
-        <v>1036</v>
-      </c>
-    </row>
-    <row r="5">
+        <v>78</v>
+      </c>
+      <c r="E4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>1032</v>
       </c>
@@ -23509,13 +23746,16 @@
         <v>1034</v>
       </c>
       <c r="C5" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="D5" t="s">
-        <v>1036</v>
-      </c>
-    </row>
-    <row r="6">
+        <v>77</v>
+      </c>
+      <c r="E5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>82</v>
       </c>
@@ -23523,570 +23763,700 @@
         <v>1035</v>
       </c>
       <c r="C6" t="s">
-        <v>455</v>
+        <v>52</v>
       </c>
       <c r="D6" t="s">
-        <v>1036</v>
+        <v>78</v>
+      </c>
+      <c r="E6" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet51.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3200-000000000000}">
+  <dimension ref="A1:G38"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G2" sqref="E2:G2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="3" max="3" width="18" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1"/>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>1037</v>
+        <v>1001</v>
       </c>
       <c r="C2" t="s">
+        <v>1049</v>
+      </c>
+      <c r="D2" t="s">
         <v>355</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>1036</v>
       </c>
-    </row>
-    <row r="3">
+      <c r="F2" t="str">
+        <f>LEFT(C2,LEN(C2)-4)</f>
+        <v>14:21:27</v>
+      </c>
+      <c r="G2" t="str">
+        <f>LEFT(C38,LEN(C2)-4)</f>
+        <v>14:22:47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>1038</v>
+        <v>1001</v>
       </c>
       <c r="C3" t="s">
+        <v>1050</v>
+      </c>
+      <c r="D3" t="s">
         <v>454</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>1036</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>1039</v>
+        <v>1001</v>
       </c>
       <c r="C4" t="s">
+        <v>1051</v>
+      </c>
+      <c r="D4" t="s">
         <v>354</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>1036</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>1040</v>
+        <v>1001</v>
       </c>
       <c r="C5" t="s">
+        <v>1052</v>
+      </c>
+      <c r="D5" t="s">
         <v>455</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>1036</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>1041</v>
+        <v>1001</v>
       </c>
       <c r="C6" t="s">
+        <v>1053</v>
+      </c>
+      <c r="D6" t="s">
         <v>456</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>1036</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>1042</v>
+        <v>1001</v>
       </c>
       <c r="C7" t="s">
+        <v>1054</v>
+      </c>
+      <c r="D7" t="s">
         <v>39</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>1036</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>1042</v>
+        <v>1001</v>
       </c>
       <c r="C8" t="s">
+        <v>1054</v>
+      </c>
+      <c r="D8" t="s">
         <v>455</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>1036</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>1043</v>
+        <v>1001</v>
       </c>
       <c r="C9" t="s">
+        <v>1055</v>
+      </c>
+      <c r="D9" t="s">
         <v>39</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
         <v>1036</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>1043</v>
+        <v>1001</v>
       </c>
       <c r="C10" t="s">
+        <v>1055</v>
+      </c>
+      <c r="D10" t="s">
         <v>455</v>
       </c>
-      <c r="D10" t="s">
+      <c r="E10" t="s">
         <v>1036</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>1044</v>
+        <v>1001</v>
       </c>
       <c r="C11" t="s">
+        <v>1056</v>
+      </c>
+      <c r="D11" t="s">
         <v>39</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E11" t="s">
         <v>1036</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>1044</v>
+        <v>1001</v>
       </c>
       <c r="C12" t="s">
+        <v>1056</v>
+      </c>
+      <c r="D12" t="s">
         <v>455</v>
       </c>
-      <c r="D12" t="s">
+      <c r="E12" t="s">
         <v>1036</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>1045</v>
+        <v>1001</v>
       </c>
       <c r="C13" t="s">
+        <v>1057</v>
+      </c>
+      <c r="D13" t="s">
         <v>39</v>
       </c>
-      <c r="D13" t="s">
+      <c r="E13" t="s">
         <v>1036</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>1046</v>
+        <v>1001</v>
       </c>
       <c r="C14" t="s">
+        <v>1058</v>
+      </c>
+      <c r="D14" t="s">
         <v>40</v>
       </c>
-      <c r="D14" t="s">
+      <c r="E14" t="s">
         <v>1036</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>1046</v>
+        <v>1001</v>
       </c>
       <c r="C15" t="s">
+        <v>1058</v>
+      </c>
+      <c r="D15" t="s">
         <v>454</v>
       </c>
-      <c r="D15" t="s">
+      <c r="E15" t="s">
         <v>1036</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>1047</v>
+        <v>1001</v>
       </c>
       <c r="C16" t="s">
+        <v>1059</v>
+      </c>
+      <c r="D16" t="s">
         <v>40</v>
       </c>
-      <c r="D16" t="s">
+      <c r="E16" t="s">
         <v>1036</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>1048</v>
+        <v>1001</v>
       </c>
       <c r="C17" t="s">
+        <v>1060</v>
+      </c>
+      <c r="D17" t="s">
         <v>454</v>
       </c>
-      <c r="D17" t="s">
+      <c r="E17" t="s">
         <v>1036</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>19</v>
       </c>
       <c r="B18" t="s">
-        <v>1049</v>
+        <v>1001</v>
       </c>
       <c r="C18" t="s">
+        <v>1061</v>
+      </c>
+      <c r="D18" t="s">
         <v>40</v>
       </c>
-      <c r="D18" t="s">
+      <c r="E18" t="s">
         <v>1036</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>20</v>
       </c>
       <c r="B19" t="s">
-        <v>1050</v>
+        <v>1001</v>
       </c>
       <c r="C19" t="s">
+        <v>1062</v>
+      </c>
+      <c r="D19" t="s">
         <v>42</v>
       </c>
-      <c r="D19" t="s">
+      <c r="E19" t="s">
         <v>1036</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
         <v>21</v>
       </c>
       <c r="B20" t="s">
-        <v>1050</v>
+        <v>1001</v>
       </c>
       <c r="C20" t="s">
+        <v>1062</v>
+      </c>
+      <c r="D20" t="s">
         <v>456</v>
       </c>
-      <c r="D20" t="s">
+      <c r="E20" t="s">
         <v>1036</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
         <v>22</v>
       </c>
       <c r="B21" t="s">
-        <v>1051</v>
+        <v>1001</v>
       </c>
       <c r="C21" t="s">
+        <v>1063</v>
+      </c>
+      <c r="D21" t="s">
         <v>42</v>
       </c>
-      <c r="D21" t="s">
+      <c r="E21" t="s">
         <v>1036</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>1052</v>
+        <v>1001</v>
       </c>
       <c r="C22" t="s">
+        <v>1064</v>
+      </c>
+      <c r="D22" t="s">
         <v>456</v>
       </c>
-      <c r="D22" t="s">
+      <c r="E22" t="s">
         <v>1036</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
         <v>24</v>
       </c>
       <c r="B23" t="s">
-        <v>1034</v>
+        <v>1001</v>
       </c>
       <c r="C23" t="s">
+        <v>1065</v>
+      </c>
+      <c r="D23" t="s">
         <v>42</v>
       </c>
-      <c r="D23" t="s">
+      <c r="E23" t="s">
         <v>1036</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
         <v>25</v>
       </c>
       <c r="B24" t="s">
-        <v>1053</v>
+        <v>1001</v>
       </c>
       <c r="C24" t="s">
+        <v>1066</v>
+      </c>
+      <c r="D24" t="s">
         <v>41</v>
       </c>
-      <c r="D24" t="s">
+      <c r="E24" t="s">
         <v>1036</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
         <v>26</v>
       </c>
       <c r="B25" t="s">
-        <v>1054</v>
+        <v>1001</v>
       </c>
       <c r="C25" t="s">
+        <v>1067</v>
+      </c>
+      <c r="D25" t="s">
         <v>355</v>
       </c>
-      <c r="D25" t="s">
+      <c r="E25" t="s">
         <v>1036</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
         <v>27</v>
       </c>
       <c r="B26" t="s">
-        <v>1055</v>
+        <v>1001</v>
       </c>
       <c r="C26" t="s">
+        <v>1068</v>
+      </c>
+      <c r="D26" t="s">
         <v>41</v>
       </c>
-      <c r="D26" t="s">
+      <c r="E26" t="s">
         <v>1036</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
         <v>28</v>
       </c>
       <c r="B27" t="s">
-        <v>1056</v>
+        <v>1001</v>
       </c>
       <c r="C27" t="s">
+        <v>1069</v>
+      </c>
+      <c r="D27" t="s">
         <v>43</v>
       </c>
-      <c r="D27" t="s">
+      <c r="E27" t="s">
         <v>1036</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
         <v>29</v>
       </c>
       <c r="B28" t="s">
-        <v>1056</v>
+        <v>1001</v>
       </c>
       <c r="C28" t="s">
+        <v>1069</v>
+      </c>
+      <c r="D28" t="s">
         <v>354</v>
       </c>
-      <c r="D28" t="s">
+      <c r="E28" t="s">
         <v>1036</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
         <v>79</v>
       </c>
       <c r="B29" t="s">
-        <v>1057</v>
+        <v>1001</v>
       </c>
       <c r="C29" t="s">
+        <v>1070</v>
+      </c>
+      <c r="D29" t="s">
         <v>43</v>
       </c>
-      <c r="D29" t="s">
+      <c r="E29" t="s">
         <v>1036</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
         <v>80</v>
       </c>
       <c r="B30" t="s">
-        <v>1058</v>
+        <v>1001</v>
       </c>
       <c r="C30" t="s">
+        <v>1071</v>
+      </c>
+      <c r="D30" t="s">
         <v>455</v>
       </c>
-      <c r="D30" t="s">
+      <c r="E30" t="s">
         <v>1036</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
         <v>81</v>
       </c>
       <c r="B31" t="s">
-        <v>1035</v>
+        <v>1001</v>
       </c>
       <c r="C31" t="s">
+        <v>1072</v>
+      </c>
+      <c r="D31" t="s">
         <v>39</v>
       </c>
-      <c r="D31" t="s">
+      <c r="E31" t="s">
         <v>1036</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
         <v>82</v>
       </c>
       <c r="B32" t="s">
-        <v>1035</v>
+        <v>1001</v>
       </c>
       <c r="C32" t="s">
+        <v>1072</v>
+      </c>
+      <c r="D32" t="s">
         <v>455</v>
       </c>
-      <c r="D32" t="s">
+      <c r="E32" t="s">
         <v>1036</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
         <v>83</v>
       </c>
       <c r="B33" t="s">
-        <v>1059</v>
+        <v>1001</v>
       </c>
       <c r="C33" t="s">
+        <v>1073</v>
+      </c>
+      <c r="D33" t="s">
         <v>355</v>
       </c>
-      <c r="D33" t="s">
+      <c r="E33" t="s">
         <v>1036</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
         <v>84</v>
       </c>
       <c r="B34" t="s">
-        <v>1060</v>
+        <v>1001</v>
       </c>
       <c r="C34" t="s">
+        <v>1074</v>
+      </c>
+      <c r="D34" t="s">
         <v>354</v>
       </c>
-      <c r="D34" t="s">
+      <c r="E34" t="s">
         <v>1036</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
         <v>85</v>
       </c>
       <c r="B35" t="s">
-        <v>1061</v>
+        <v>1001</v>
       </c>
       <c r="C35" t="s">
+        <v>1075</v>
+      </c>
+      <c r="D35" t="s">
         <v>41</v>
       </c>
-      <c r="D35" t="s">
+      <c r="E35" t="s">
         <v>1036</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A36" t="s">
         <v>86</v>
       </c>
       <c r="B36" t="s">
-        <v>1061</v>
+        <v>1001</v>
       </c>
       <c r="C36" t="s">
+        <v>1075</v>
+      </c>
+      <c r="D36" t="s">
         <v>355</v>
       </c>
-      <c r="D36" t="s">
+      <c r="E36" t="s">
         <v>1036</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A37" t="s">
         <v>87</v>
       </c>
       <c r="B37" t="s">
-        <v>1062</v>
+        <v>1001</v>
       </c>
       <c r="C37" t="s">
+        <v>1076</v>
+      </c>
+      <c r="D37" t="s">
         <v>41</v>
       </c>
-      <c r="D37" t="s">
+      <c r="E37" t="s">
         <v>1036</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A38" t="s">
         <v>88</v>
       </c>
       <c r="B38" t="s">
-        <v>1033</v>
+        <v>1001</v>
       </c>
       <c r="C38" t="s">
+        <v>1077</v>
+      </c>
+      <c r="D38" t="s">
         <v>355</v>
       </c>
-      <c r="D38" t="s">
+      <c r="E38" t="s">
         <v>1036</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet52.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3300-000000000000}">
+  <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:D6"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="3" max="3" width="13.796875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1"/>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -24097,634 +24467,776 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>85</v>
       </c>
       <c r="B2" t="s">
-        <v>1063</v>
+        <v>1037</v>
       </c>
       <c r="C2" t="s">
-        <v>355</v>
+        <v>49</v>
       </c>
       <c r="D2" t="s">
-        <v>1067</v>
-      </c>
-    </row>
-    <row r="3">
+        <v>78</v>
+      </c>
+      <c r="E2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>82</v>
       </c>
       <c r="B3" t="s">
-        <v>1064</v>
+        <v>1038</v>
       </c>
       <c r="C3" t="s">
-        <v>456</v>
+        <v>242</v>
       </c>
       <c r="D3" t="s">
-        <v>1067</v>
-      </c>
-    </row>
-    <row r="4">
+        <v>78</v>
+      </c>
+      <c r="E3" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>88</v>
       </c>
       <c r="B4" t="s">
-        <v>1065</v>
+        <v>1039</v>
       </c>
       <c r="C4" t="s">
-        <v>354</v>
+        <v>51</v>
       </c>
       <c r="D4" t="s">
-        <v>1067</v>
-      </c>
-    </row>
-    <row r="5">
+        <v>78</v>
+      </c>
+      <c r="E4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>142</v>
       </c>
       <c r="B5" t="s">
-        <v>1064</v>
+        <v>1038</v>
       </c>
       <c r="C5" t="s">
-        <v>456</v>
+        <v>50</v>
       </c>
       <c r="D5" t="s">
-        <v>1067</v>
-      </c>
-    </row>
-    <row r="6">
+        <v>78</v>
+      </c>
+      <c r="E5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>27</v>
       </c>
       <c r="B6" t="s">
-        <v>1066</v>
+        <v>1040</v>
       </c>
       <c r="C6" t="s">
-        <v>455</v>
+        <v>52</v>
       </c>
       <c r="D6" t="s">
-        <v>1067</v>
+        <v>78</v>
+      </c>
+      <c r="E6" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet53.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3400-000000000000}">
+  <dimension ref="A1:G38"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="G2" sqref="E2:G2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="4" max="4" width="18" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1"/>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>1068</v>
+        <v>1001</v>
       </c>
       <c r="C2" t="s">
+        <v>1080</v>
+      </c>
+      <c r="D2" t="s">
         <v>355</v>
       </c>
-      <c r="D2" t="s">
-        <v>1067</v>
-      </c>
-    </row>
-    <row r="3">
+      <c r="E2" t="s">
+        <v>1041</v>
+      </c>
+      <c r="F2" t="str">
+        <f>LEFT(C2,LEN(C2)-4)</f>
+        <v>15:17:16</v>
+      </c>
+      <c r="G2" t="str">
+        <f>LEFT(C38,LEN(C2)-4)</f>
+        <v>15:18:19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>1069</v>
+        <v>1001</v>
       </c>
       <c r="C3" t="s">
+        <v>1081</v>
+      </c>
+      <c r="D3" t="s">
         <v>454</v>
       </c>
-      <c r="D3" t="s">
-        <v>1067</v>
-      </c>
-    </row>
-    <row r="4">
+      <c r="E3" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>1070</v>
+        <v>1001</v>
       </c>
       <c r="C4" t="s">
+        <v>1082</v>
+      </c>
+      <c r="D4" t="s">
         <v>354</v>
       </c>
-      <c r="D4" t="s">
-        <v>1067</v>
-      </c>
-    </row>
-    <row r="5">
+      <c r="E4" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>1071</v>
+        <v>1001</v>
       </c>
       <c r="C5" t="s">
+        <v>1083</v>
+      </c>
+      <c r="D5" t="s">
         <v>455</v>
       </c>
-      <c r="D5" t="s">
-        <v>1067</v>
-      </c>
-    </row>
-    <row r="6">
+      <c r="E5" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>1072</v>
+        <v>1001</v>
       </c>
       <c r="C6" t="s">
+        <v>1084</v>
+      </c>
+      <c r="D6" t="s">
         <v>456</v>
       </c>
-      <c r="D6" t="s">
-        <v>1067</v>
-      </c>
-    </row>
-    <row r="7">
+      <c r="E6" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>1073</v>
+        <v>1001</v>
       </c>
       <c r="C7" t="s">
+        <v>1085</v>
+      </c>
+      <c r="D7" t="s">
         <v>39</v>
       </c>
-      <c r="D7" t="s">
-        <v>1067</v>
-      </c>
-    </row>
-    <row r="8">
+      <c r="E7" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>1073</v>
+        <v>1001</v>
       </c>
       <c r="C8" t="s">
+        <v>1085</v>
+      </c>
+      <c r="D8" t="s">
         <v>455</v>
       </c>
-      <c r="D8" t="s">
-        <v>1067</v>
-      </c>
-    </row>
-    <row r="9">
+      <c r="E8" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>1074</v>
+        <v>1001</v>
       </c>
       <c r="C9" t="s">
+        <v>1086</v>
+      </c>
+      <c r="D9" t="s">
         <v>39</v>
       </c>
-      <c r="D9" t="s">
-        <v>1067</v>
-      </c>
-    </row>
-    <row r="10">
+      <c r="E9" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>1075</v>
+        <v>1001</v>
       </c>
       <c r="C10" t="s">
+        <v>1087</v>
+      </c>
+      <c r="D10" t="s">
         <v>40</v>
       </c>
-      <c r="D10" t="s">
-        <v>1067</v>
-      </c>
-    </row>
-    <row r="11">
+      <c r="E10" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>1075</v>
+        <v>1001</v>
       </c>
       <c r="C11" t="s">
+        <v>1087</v>
+      </c>
+      <c r="D11" t="s">
         <v>454</v>
       </c>
-      <c r="D11" t="s">
-        <v>1067</v>
-      </c>
-    </row>
-    <row r="12">
+      <c r="E11" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>1076</v>
+        <v>1001</v>
       </c>
       <c r="C12" t="s">
+        <v>1088</v>
+      </c>
+      <c r="D12" t="s">
         <v>40</v>
       </c>
-      <c r="D12" t="s">
-        <v>1067</v>
-      </c>
-    </row>
-    <row r="13">
+      <c r="E12" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>1077</v>
+        <v>1001</v>
       </c>
       <c r="C13" t="s">
+        <v>1089</v>
+      </c>
+      <c r="D13" t="s">
         <v>454</v>
       </c>
-      <c r="D13" t="s">
-        <v>1067</v>
-      </c>
-    </row>
-    <row r="14">
+      <c r="E13" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>1078</v>
+        <v>1001</v>
       </c>
       <c r="C14" t="s">
+        <v>1090</v>
+      </c>
+      <c r="D14" t="s">
         <v>40</v>
       </c>
-      <c r="D14" t="s">
-        <v>1067</v>
-      </c>
-    </row>
-    <row r="15">
+      <c r="E14" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>1079</v>
+        <v>1001</v>
       </c>
       <c r="C15" t="s">
+        <v>1091</v>
+      </c>
+      <c r="D15" t="s">
         <v>42</v>
       </c>
-      <c r="D15" t="s">
-        <v>1067</v>
-      </c>
-    </row>
-    <row r="16">
+      <c r="E15" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>1079</v>
+        <v>1001</v>
       </c>
       <c r="C16" t="s">
+        <v>1091</v>
+      </c>
+      <c r="D16" t="s">
         <v>456</v>
       </c>
-      <c r="D16" t="s">
-        <v>1067</v>
-      </c>
-    </row>
-    <row r="17">
+      <c r="E16" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>1080</v>
+        <v>1001</v>
       </c>
       <c r="C17" t="s">
+        <v>1092</v>
+      </c>
+      <c r="D17" t="s">
         <v>42</v>
       </c>
-      <c r="D17" t="s">
-        <v>1067</v>
-      </c>
-    </row>
-    <row r="18">
+      <c r="E17" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>19</v>
       </c>
       <c r="B18" t="s">
-        <v>1081</v>
+        <v>1001</v>
       </c>
       <c r="C18" t="s">
+        <v>1093</v>
+      </c>
+      <c r="D18" t="s">
         <v>41</v>
       </c>
-      <c r="D18" t="s">
-        <v>1067</v>
-      </c>
-    </row>
-    <row r="19">
+      <c r="E18" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>20</v>
       </c>
       <c r="B19" t="s">
-        <v>1081</v>
+        <v>1001</v>
       </c>
       <c r="C19" t="s">
+        <v>1093</v>
+      </c>
+      <c r="D19" t="s">
         <v>355</v>
       </c>
-      <c r="D19" t="s">
-        <v>1067</v>
-      </c>
-    </row>
-    <row r="20">
+      <c r="E19" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
         <v>21</v>
       </c>
       <c r="B20" t="s">
-        <v>1082</v>
+        <v>1001</v>
       </c>
       <c r="C20" t="s">
+        <v>1094</v>
+      </c>
+      <c r="D20" t="s">
         <v>41</v>
       </c>
-      <c r="D20" t="s">
-        <v>1067</v>
-      </c>
-    </row>
-    <row r="21">
+      <c r="E20" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
         <v>22</v>
       </c>
       <c r="B21" t="s">
-        <v>1083</v>
+        <v>1001</v>
       </c>
       <c r="C21" t="s">
+        <v>1095</v>
+      </c>
+      <c r="D21" t="s">
         <v>43</v>
       </c>
-      <c r="D21" t="s">
-        <v>1067</v>
-      </c>
-    </row>
-    <row r="22">
+      <c r="E21" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>1083</v>
+        <v>1001</v>
       </c>
       <c r="C22" t="s">
+        <v>1095</v>
+      </c>
+      <c r="D22" t="s">
         <v>354</v>
       </c>
-      <c r="D22" t="s">
-        <v>1067</v>
-      </c>
-    </row>
-    <row r="23">
+      <c r="E22" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
         <v>24</v>
       </c>
       <c r="B23" t="s">
-        <v>1084</v>
+        <v>1001</v>
       </c>
       <c r="C23" t="s">
+        <v>1096</v>
+      </c>
+      <c r="D23" t="s">
         <v>43</v>
       </c>
-      <c r="D23" t="s">
-        <v>1067</v>
-      </c>
-    </row>
-    <row r="24">
+      <c r="E23" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
         <v>25</v>
       </c>
       <c r="B24" t="s">
-        <v>1085</v>
+        <v>1001</v>
       </c>
       <c r="C24" t="s">
+        <v>1097</v>
+      </c>
+      <c r="D24" t="s">
         <v>455</v>
       </c>
-      <c r="D24" t="s">
-        <v>1067</v>
-      </c>
-    </row>
-    <row r="25">
+      <c r="E24" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
         <v>26</v>
       </c>
       <c r="B25" t="s">
-        <v>1066</v>
+        <v>1001</v>
       </c>
       <c r="C25" t="s">
+        <v>1098</v>
+      </c>
+      <c r="D25" t="s">
         <v>39</v>
       </c>
-      <c r="D25" t="s">
-        <v>1067</v>
-      </c>
-    </row>
-    <row r="26">
+      <c r="E25" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
         <v>27</v>
       </c>
       <c r="B26" t="s">
-        <v>1066</v>
+        <v>1001</v>
       </c>
       <c r="C26" t="s">
+        <v>1098</v>
+      </c>
+      <c r="D26" t="s">
         <v>455</v>
       </c>
-      <c r="D26" t="s">
-        <v>1067</v>
-      </c>
-    </row>
-    <row r="27">
+      <c r="E26" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
         <v>28</v>
       </c>
       <c r="B27" t="s">
-        <v>1086</v>
+        <v>1001</v>
       </c>
       <c r="C27" t="s">
+        <v>1099</v>
+      </c>
+      <c r="D27" t="s">
         <v>454</v>
       </c>
-      <c r="D27" t="s">
-        <v>1067</v>
-      </c>
-    </row>
-    <row r="28">
+      <c r="E27" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
         <v>29</v>
       </c>
       <c r="B28" t="s">
-        <v>1087</v>
+        <v>1001</v>
       </c>
       <c r="C28" t="s">
+        <v>1100</v>
+      </c>
+      <c r="D28" t="s">
         <v>40</v>
       </c>
-      <c r="D28" t="s">
-        <v>1067</v>
-      </c>
-    </row>
-    <row r="29">
+      <c r="E28" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
         <v>79</v>
       </c>
       <c r="B29" t="s">
-        <v>1087</v>
+        <v>1001</v>
       </c>
       <c r="C29" t="s">
+        <v>1100</v>
+      </c>
+      <c r="D29" t="s">
         <v>454</v>
       </c>
-      <c r="D29" t="s">
-        <v>1067</v>
-      </c>
-    </row>
-    <row r="30">
+      <c r="E29" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
         <v>80</v>
       </c>
       <c r="B30" t="s">
-        <v>1088</v>
+        <v>1001</v>
       </c>
       <c r="C30" t="s">
+        <v>1101</v>
+      </c>
+      <c r="D30" t="s">
         <v>456</v>
       </c>
-      <c r="D30" t="s">
-        <v>1067</v>
-      </c>
-    </row>
-    <row r="31">
+      <c r="E30" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
         <v>81</v>
       </c>
       <c r="B31" t="s">
-        <v>1064</v>
+        <v>1001</v>
       </c>
       <c r="C31" t="s">
+        <v>1102</v>
+      </c>
+      <c r="D31" t="s">
         <v>42</v>
       </c>
-      <c r="D31" t="s">
-        <v>1067</v>
-      </c>
-    </row>
-    <row r="32">
+      <c r="E31" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
         <v>82</v>
       </c>
       <c r="B32" t="s">
-        <v>1064</v>
+        <v>1001</v>
       </c>
       <c r="C32" t="s">
+        <v>1102</v>
+      </c>
+      <c r="D32" t="s">
         <v>456</v>
       </c>
-      <c r="D32" t="s">
-        <v>1067</v>
-      </c>
-    </row>
-    <row r="33">
+      <c r="E32" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
         <v>83</v>
       </c>
       <c r="B33" t="s">
-        <v>1089</v>
+        <v>1001</v>
       </c>
       <c r="C33" t="s">
+        <v>1103</v>
+      </c>
+      <c r="D33" t="s">
         <v>355</v>
       </c>
-      <c r="D33" t="s">
-        <v>1067</v>
-      </c>
-    </row>
-    <row r="34">
+      <c r="E33" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
         <v>84</v>
       </c>
       <c r="B34" t="s">
-        <v>1063</v>
+        <v>1001</v>
       </c>
       <c r="C34" t="s">
+        <v>1104</v>
+      </c>
+      <c r="D34" t="s">
         <v>41</v>
       </c>
-      <c r="D34" t="s">
-        <v>1067</v>
-      </c>
-    </row>
-    <row r="35">
+      <c r="E34" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
         <v>85</v>
       </c>
       <c r="B35" t="s">
-        <v>1063</v>
+        <v>1001</v>
       </c>
       <c r="C35" t="s">
+        <v>1104</v>
+      </c>
+      <c r="D35" t="s">
         <v>355</v>
       </c>
-      <c r="D35" t="s">
-        <v>1067</v>
-      </c>
-    </row>
-    <row r="36">
+      <c r="E35" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A36" t="s">
         <v>86</v>
       </c>
       <c r="B36" t="s">
-        <v>1090</v>
+        <v>1001</v>
       </c>
       <c r="C36" t="s">
+        <v>1105</v>
+      </c>
+      <c r="D36" t="s">
         <v>354</v>
       </c>
-      <c r="D36" t="s">
-        <v>1067</v>
-      </c>
-    </row>
-    <row r="37">
+      <c r="E36" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A37" t="s">
         <v>87</v>
       </c>
       <c r="B37" t="s">
-        <v>1065</v>
+        <v>1001</v>
       </c>
       <c r="C37" t="s">
+        <v>1106</v>
+      </c>
+      <c r="D37" t="s">
         <v>43</v>
       </c>
-      <c r="D37" t="s">
-        <v>1067</v>
-      </c>
-    </row>
-    <row r="38">
+      <c r="E37" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A38" t="s">
         <v>88</v>
       </c>
       <c r="B38" t="s">
-        <v>1065</v>
+        <v>1001</v>
       </c>
       <c r="C38" t="s">
+        <v>1106</v>
+      </c>
+      <c r="D38" t="s">
         <v>354</v>
       </c>
-      <c r="D38" t="s">
-        <v>1067</v>
+      <c r="E38" t="s">
+        <v>1041</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet54.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3500-000000000000}">
+  <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D6" sqref="D2:D6"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="3" max="3" width="13.796875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1"/>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -24735,593 +25247,724 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>86</v>
       </c>
       <c r="B2" t="s">
-        <v>1092</v>
+        <v>1043</v>
       </c>
       <c r="C2" t="s">
-        <v>355</v>
+        <v>49</v>
       </c>
       <c r="D2" t="s">
-        <v>1096</v>
-      </c>
-    </row>
-    <row r="3">
+        <v>78</v>
+      </c>
+      <c r="E2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>83</v>
       </c>
       <c r="B3" t="s">
-        <v>1093</v>
+        <v>1044</v>
       </c>
       <c r="C3" t="s">
-        <v>454</v>
+        <v>242</v>
       </c>
       <c r="D3" t="s">
-        <v>1096</v>
-      </c>
-    </row>
-    <row r="4">
+        <v>78</v>
+      </c>
+      <c r="E3" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>1091</v>
+        <v>1042</v>
       </c>
       <c r="B4" t="s">
-        <v>1092</v>
+        <v>1043</v>
       </c>
       <c r="C4" t="s">
-        <v>355</v>
+        <v>51</v>
       </c>
       <c r="D4" t="s">
-        <v>1096</v>
-      </c>
-    </row>
-    <row r="5">
+        <v>78</v>
+      </c>
+      <c r="E4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>29</v>
       </c>
       <c r="B5" t="s">
-        <v>1094</v>
+        <v>1045</v>
       </c>
       <c r="C5" t="s">
-        <v>456</v>
+        <v>50</v>
       </c>
       <c r="D5" t="s">
-        <v>1096</v>
-      </c>
-    </row>
-    <row r="6">
+        <v>78</v>
+      </c>
+      <c r="E5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>25</v>
       </c>
       <c r="B6" t="s">
-        <v>1095</v>
+        <v>1046</v>
       </c>
       <c r="C6" t="s">
-        <v>455</v>
+        <v>52</v>
       </c>
       <c r="D6" t="s">
-        <v>1096</v>
+        <v>78</v>
+      </c>
+      <c r="E6" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet55.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3600-000000000000}">
+  <dimension ref="A1:G37"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E3" sqref="E3:G3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1">
-      <c r="A1"/>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>1097</v>
+        <v>1001</v>
       </c>
       <c r="C2" t="s">
-        <v>355</v>
+        <v>1109</v>
       </c>
       <c r="D2" t="s">
-        <v>1096</v>
-      </c>
-    </row>
-    <row r="3">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>1098</v>
+        <v>1001</v>
       </c>
       <c r="C3" t="s">
-        <v>454</v>
+        <v>1110</v>
       </c>
       <c r="D3" t="s">
-        <v>1096</v>
-      </c>
-    </row>
-    <row r="4">
+        <v>355</v>
+      </c>
+      <c r="E3" t="s">
+        <v>1047</v>
+      </c>
+      <c r="F3" t="str">
+        <f>LEFT(C2,LEN(C2)-4)</f>
+        <v>16:21:27</v>
+      </c>
+      <c r="G3" t="str">
+        <f>LEFT(C36,LEN(C2)-4)</f>
+        <v>16:23:05</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>1099</v>
+        <v>1001</v>
       </c>
       <c r="C4" t="s">
-        <v>354</v>
+        <v>1111</v>
       </c>
       <c r="D4" t="s">
-        <v>1096</v>
-      </c>
-    </row>
-    <row r="5">
+        <v>454</v>
+      </c>
+      <c r="E4" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>1100</v>
+        <v>1001</v>
       </c>
       <c r="C5" t="s">
-        <v>455</v>
+        <v>1112</v>
       </c>
       <c r="D5" t="s">
-        <v>1096</v>
-      </c>
-    </row>
-    <row r="6">
+        <v>354</v>
+      </c>
+      <c r="E5" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>1101</v>
+        <v>1001</v>
       </c>
       <c r="C6" t="s">
-        <v>456</v>
+        <v>1113</v>
       </c>
       <c r="D6" t="s">
-        <v>1096</v>
-      </c>
-    </row>
-    <row r="7">
+        <v>455</v>
+      </c>
+      <c r="E6" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>1102</v>
+        <v>1001</v>
       </c>
       <c r="C7" t="s">
-        <v>39</v>
+        <v>1114</v>
       </c>
       <c r="D7" t="s">
-        <v>1096</v>
-      </c>
-    </row>
-    <row r="8">
+        <v>456</v>
+      </c>
+      <c r="E7" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>1102</v>
+        <v>1001</v>
       </c>
       <c r="C8" t="s">
-        <v>455</v>
+        <v>1114</v>
       </c>
       <c r="D8" t="s">
-        <v>1096</v>
-      </c>
-    </row>
-    <row r="9">
+        <v>39</v>
+      </c>
+      <c r="E8" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>1103</v>
+        <v>1001</v>
       </c>
       <c r="C9" t="s">
-        <v>39</v>
+        <v>1115</v>
       </c>
       <c r="D9" t="s">
-        <v>1096</v>
-      </c>
-    </row>
-    <row r="10">
+        <v>455</v>
+      </c>
+      <c r="E9" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>1104</v>
+        <v>1001</v>
       </c>
       <c r="C10" t="s">
-        <v>40</v>
+        <v>1116</v>
       </c>
       <c r="D10" t="s">
-        <v>1096</v>
-      </c>
-    </row>
-    <row r="11">
+        <v>39</v>
+      </c>
+      <c r="E10" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>1104</v>
+        <v>1001</v>
       </c>
       <c r="C11" t="s">
-        <v>454</v>
+        <v>1116</v>
       </c>
       <c r="D11" t="s">
-        <v>1096</v>
-      </c>
-    </row>
-    <row r="12">
+        <v>40</v>
+      </c>
+      <c r="E11" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>1105</v>
+        <v>1001</v>
       </c>
       <c r="C12" t="s">
-        <v>40</v>
+        <v>1117</v>
       </c>
       <c r="D12" t="s">
-        <v>1096</v>
-      </c>
-    </row>
-    <row r="13">
+        <v>454</v>
+      </c>
+      <c r="E12" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>1106</v>
+        <v>1001</v>
       </c>
       <c r="C13" t="s">
-        <v>41</v>
+        <v>1118</v>
       </c>
       <c r="D13" t="s">
-        <v>1096</v>
-      </c>
-    </row>
-    <row r="14">
+        <v>40</v>
+      </c>
+      <c r="E13" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>1106</v>
+        <v>1001</v>
       </c>
       <c r="C14" t="s">
-        <v>355</v>
+        <v>1118</v>
       </c>
       <c r="D14" t="s">
-        <v>1096</v>
-      </c>
-    </row>
-    <row r="15">
+        <v>41</v>
+      </c>
+      <c r="E14" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>1107</v>
+        <v>1001</v>
       </c>
       <c r="C15" t="s">
-        <v>41</v>
+        <v>1119</v>
       </c>
       <c r="D15" t="s">
-        <v>1096</v>
-      </c>
-    </row>
-    <row r="16">
+        <v>355</v>
+      </c>
+      <c r="E15" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>1108</v>
+        <v>1001</v>
       </c>
       <c r="C16" t="s">
-        <v>43</v>
+        <v>1120</v>
       </c>
       <c r="D16" t="s">
-        <v>1096</v>
-      </c>
-    </row>
-    <row r="17">
+        <v>41</v>
+      </c>
+      <c r="E16" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>1108</v>
+        <v>1001</v>
       </c>
       <c r="C17" t="s">
-        <v>354</v>
+        <v>1120</v>
       </c>
       <c r="D17" t="s">
-        <v>1096</v>
-      </c>
-    </row>
-    <row r="18">
+        <v>43</v>
+      </c>
+      <c r="E17" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>19</v>
       </c>
       <c r="B18" t="s">
-        <v>1109</v>
+        <v>1001</v>
       </c>
       <c r="C18" t="s">
-        <v>43</v>
+        <v>1121</v>
       </c>
       <c r="D18" t="s">
-        <v>1096</v>
-      </c>
-    </row>
-    <row r="19">
+        <v>354</v>
+      </c>
+      <c r="E18" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>20</v>
       </c>
       <c r="B19" t="s">
-        <v>1110</v>
+        <v>1001</v>
       </c>
       <c r="C19" t="s">
-        <v>42</v>
+        <v>1122</v>
       </c>
       <c r="D19" t="s">
-        <v>1096</v>
-      </c>
-    </row>
-    <row r="20">
+        <v>43</v>
+      </c>
+      <c r="E19" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
         <v>21</v>
       </c>
       <c r="B20" t="s">
-        <v>1110</v>
+        <v>1001</v>
       </c>
       <c r="C20" t="s">
-        <v>456</v>
+        <v>1122</v>
       </c>
       <c r="D20" t="s">
-        <v>1096</v>
-      </c>
-    </row>
-    <row r="21">
+        <v>42</v>
+      </c>
+      <c r="E20" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
         <v>22</v>
       </c>
       <c r="B21" t="s">
-        <v>1111</v>
+        <v>1001</v>
       </c>
       <c r="C21" t="s">
-        <v>42</v>
+        <v>1123</v>
       </c>
       <c r="D21" t="s">
-        <v>1096</v>
-      </c>
-    </row>
-    <row r="22">
+        <v>456</v>
+      </c>
+      <c r="E21" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>1112</v>
+        <v>1001</v>
       </c>
       <c r="C22" t="s">
-        <v>456</v>
+        <v>1124</v>
       </c>
       <c r="D22" t="s">
-        <v>1096</v>
-      </c>
-    </row>
-    <row r="23">
+        <v>42</v>
+      </c>
+      <c r="E22" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
         <v>24</v>
       </c>
       <c r="B23" t="s">
-        <v>1113</v>
+        <v>1001</v>
       </c>
       <c r="C23" t="s">
-        <v>42</v>
+        <v>1125</v>
       </c>
       <c r="D23" t="s">
-        <v>1096</v>
-      </c>
-    </row>
-    <row r="24">
+        <v>456</v>
+      </c>
+      <c r="E23" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
         <v>25</v>
       </c>
       <c r="B24" t="s">
-        <v>1095</v>
+        <v>1001</v>
       </c>
       <c r="C24" t="s">
-        <v>455</v>
+        <v>1126</v>
       </c>
       <c r="D24" t="s">
-        <v>1096</v>
-      </c>
-    </row>
-    <row r="25">
+        <v>42</v>
+      </c>
+      <c r="E24" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
         <v>26</v>
       </c>
       <c r="B25" t="s">
-        <v>1114</v>
+        <v>1001</v>
       </c>
       <c r="C25" t="s">
-        <v>354</v>
+        <v>1127</v>
       </c>
       <c r="D25" t="s">
-        <v>1096</v>
-      </c>
-    </row>
-    <row r="26">
+        <v>455</v>
+      </c>
+      <c r="E25" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
         <v>27</v>
       </c>
       <c r="B26" t="s">
-        <v>1115</v>
+        <v>1001</v>
       </c>
       <c r="C26" t="s">
-        <v>456</v>
+        <v>1128</v>
       </c>
       <c r="D26" t="s">
-        <v>1096</v>
-      </c>
-    </row>
-    <row r="27">
+        <v>354</v>
+      </c>
+      <c r="E26" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
         <v>28</v>
       </c>
       <c r="B27" t="s">
-        <v>1116</v>
+        <v>1001</v>
       </c>
       <c r="C27" t="s">
-        <v>42</v>
+        <v>1129</v>
       </c>
       <c r="D27" t="s">
-        <v>1096</v>
-      </c>
-    </row>
-    <row r="28">
+        <v>456</v>
+      </c>
+      <c r="E27" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
         <v>29</v>
       </c>
       <c r="B28" t="s">
-        <v>1094</v>
+        <v>1001</v>
       </c>
       <c r="C28" t="s">
-        <v>456</v>
+        <v>1130</v>
       </c>
       <c r="D28" t="s">
-        <v>1096</v>
-      </c>
-    </row>
-    <row r="29">
+        <v>42</v>
+      </c>
+      <c r="E28" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
         <v>79</v>
       </c>
       <c r="B29" t="s">
-        <v>1117</v>
+        <v>1001</v>
       </c>
       <c r="C29" t="s">
-        <v>454</v>
+        <v>1131</v>
       </c>
       <c r="D29" t="s">
-        <v>1096</v>
-      </c>
-    </row>
-    <row r="30">
+        <v>456</v>
+      </c>
+      <c r="E29" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
         <v>80</v>
       </c>
       <c r="B30" t="s">
-        <v>1118</v>
+        <v>1001</v>
       </c>
       <c r="C30" t="s">
-        <v>40</v>
+        <v>1132</v>
       </c>
       <c r="D30" t="s">
-        <v>1096</v>
-      </c>
-    </row>
-    <row r="31">
+        <v>454</v>
+      </c>
+      <c r="E30" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
         <v>81</v>
       </c>
       <c r="B31" t="s">
-        <v>1119</v>
+        <v>1001</v>
       </c>
       <c r="C31" t="s">
-        <v>454</v>
+        <v>1133</v>
       </c>
       <c r="D31" t="s">
-        <v>1096</v>
-      </c>
-    </row>
-    <row r="32">
+        <v>40</v>
+      </c>
+      <c r="E31" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
         <v>82</v>
       </c>
       <c r="B32" t="s">
-        <v>1120</v>
+        <v>1001</v>
       </c>
       <c r="C32" t="s">
-        <v>40</v>
+        <v>1134</v>
       </c>
       <c r="D32" t="s">
-        <v>1096</v>
-      </c>
-    </row>
-    <row r="33">
+        <v>454</v>
+      </c>
+      <c r="E32" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
         <v>83</v>
       </c>
       <c r="B33" t="s">
-        <v>1093</v>
+        <v>1001</v>
       </c>
       <c r="C33" t="s">
-        <v>454</v>
+        <v>1135</v>
       </c>
       <c r="D33" t="s">
-        <v>1096</v>
-      </c>
-    </row>
-    <row r="34">
+        <v>40</v>
+      </c>
+      <c r="E33" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
         <v>84</v>
       </c>
       <c r="B34" t="s">
-        <v>1121</v>
+        <v>1001</v>
       </c>
       <c r="C34" t="s">
-        <v>355</v>
+        <v>1136</v>
       </c>
       <c r="D34" t="s">
-        <v>1096</v>
-      </c>
-    </row>
-    <row r="35">
+        <v>454</v>
+      </c>
+      <c r="E34" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
         <v>85</v>
       </c>
       <c r="B35" t="s">
-        <v>1092</v>
+        <v>1001</v>
       </c>
       <c r="C35" t="s">
-        <v>41</v>
+        <v>1137</v>
       </c>
       <c r="D35" t="s">
-        <v>1096</v>
-      </c>
-    </row>
-    <row r="36">
+        <v>355</v>
+      </c>
+      <c r="E35" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A36" t="s">
         <v>86</v>
       </c>
       <c r="B36" t="s">
-        <v>1092</v>
+        <v>1001</v>
       </c>
       <c r="C36" t="s">
+        <v>1137</v>
+      </c>
+      <c r="D36" t="s">
+        <v>41</v>
+      </c>
+      <c r="E36" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="D37" t="s">
         <v>355</v>
       </c>
-      <c r="D36" t="s">
-        <v>1096</v>
+      <c r="E37" t="s">
+        <v>1047</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -25335,8 +25978,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="23.53125" collapsed="true"/>
-    <col min="3" max="4" bestFit="true" customWidth="true" width="19.53125" collapsed="true"/>
+    <col min="2" max="2" width="23.53125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="4" width="19.53125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.45">
@@ -25968,8 +26611,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="23.53125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="19.53125" collapsed="true"/>
+    <col min="2" max="2" width="23.53125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="19.53125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.45">
@@ -26068,9 +26711,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="23.53125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="19.53125" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="11.33203125" collapsed="true"/>
+    <col min="2" max="2" width="23.53125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="19.53125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="11.33203125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.45">
@@ -26685,7 +27328,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="19.53125" collapsed="true"/>
+    <col min="3" max="3" width="19.53125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.45">
